--- a/data/hotels_by_city/Denver/Denver_shard_47.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_47.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="472">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33514-d225455-Reviews-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Crosslands-Denver-Lakewood-West.h17702.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1304 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r570292090-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>225455</t>
+  </si>
+  <si>
+    <t>570292090</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>stayed there 27 days at leat 2  to 3 times a week the card to open door was broke never got resolved</t>
+  </si>
+  <si>
+    <t>I have stayed at a lot of places but this place was the only place I would not take my family to.it had many people milling around all hours some broken down motorhomes on parking lot and a number of other things that just did not feel very secure there my room key which was a card would not work at least 2-3 times a week so I would have to walk down in the freezing col  to the office and wait in line to program new cards never got that fixed in 4 weeks one night at 9pm there was yelling screaming and walls being hit I called desk and no one answered several police cars c ame through all hours and sometimes ambulance would not  suggest staying until they get ahold on security MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at a lot of places but this place was the only place I would not take my family to.it had many people milling around all hours some broken down motorhomes on parking lot and a number of other things that just did not feel very secure there my room key which was a card would not work at least 2-3 times a week so I would have to walk down in the freezing col  to the office and wait in line to program new cards never got that fixed in 4 weeks one night at 9pm there was yelling screaming and walls being hit I called desk and no one answered several police cars c ame through all hours and sometimes ambulance would not  suggest staying until they get ahold on security More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r563933463-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>563933463</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Execellent Hotel</t>
+  </si>
+  <si>
+    <t>I was Staying Two Night This Excellent  the  Rooms. Services Also very Good everything good Nice Hotel Nice Staff he Hotel is so welcoming with all facilities from business travel to family holiday.Very Central &amp; Great Value For Money. Great location.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r555899847-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>555899847</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>No High Speed Internet is NO INTERNET</t>
+  </si>
+  <si>
+    <t>Spacious though spartan economy 'suites' offer cheap (see Experian) stay in otherwise expensive Denver.  Many long-term renters seem friendly. Only ONE ELEVATOR for massive three-story seemingly never-ending array of buildings and long walks with your luggage from elevator to many rooms. Ads boast wifi in every room, but it is NOT HIGH SPEED WIFI and page loading is so slow you often just give up.  Wide-screen modern TV sets only get analog signals and there is no tv channel guide - nice lady desk clerk says 'just click through the channels' and see which networks or on which channel numbers - well, at least you get free Shotime.  Out of date look to buildings - this place takes some getting use to but Esperian had rates in the high $30's per night.  WalMart, Dollar Tree, McDonalds, supermarkets are all a reasonably short drive (or long walk).MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Spacious though spartan economy 'suites' offer cheap (see Experian) stay in otherwise expensive Denver.  Many long-term renters seem friendly. Only ONE ELEVATOR for massive three-story seemingly never-ending array of buildings and long walks with your luggage from elevator to many rooms. Ads boast wifi in every room, but it is NOT HIGH SPEED WIFI and page loading is so slow you often just give up.  Wide-screen modern TV sets only get analog signals and there is no tv channel guide - nice lady desk clerk says 'just click through the channels' and see which networks or on which channel numbers - well, at least you get free Shotime.  Out of date look to buildings - this place takes some getting use to but Esperian had rates in the high $30's per night.  WalMart, Dollar Tree, McDonalds, supermarkets are all a reasonably short drive (or long walk).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r489672681-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>489672681</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Homeless hotel</t>
+  </si>
+  <si>
+    <t>Let's just say every thing about it sucks. Stay away.people milling about. One towel. Filthy carpet. Baseboards filthy. Trash all around outside areas. Door jam looked like it had been kicked in recently.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r483210902-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>483210902</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Horrible place</t>
+  </si>
+  <si>
+    <t>Well if you are looking for somewhere to score some crack or meth...this is the place for you. Do not bring kids here its not safe by any stretch of the imagination. The rooms are dirty the doors aren't secure and the front desk people are nasty at best</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r471088896-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>471088896</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Plumbing issues</t>
+  </si>
+  <si>
+    <t>Plumbing sucks. Shower would not drain. Had to ask three times and still no maintenance man has ever showed up to clear our drains. Think they give us a discount or something but no nothing. I guess I might recommend this hotel to my worst enemy but that would be the only person I'd recommend this hotel to</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r416966764-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>416966764</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>This Hotel looks like the Ghetto Apartments I lived in in 1983</t>
+  </si>
+  <si>
+    <t>When my husband and I pulled up and parked at this Hotel I was like, "Is this a Joke"? The outside of the building is old, rusted, dirty and needs lots of work. The inside was big like a apartment and it was clean but very outdated and stunk like old cigarette smoke. I also had a paranormal incident happen in the bedroom. I was taking a nap and had my contact case sitting next to me in the middle of the table, while sleeping I heard something fall and my contact case had been knocked off the table and on to the floor. It was creepy I felt like we were not wanted in that dark old gloomy room. I will never stay here again and the price was too high for this ghetto place. There also were what looked to be blood stains on the shower curtain and we had to buy our own towels and toilet paper because they were not given to us on a daily basis. Stay here if you want a creepy dumpy experience otherwise save your money people.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>When my husband and I pulled up and parked at this Hotel I was like, "Is this a Joke"? The outside of the building is old, rusted, dirty and needs lots of work. The inside was big like a apartment and it was clean but very outdated and stunk like old cigarette smoke. I also had a paranormal incident happen in the bedroom. I was taking a nap and had my contact case sitting next to me in the middle of the table, while sleeping I heard something fall and my contact case had been knocked off the table and on to the floor. It was creepy I felt like we were not wanted in that dark old gloomy room. I will never stay here again and the price was too high for this ghetto place. There also were what looked to be blood stains on the shower curtain and we had to buy our own towels and toilet paper because they were not given to us on a daily basis. Stay here if you want a creepy dumpy experience otherwise save your money people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r390444399-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>390444399</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>It's very comfortable. And very close to highway. Has stores close by to eat and to play. Costumer service great and open at night I will stay any time. Great prices that are affordable and will get discounts online pay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>It's very comfortable. And very close to highway. Has stores close by to eat and to play. Costumer service great and open at night I will stay any time. Great prices that are affordable and will get discounts online pay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r387414709-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>387414709</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Hated to return to room every evening! Disgusting. UNSAFE PATRONS!!!</t>
+  </si>
+  <si>
+    <t>Bathroom sink totally plugged up and never fixed after repeated requests over 4 days. A/C barely worked during heat wave and it popped and crackled all night--thought it might start a fire. Old tube-set TV with 20x more snow than picture--it was basically just a radio. No hangers. For some reason the mattress was superb, but probably just in my room. Shingles sliding off pitched roof. Rusty handrails everywhere. No elevator to my 3rd floor room. Afraid to use Wi-Fi, since this is a crime area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r369891783-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>369891783</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>What a dump!!!!!</t>
+  </si>
+  <si>
+    <t>I had reserved the room 1 month before arriving and on line.  We arrived on Saturday April 30th, remembering what the pictures looked liked when I made the reservations. Wow so disappointed  The carpet had either big burn marks or grease marks, not sure but I really didn't want to go barefoot on this carpet. We really didn't start noticing things until it was time to go to bed, the bed had no mattress pad on it. Weird!!  The next day we put in a request for some more towels/wash cloths, didn't get them until the next day BUT we had to pick them up AND the clerk was going to hand them to my husband UNFOLDED and she asked if he would like a sack to put them in.  As she just took them out of the dryer.  WE FOLDED them in our room. No waste baskets so we bought some garbage sacks to put garbage in and the room stunk SO BAD that we got some room spray.  Ran out of hot water while taking shower, that was the first one taking it. 
+But the thing that really pushed us over the edge was, THEY DID NOT WIPE DOWN THE HEAD BOARD-my husband says it looked like they used the room to shoot a porn fill!!!!!   NEVER again, as one review says here KEEP DRIVING!!!!  We are ones that don't complain but this place pushed us to where...I had reserved the room 1 month before arriving and on line.  We arrived on Saturday April 30th, remembering what the pictures looked liked when I made the reservations. Wow so disappointed  The carpet had either big burn marks or grease marks, not sure but I really didn't want to go barefoot on this carpet. We really didn't start noticing things until it was time to go to bed, the bed had no mattress pad on it. Weird!!  The next day we put in a request for some more towels/wash cloths, didn't get them until the next day BUT we had to pick them up AND the clerk was going to hand them to my husband UNFOLDED and she asked if he would like a sack to put them in.  As she just took them out of the dryer.  WE FOLDED them in our room. No waste baskets so we bought some garbage sacks to put garbage in and the room stunk SO BAD that we got some room spray.  Ran out of hot water while taking shower, that was the first one taking it. But the thing that really pushed us over the edge was, THEY DID NOT WIPE DOWN THE HEAD BOARD-my husband says it looked like they used the room to shoot a porn fill!!!!!   NEVER again, as one review says here KEEP DRIVING!!!!  We are ones that don't complain but this place pushed us to where we just wanted to go home. It ruined a wonderful weekend but we did go to a better place and paid the same amount for a DELUXE room as the price we paid at this DUMP. Very unprofessional attitudes checking in and checking out.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>I had reserved the room 1 month before arriving and on line.  We arrived on Saturday April 30th, remembering what the pictures looked liked when I made the reservations. Wow so disappointed  The carpet had either big burn marks or grease marks, not sure but I really didn't want to go barefoot on this carpet. We really didn't start noticing things until it was time to go to bed, the bed had no mattress pad on it. Weird!!  The next day we put in a request for some more towels/wash cloths, didn't get them until the next day BUT we had to pick them up AND the clerk was going to hand them to my husband UNFOLDED and she asked if he would like a sack to put them in.  As she just took them out of the dryer.  WE FOLDED them in our room. No waste baskets so we bought some garbage sacks to put garbage in and the room stunk SO BAD that we got some room spray.  Ran out of hot water while taking shower, that was the first one taking it. 
+But the thing that really pushed us over the edge was, THEY DID NOT WIPE DOWN THE HEAD BOARD-my husband says it looked like they used the room to shoot a porn fill!!!!!   NEVER again, as one review says here KEEP DRIVING!!!!  We are ones that don't complain but this place pushed us to where...I had reserved the room 1 month before arriving and on line.  We arrived on Saturday April 30th, remembering what the pictures looked liked when I made the reservations. Wow so disappointed  The carpet had either big burn marks or grease marks, not sure but I really didn't want to go barefoot on this carpet. We really didn't start noticing things until it was time to go to bed, the bed had no mattress pad on it. Weird!!  The next day we put in a request for some more towels/wash cloths, didn't get them until the next day BUT we had to pick them up AND the clerk was going to hand them to my husband UNFOLDED and she asked if he would like a sack to put them in.  As she just took them out of the dryer.  WE FOLDED them in our room. No waste baskets so we bought some garbage sacks to put garbage in and the room stunk SO BAD that we got some room spray.  Ran out of hot water while taking shower, that was the first one taking it. But the thing that really pushed us over the edge was, THEY DID NOT WIPE DOWN THE HEAD BOARD-my husband says it looked like they used the room to shoot a porn fill!!!!!   NEVER again, as one review says here KEEP DRIVING!!!!  We are ones that don't complain but this place pushed us to where we just wanted to go home. It ruined a wonderful weekend but we did go to a better place and paid the same amount for a DELUXE room as the price we paid at this DUMP. Very unprofessional attitudes checking in and checking out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r352868362-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>352868362</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>Liesure</t>
+  </si>
+  <si>
+    <t>***** Enjoyed our stay great customer service. Suite was comfortable had all amenities needed would stay here again and recommend to friends and family. Enjoyed our stay so much we have decided to call this home for awhile.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>***** Enjoyed our stay great customer service. Suite was comfortable had all amenities needed would stay here again and recommend to friends and family. Enjoyed our stay so much we have decided to call this home for awhile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r350340622-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>350340622</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Run Away, You are better in one of the Crap Motels on Colfax</t>
+  </si>
+  <si>
+    <t>Our 1st room had no LR furniture whatsoever. When i complained to the front desk i was told they no longer had couches or recliners. I waited till the next shift and complained and got a new room with...OMG... A couch. The new room was missing the shower curtain, the towels, the comforters and had very dirty carpet. I swore i saw a bug the first night, and guess what we have BED BUGS!! THE LR tv did not work neither did front door lock and electrical outlets. OUR ROOM HEATER DID NOT WORK OH AND BY THE WAY ITS FREAKING WINTER AND SNOWING... IN DENVER ITS COLD!! OMG HAD TO GO BUY TWO HEATERS!! . We complained more than once but in three weeks NOT A SOUL came to fix OUR HEATER!!! But check this out maintenance sent someone to spray for the infestation of bed bugs so that means the management TOTALLY KNEW the room WAS INFESTED WITH BED BUGS at the time we were moved into it. There were DRUG syringes under the couch and the bed, housekeeping never surfaced but one time in three weeks, the toilet got clogged and we had to go buy our own plunger because they had no maintenance available. Drug Traffic All Night Long!! Loud screaming neighbors on both sides! Spotty Internet service. Dingy Furniture and carpet, was told no dishes or kitchen ware were available as promised but found about...Our 1st room had no LR furniture whatsoever. When i complained to the front desk i was told they no longer had couches or recliners. I waited till the next shift and complained and got a new room with...OMG... A couch. The new room was missing the shower curtain, the towels, the comforters and had very dirty carpet. I swore i saw a bug the first night, and guess what we have BED BUGS!! THE LR tv did not work neither did front door lock and electrical outlets. OUR ROOM HEATER DID NOT WORK OH AND BY THE WAY ITS FREAKING WINTER AND SNOWING... IN DENVER ITS COLD!! OMG HAD TO GO BUY TWO HEATERS!! . We complained more than once but in three weeks NOT A SOUL came to fix OUR HEATER!!! But check this out maintenance sent someone to spray for the infestation of bed bugs so that means the management TOTALLY KNEW the room WAS INFESTED WITH BED BUGS at the time we were moved into it. There were DRUG syringes under the couch and the bed, housekeeping never surfaced but one time in three weeks, the toilet got clogged and we had to go buy our own plunger because they had no maintenance available. Drug Traffic All Night Long!! Loud screaming neighbors on both sides! Spotty Internet service. Dingy Furniture and carpet, was told no dishes or kitchen ware were available as promised but found about the day before checkout that was a lie as well!! Our belonging are infested with BED BUGS!!  We had to go and buy so much stuff for the room we spent almost 400$!! And then find out they had the items in the storage room by the office...if you ask... Hmm that's funny because It seems that i did ask and was told otherwise! There was no hot water and the bedroom door wad missing!! We gave up on asking the transvestite behind counter for help or even giving complaints due to his poor work ethic, deplorable customer service, blatant lies and outright disrespect. We were absolutely appalled when he took the lords name in vain, stated that he was not a Christian and then spoke disrespectfully about a previous guest whom was a preacher which is so unprofessional and even cursed numerous times in front of guests, some with small children. Don't EVEN THINK OF STAYING HERE run away as fast as you can, there is better quality for less right down the road. DONT BRING YOUR FAMILY HERE PLEASE!! IF YOU ARE A PROSTITUTE, A DRUG DEALER OR JUNKIE THIS IS THE PLACE FOR YOU!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Our 1st room had no LR furniture whatsoever. When i complained to the front desk i was told they no longer had couches or recliners. I waited till the next shift and complained and got a new room with...OMG... A couch. The new room was missing the shower curtain, the towels, the comforters and had very dirty carpet. I swore i saw a bug the first night, and guess what we have BED BUGS!! THE LR tv did not work neither did front door lock and electrical outlets. OUR ROOM HEATER DID NOT WORK OH AND BY THE WAY ITS FREAKING WINTER AND SNOWING... IN DENVER ITS COLD!! OMG HAD TO GO BUY TWO HEATERS!! . We complained more than once but in three weeks NOT A SOUL came to fix OUR HEATER!!! But check this out maintenance sent someone to spray for the infestation of bed bugs so that means the management TOTALLY KNEW the room WAS INFESTED WITH BED BUGS at the time we were moved into it. There were DRUG syringes under the couch and the bed, housekeeping never surfaced but one time in three weeks, the toilet got clogged and we had to go buy our own plunger because they had no maintenance available. Drug Traffic All Night Long!! Loud screaming neighbors on both sides! Spotty Internet service. Dingy Furniture and carpet, was told no dishes or kitchen ware were available as promised but found about...Our 1st room had no LR furniture whatsoever. When i complained to the front desk i was told they no longer had couches or recliners. I waited till the next shift and complained and got a new room with...OMG... A couch. The new room was missing the shower curtain, the towels, the comforters and had very dirty carpet. I swore i saw a bug the first night, and guess what we have BED BUGS!! THE LR tv did not work neither did front door lock and electrical outlets. OUR ROOM HEATER DID NOT WORK OH AND BY THE WAY ITS FREAKING WINTER AND SNOWING... IN DENVER ITS COLD!! OMG HAD TO GO BUY TWO HEATERS!! . We complained more than once but in three weeks NOT A SOUL came to fix OUR HEATER!!! But check this out maintenance sent someone to spray for the infestation of bed bugs so that means the management TOTALLY KNEW the room WAS INFESTED WITH BED BUGS at the time we were moved into it. There were DRUG syringes under the couch and the bed, housekeeping never surfaced but one time in three weeks, the toilet got clogged and we had to go buy our own plunger because they had no maintenance available. Drug Traffic All Night Long!! Loud screaming neighbors on both sides! Spotty Internet service. Dingy Furniture and carpet, was told no dishes or kitchen ware were available as promised but found about the day before checkout that was a lie as well!! Our belonging are infested with BED BUGS!!  We had to go and buy so much stuff for the room we spent almost 400$!! And then find out they had the items in the storage room by the office...if you ask... Hmm that's funny because It seems that i did ask and was told otherwise! There was no hot water and the bedroom door wad missing!! We gave up on asking the transvestite behind counter for help or even giving complaints due to his poor work ethic, deplorable customer service, blatant lies and outright disrespect. We were absolutely appalled when he took the lords name in vain, stated that he was not a Christian and then spoke disrespectfully about a previous guest whom was a preacher which is so unprofessional and even cursed numerous times in front of guests, some with small children. Don't EVEN THINK OF STAYING HERE run away as fast as you can, there is better quality for less right down the road. DONT BRING YOUR FAMILY HERE PLEASE!! IF YOU ARE A PROSTITUTE, A DRUG DEALER OR JUNKIE THIS IS THE PLACE FOR YOU!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r316398785-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>316398785</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>double billed, dirty,shoddy place with really bad personnel and treatment</t>
+  </si>
+  <si>
+    <t>double billed, clerks in office complete idiots, even manager. no coffe maker, tv is old box style, remote doesnt work. bathroom dirty. very run down  shady place! having to go to corporate to get refund on double billing. treated horribly</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r315144807-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>315144807</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>worst-experience-ever</t>
+  </si>
+  <si>
+    <t>1) The wash basin was clogged. 2) When I called the front-desk they say we do not have a plumber ( Am I just supposed to live with it ? no offer to help).3) When I said "so what do I do?" he says- let me find a plunger and call you back.NO SUCH CALL CAME back to me. 4) The bed is harder than a rock. Even if you are looking for cheap place to stay you can find a lot of other ones that are much better. I hated my stay here. I could not seep all night.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r311134470-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>311134470</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Keep driving . . .</t>
+  </si>
+  <si>
+    <t>From the TV remote control to the light switch on the wall, everything had a greasy and filthy feel to it. The kitchenette had no utensils and the hotel had no ice unless you wanted to make it in your room. No cups in the bathroom. Some of the other hotel guests appeared to be running businesses out of their rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r292049186-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>292049186</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Keep driving!!</t>
+  </si>
+  <si>
+    <t>We booked this room for a single night, and only because it seemed to be the only place in town with any availability.  Our preferred selection of Hamptons, Holiday Inns, Marriotts, etc. were all booked up on this particular night.  Upon check-in I was advised that the facility was overbooked and that I was lucky to have a room.  Front desk staff was slow, delayed my check-in by chatting with another customer during my check-in process, talked about that customer behind their back after they left the lobby (very unprofessional to do in front of other guests), and acted inconvenienced when I requested an additional blanket for a child.  The facility in general was not clean.  Stairwells were dirty.  The room was surprisingly spacious, however, the carpets were filthy and the bathroom floor was not adequately cleaned.  Additionally, the sink stopper was not functional, but the drain was so clogged that water did not drain anyway.  The room did not look like the photos on the company website AT ALL.  The furniture and appliances are old and outdated -- which is fine -- but dirty is definitely a problem.  I have had much better accommodations for $100 per night at other major hotel chains.  As weary travelers my family was grateful for a place to stay, however, after this experience next time we will just keep driving.  I would not stay here again.  This facility was a disappointment.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We booked this room for a single night, and only because it seemed to be the only place in town with any availability.  Our preferred selection of Hamptons, Holiday Inns, Marriotts, etc. were all booked up on this particular night.  Upon check-in I was advised that the facility was overbooked and that I was lucky to have a room.  Front desk staff was slow, delayed my check-in by chatting with another customer during my check-in process, talked about that customer behind their back after they left the lobby (very unprofessional to do in front of other guests), and acted inconvenienced when I requested an additional blanket for a child.  The facility in general was not clean.  Stairwells were dirty.  The room was surprisingly spacious, however, the carpets were filthy and the bathroom floor was not adequately cleaned.  Additionally, the sink stopper was not functional, but the drain was so clogged that water did not drain anyway.  The room did not look like the photos on the company website AT ALL.  The furniture and appliances are old and outdated -- which is fine -- but dirty is definitely a problem.  I have had much better accommodations for $100 per night at other major hotel chains.  As weary travelers my family was grateful for a place to stay, however, after this experience next time we will just keep driving.  I would not stay here again.  This facility was a disappointment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r284320202-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>284320202</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Run away!!!</t>
+  </si>
+  <si>
+    <t>This place is a beehive of junkies and prostitutes. Its not safe. People urinate everywhere - even inside the elevator! They had their last room for us and it wasn't cleaned up - in a way that it was quite clear it was used by a prostitute throughout the day. They just said 'sorry, we forgot to clean' - and we were sent off into the night, running for our lives. If you can't find anywhere else to stay - just sleep in the car. way better than this place. RUN!!!!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r281699748-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>281699748</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>RUN AWAY !!!</t>
+  </si>
+  <si>
+    <t>I'm a young traveler (23 years old) so I'm used to be on a budget and stayed at many hostel and really cheap hotels in a lot of different countries. However, this place is by far the worst nightmare I've ever seen. I booked it through Expedia with my boyfriend, but we decided to not sleep there even if it was not refundable. We prefered to find another hotel in the middle of the night rather than to stay at this filthy place. - Sheets were dirty (crap from other people was still IN the bed);- Dirty stains everywhere in the room (bathroom, sink, floor, walls, roof, mattress);- Broken furniture (heater);- UNSAFE FEELING everywhere (in the parking lot and in the room) - there were people and families sleeping in their cars in the parking lot.The only positive point about this place is that the internet was working so we could book somewhere else and run as fast as we could.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm a young traveler (23 years old) so I'm used to be on a budget and stayed at many hostel and really cheap hotels in a lot of different countries. However, this place is by far the worst nightmare I've ever seen. I booked it through Expedia with my boyfriend, but we decided to not sleep there even if it was not refundable. We prefered to find another hotel in the middle of the night rather than to stay at this filthy place. - Sheets were dirty (crap from other people was still IN the bed);- Dirty stains everywhere in the room (bathroom, sink, floor, walls, roof, mattress);- Broken furniture (heater);- UNSAFE FEELING everywhere (in the parking lot and in the room) - there were people and families sleeping in their cars in the parking lot.The only positive point about this place is that the internet was working so we could book somewhere else and run as fast as we could.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r229125731-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>229125731</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Disappointment</t>
+  </si>
+  <si>
+    <t>We rented this room on Hotwire. The front desk liaison was helpful, knowledgeable and courteous. Unfortunately, she sent us to one dirty room after another.The rooms lacked basic service; dirty floors, dirty beds, bathrooms in each attempt to offer us a clean and ready room.Internet spotty and no bathroom door on "renovated" last resort. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded September 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2014</t>
+  </si>
+  <si>
+    <t>We rented this room on Hotwire. The front desk liaison was helpful, knowledgeable and courteous. Unfortunately, she sent us to one dirty room after another.The rooms lacked basic service; dirty floors, dirty beds, bathrooms in each attempt to offer us a clean and ready room.Internet spotty and no bathroom door on "renovated" last resort. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r228212496-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>228212496</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>It's ok</t>
+  </si>
+  <si>
+    <t>Yea it's ok but y'all need to upgrade the ac and tv cause the ones in there are outdated and clean the rooms better if the ones before had pets thank you and I should not have to write a review with 200 cha haters MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded September 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2014</t>
+  </si>
+  <si>
+    <t>Yea it's ok but y'all need to upgrade the ac and tv cause the ones in there are outdated and clean the rooms better if the ones before had pets thank you and I should not have to write a review with 200 cha haters More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r221359276-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>221359276</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Great location, great staff!!!</t>
+  </si>
+  <si>
+    <t>I stayed at the Crossland from June, 2013 until May 2014 and am well acquainted with extended stay hotel life. I give the Crossland a three star rating for it's great location and value for price attributes. Yes it's a 3-star hotel, not four or five, but if you want that rating, go stay at the Hilton (Homestead Suites) or the Westin. Just be prepared to spend major bank!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at the Crossland from June, 2013 until May 2014 and am well acquainted with extended stay hotel life. I give the Crossland a three star rating for it's great location and value for price attributes. Yes it's a 3-star hotel, not four or five, but if you want that rating, go stay at the Hilton (Homestead Suites) or the Westin. Just be prepared to spend major bank!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r209332570-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>209332570</t>
+  </si>
+  <si>
+    <t>06/07/2014</t>
+  </si>
+  <si>
+    <t>Perfect for my needs</t>
+  </si>
+  <si>
+    <t>For what I needed, Crossland was a great fit. Clean, comfortable, reasonably priced, and within walking distance of the workshop I ws attending. It is an older hotel, but do not confuse age for uncleanliness. If you are looking for a bunch of bells and whistles, stay some where else. If you are looking for a good price and a good place to stay with the necessities of life, this is the place. The staff was also very helpful and the Internet was the fastest that I have ever had in a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded June 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2014</t>
+  </si>
+  <si>
+    <t>For what I needed, Crossland was a great fit. Clean, comfortable, reasonably priced, and within walking distance of the workshop I ws attending. It is an older hotel, but do not confuse age for uncleanliness. If you are looking for a bunch of bells and whistles, stay some where else. If you are looking for a good price and a good place to stay with the necessities of life, this is the place. The staff was also very helpful and the Internet was the fastest that I have ever had in a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r202324073-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>202324073</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!!</t>
+  </si>
+  <si>
+    <t>First of all...the good reviews on this website are written by folks that work there. Ask for David, they're biggest reviewer (who has given good reviews 5 times) and you will get....tada...the general manager. Second...they charged us for someone elses' room and then Jane lied to us about it saying we were misquoted our original price. According to her, some made up lady named Bambi made a mistake. I called a week later and asked for Bambi and there is no Bambi that works there. Third... OH MY GAWD dirty dingy nasty hotel. Internet doesn't work, like 10 channels in their line-up. Crappy service... we were told we were being charged for trash...$50 a bag mind you... that they didn't take out on our cleaning day. Barking dog next door...we  complained for days about the neighbors barking dog barking at 4,5,6:00 in the MORNING!!! Nothing happened... they did nothing!!! And they had two rooms taped off like a crime scene and the next day a bunch of mattresses show up-----&gt;BED BUGS!!!DO NOT STAY HERE!!! THE GOOD REVIEWS ARE NOT FOR REAL!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>First of all...the good reviews on this website are written by folks that work there. Ask for David, they're biggest reviewer (who has given good reviews 5 times) and you will get....tada...the general manager. Second...they charged us for someone elses' room and then Jane lied to us about it saying we were misquoted our original price. According to her, some made up lady named Bambi made a mistake. I called a week later and asked for Bambi and there is no Bambi that works there. Third... OH MY GAWD dirty dingy nasty hotel. Internet doesn't work, like 10 channels in their line-up. Crappy service... we were told we were being charged for trash...$50 a bag mind you... that they didn't take out on our cleaning day. Barking dog next door...we  complained for days about the neighbors barking dog barking at 4,5,6:00 in the MORNING!!! Nothing happened... they did nothing!!! And they had two rooms taped off like a crime scene and the next day a bunch of mattresses show up-----&gt;BED BUGS!!!DO NOT STAY HERE!!! THE GOOD REVIEWS ARE NOT FOR REAL!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r201837268-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>201837268</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>Disgusting, dirty, miserable stay!!!</t>
+  </si>
+  <si>
+    <t>Never would stay again. Even if it was free!!! Had to re-wash my clean clothes when I left. Bed was a noisy rock, that sounded like bubble wrap popping while sitting or laying. Multiple trash items and cigarette buds under bed and night stand. Bed, covers, walls, and carpets were stained, melted, burned and dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded April 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2014</t>
+  </si>
+  <si>
+    <t>Never would stay again. Even if it was free!!! Had to re-wash my clean clothes when I left. Bed was a noisy rock, that sounded like bubble wrap popping while sitting or laying. Multiple trash items and cigarette buds under bed and night stand. Bed, covers, walls, and carpets were stained, melted, burned and dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r189733464-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>189733464</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>The people were wonderful but the facility didn't measure up</t>
+  </si>
+  <si>
+    <t>I took my 90-year-old, handicapped mother from California here; we planned to stay about a week, while moving her things into a senior community in Colorado. The handicap room was to be our haven, our respite, after unpacking things several hours a day.  But after the first night, we left. We coped with the unfresh smell in the room by opening the window and sprinkling baking soda room deodorizer around on the carpet, but that was only part of the problem.  For anyone, a shelf of some sort in the bathroom is handy; for a handicapped person, the lack of anything to set a toilet kit on was a real problem. In the large (roll-in for wheelchair--that's good) bathroom, there were a toilet, a tub (with safety grip bars) and a sink. Period. Too bare. Clean, though! a handicapped person needs a soft, comfortable place to sit, like an upholstered chair with arms, for safety. In this room, there were just two straight-backed, no arms, hard chairs--not safe or comfortable.  In the end, I'd say the room would have been adequate for people with no physical problems, who simply needed a place to sleep--bed was good (though bedspread was dirty--we just removed it). The kitchenette was adequate (though one of the two burners was somehow dislodged and couldn't be placed right); very minimal dishes--2 plates, 2 cups, flatware for two, a pan, a spatula...very basic. For a heaven for a...I took my 90-year-old, handicapped mother from California here; we planned to stay about a week, while moving her things into a senior community in Colorado. The handicap room was to be our haven, our respite, after unpacking things several hours a day.  But after the first night, we left. We coped with the unfresh smell in the room by opening the window and sprinkling baking soda room deodorizer around on the carpet, but that was only part of the problem.  For anyone, a shelf of some sort in the bathroom is handy; for a handicapped person, the lack of anything to set a toilet kit on was a real problem. In the large (roll-in for wheelchair--that's good) bathroom, there were a toilet, a tub (with safety grip bars) and a sink. Period. Too bare. Clean, though! a handicapped person needs a soft, comfortable place to sit, like an upholstered chair with arms, for safety. In this room, there were just two straight-backed, no arms, hard chairs--not safe or comfortable.  In the end, I'd say the room would have been adequate for people with no physical problems, who simply needed a place to sleep--bed was good (though bedspread was dirty--we just removed it). The kitchenette was adequate (though one of the two burners was somehow dislodged and couldn't be placed right); very minimal dishes--2 plates, 2 cups, flatware for two, a pan, a spatula...very basic. For a heaven for a week, the place was not going to work for us, so we checked out next morning.  The staff were wonderful, though, both at check in and at check out: kind, patient, helpful, competent, efficient, cheerful, eager to do whatever they could to help--it actually made it hard to check out: you WANTED to be pleased and satisfied. But we weren't.  I wish the fine women who worked at reception had a place they could be more proud of: they deserve it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I took my 90-year-old, handicapped mother from California here; we planned to stay about a week, while moving her things into a senior community in Colorado. The handicap room was to be our haven, our respite, after unpacking things several hours a day.  But after the first night, we left. We coped with the unfresh smell in the room by opening the window and sprinkling baking soda room deodorizer around on the carpet, but that was only part of the problem.  For anyone, a shelf of some sort in the bathroom is handy; for a handicapped person, the lack of anything to set a toilet kit on was a real problem. In the large (roll-in for wheelchair--that's good) bathroom, there were a toilet, a tub (with safety grip bars) and a sink. Period. Too bare. Clean, though! a handicapped person needs a soft, comfortable place to sit, like an upholstered chair with arms, for safety. In this room, there were just two straight-backed, no arms, hard chairs--not safe or comfortable.  In the end, I'd say the room would have been adequate for people with no physical problems, who simply needed a place to sleep--bed was good (though bedspread was dirty--we just removed it). The kitchenette was adequate (though one of the two burners was somehow dislodged and couldn't be placed right); very minimal dishes--2 plates, 2 cups, flatware for two, a pan, a spatula...very basic. For a heaven for a...I took my 90-year-old, handicapped mother from California here; we planned to stay about a week, while moving her things into a senior community in Colorado. The handicap room was to be our haven, our respite, after unpacking things several hours a day.  But after the first night, we left. We coped with the unfresh smell in the room by opening the window and sprinkling baking soda room deodorizer around on the carpet, but that was only part of the problem.  For anyone, a shelf of some sort in the bathroom is handy; for a handicapped person, the lack of anything to set a toilet kit on was a real problem. In the large (roll-in for wheelchair--that's good) bathroom, there were a toilet, a tub (with safety grip bars) and a sink. Period. Too bare. Clean, though! a handicapped person needs a soft, comfortable place to sit, like an upholstered chair with arms, for safety. In this room, there were just two straight-backed, no arms, hard chairs--not safe or comfortable.  In the end, I'd say the room would have been adequate for people with no physical problems, who simply needed a place to sleep--bed was good (though bedspread was dirty--we just removed it). The kitchenette was adequate (though one of the two burners was somehow dislodged and couldn't be placed right); very minimal dishes--2 plates, 2 cups, flatware for two, a pan, a spatula...very basic. For a heaven for a week, the place was not going to work for us, so we checked out next morning.  The staff were wonderful, though, both at check in and at check out: kind, patient, helpful, competent, efficient, cheerful, eager to do whatever they could to help--it actually made it hard to check out: you WANTED to be pleased and satisfied. But we weren't.  I wish the fine women who worked at reception had a place they could be more proud of: they deserve it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r187630243-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>187630243</t>
+  </si>
+  <si>
+    <t>12/14/2013</t>
+  </si>
+  <si>
+    <t>Crossland Economy Studies, 715 Kipling ST, Lakewood, CO</t>
+  </si>
+  <si>
+    <t>The studio apartments at this location provide a safe, comfortable and affordable extended stay experience.  The manager, David and his staff are highly responsive and seek to offer excellence in service.  I found this to be a highly positive experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded December 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2013</t>
+  </si>
+  <si>
+    <t>The studio apartments at this location provide a safe, comfortable and affordable extended stay experience.  The manager, David and his staff are highly responsive and seek to offer excellence in service.  I found this to be a highly positive experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r186871086-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>186871086</t>
+  </si>
+  <si>
+    <t>12/05/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting their act together! </t>
+  </si>
+  <si>
+    <t>I've been here since June and I've seen stead  improvements being made by the management. The staff and the maids as well as the maintainance person, Shona, are on top of any problems I've encountered. And the value for price compared to the rest of the extended stay hotels in Denver is right on! MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been here since June and I've seen stead  improvements being made by the management. The staff and the maids as well as the maintainance person, Shona, are on top of any problems I've encountered. And the value for price compared to the rest of the extended stay hotels in Denver is right on! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r178362067-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>178362067</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Not recommended</t>
+  </si>
+  <si>
+    <t>This is a " pet friendly "hotel with that said there was a lot of dog poop in the small patches of grass that had to be crossed to get to my room. Thank you irresponsible dog owners for not picking this up when you walk your dog. This hotel does not pick this stuff up as well as it has been there a long time. My second impression was I opened the access door to get to the stairs and there were several plastic bags filled with trash stinking in the hallway. special mention goes to all of the people hanging around outside their rooms smoking looking ghetto. As for the room it was clean had a small tube TV that had sound problems the bed was small and not very comfortable. The only good thing I have to say was the young lady at the front desk was friendly and helpful. I don't recommend staying at this dive.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>This is a " pet friendly "hotel with that said there was a lot of dog poop in the small patches of grass that had to be crossed to get to my room. Thank you irresponsible dog owners for not picking this up when you walk your dog. This hotel does not pick this stuff up as well as it has been there a long time. My second impression was I opened the access door to get to the stairs and there were several plastic bags filled with trash stinking in the hallway. special mention goes to all of the people hanging around outside their rooms smoking looking ghetto. As for the room it was clean had a small tube TV that had sound problems the bed was small and not very comfortable. The only good thing I have to say was the young lady at the front desk was friendly and helpful. I don't recommend staying at this dive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r177644119-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>177644119</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Hotel Saves Family From Remodel Madness</t>
+  </si>
+  <si>
+    <t>Last month I received the best gift ever.  Having my kitchen remodeled!  I found out almost immediately that I would go insane if I had to live in the mess with my three kids.  I decided to take the kids to the Crossland Economy Studios in Lakewood Colorado until the construction was completed.  The rooms were roomy with a well equiped kitchenette which helped to keep us in our budget for meals.  The staff was friendly and efficient lead by the manager Fyzal who always took the time to greet us and make sure we had everything we needed.  The best part for me was that for once I wasn't the one who did all the cleaning.  After a two week stay we returned home to our brand new kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded September 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2013</t>
+  </si>
+  <si>
+    <t>Last month I received the best gift ever.  Having my kitchen remodeled!  I found out almost immediately that I would go insane if I had to live in the mess with my three kids.  I decided to take the kids to the Crossland Economy Studios in Lakewood Colorado until the construction was completed.  The rooms were roomy with a well equiped kitchenette which helped to keep us in our budget for meals.  The staff was friendly and efficient lead by the manager Fyzal who always took the time to greet us and make sure we had everything we needed.  The best part for me was that for once I wasn't the one who did all the cleaning.  After a two week stay we returned home to our brand new kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r175941899-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>175941899</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Living Here Since November, 2008</t>
+  </si>
+  <si>
+    <t>Thank heavens for the terrific lady who cleans my room weekly. Her name is Theresa, who I have given the nickname "The Queen of Squeaky Clean". This the only thing that is constant on this property ... but coming back to a clean room is very comforting. As for the internet here, unless you are in the Laundry Room [where one always gets a signal strength of 5 bars] do not expect much - the signal in my room fails at least 5 times per session. I have reported this to Corporate since June 4, 2013 and STILL nothing has been done to correct this situation, not only for me but for many others on this property.  For a selection date, it did not allow November, 2008, but that does not surprise me.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Thank heavens for the terrific lady who cleans my room weekly. Her name is Theresa, who I have given the nickname "The Queen of Squeaky Clean". This the only thing that is constant on this property ... but coming back to a clean room is very comforting. As for the internet here, unless you are in the Laundry Room [where one always gets a signal strength of 5 bars] do not expect much - the signal in my room fails at least 5 times per session. I have reported this to Corporate since June 4, 2013 and STILL nothing has been done to correct this situation, not only for me but for many others on this property.  For a selection date, it did not allow November, 2008, but that does not surprise me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r173424707-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>173424707</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Horrible and Deceiving</t>
+  </si>
+  <si>
+    <t>I am in Lakewood for an internship at the Federal Center close-by. Our hotel was booked for us by our internship organization (They pay it but take it out of our internship paycheck), so we had no choice but to stay here. First off, my roommate and I were very excited as this hotel advertises having a pool, and the apartments we moved out of had no pool. I even looked it up on Google Earth and there was indeed a very blue pool. However, we got there, and the place where the pool was on Google Earth had NO TRACE of there ever being a pool there(photos attached). It was nothing but dead grass, and the landscape too natural looking to have been filled in. It was like the Google Earth pool had been modeled and added in the program. I asked the front desk if there was a pool and the guy said no. So to me, that whole thing was very wrongfully deceiving. After that, the next thing we noticed was how slow the internet was. This isn't something THAT bad to be able to complain about, but we soon discovered that the internet would also go out for us several times a day, forcing us to call the support line every time. We thought it would stop eventually, but no. We have been here almost 2 weeks and the internet has gone out for us an...I am in Lakewood for an internship at the Federal Center close-by. Our hotel was booked for us by our internship organization (They pay it but take it out of our internship paycheck), so we had no choice but to stay here. First off, my roommate and I were very excited as this hotel advertises having a pool, and the apartments we moved out of had no pool. I even looked it up on Google Earth and there was indeed a very blue pool. However, we got there, and the place where the pool was on Google Earth had NO TRACE of there ever being a pool there(photos attached). It was nothing but dead grass, and the landscape too natural looking to have been filled in. It was like the Google Earth pool had been modeled and added in the program. I asked the front desk if there was a pool and the guy said no. So to me, that whole thing was very wrongfully deceiving. After that, the next thing we noticed was how slow the internet was. This isn't something THAT bad to be able to complain about, but we soon discovered that the internet would also go out for us several times a day, forcing us to call the support line every time. We thought it would stop eventually, but no. We have been here almost 2 weeks and the internet has gone out for us an average of 4 times a day. I have probably called literally about 30-40 times in the past 10 days we have been here, and each call takes about 20-30 minutes. Once, I was on the phone for an hour and a half, as the person didn't seem to know what she was doing(I should've hung up and called back). The problem every single time is that they have to restart access points, something like that. The people on the line don't even say or do anything about the fact that I've called so much, and I know that they know, as I tell them, and I even have my own case number, which I have obviously memorized by now. How I have the patience for this, I'm not sure. And this is obviously not a simple "turn your wifi on and off" problem, even though they tell me to try that EVERY TIME. And when our internet does work, it is extremely slow(YouTube videos on 360p take forever to buffer, and you can forget about playing them on HD). I can understand slow, but what we had to go through with the calling is insane. Even as I'm typing I'm on the phone right now (I loaded this page and tried surfing on another tab later). This is actually the 5th time I’ve called today since getting home from work 3 hours ago; today is especially bad.Those two things were enough for me to rate this place a one. But there a few more smaller things. When we got here, the utensils weren't even clean. Also, the area is VERY bad, and there isn't anything to do within walking distance(we have no car here). Also, I don't know if it's just our room, but it's impossible to get the water to a good medium temperature. If it's too cold, we turn it little by little, with no change in temperature, then once we hit a certain point in turning, it suddenly becomes way too hot, and vice versa. Also, the whole place just looks completely run down and as if it's literally falling apart. It's more like a travel inn, not a hotel. Oh and there is a laundry room, but it costs $2 to wash(detergent not included) and another $2 to dry. And they do support a fitness center, but it's not part of the complex; you have to drive to get there. Other than these things, it lives up to the price you pay. But these things I mentioned, especially the first two and especially if you rely a lot on the internet, make it a place to avoid at ALL COSTS.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am in Lakewood for an internship at the Federal Center close-by. Our hotel was booked for us by our internship organization (They pay it but take it out of our internship paycheck), so we had no choice but to stay here. First off, my roommate and I were very excited as this hotel advertises having a pool, and the apartments we moved out of had no pool. I even looked it up on Google Earth and there was indeed a very blue pool. However, we got there, and the place where the pool was on Google Earth had NO TRACE of there ever being a pool there(photos attached). It was nothing but dead grass, and the landscape too natural looking to have been filled in. It was like the Google Earth pool had been modeled and added in the program. I asked the front desk if there was a pool and the guy said no. So to me, that whole thing was very wrongfully deceiving. After that, the next thing we noticed was how slow the internet was. This isn't something THAT bad to be able to complain about, but we soon discovered that the internet would also go out for us several times a day, forcing us to call the support line every time. We thought it would stop eventually, but no. We have been here almost 2 weeks and the internet has gone out for us an...I am in Lakewood for an internship at the Federal Center close-by. Our hotel was booked for us by our internship organization (They pay it but take it out of our internship paycheck), so we had no choice but to stay here. First off, my roommate and I were very excited as this hotel advertises having a pool, and the apartments we moved out of had no pool. I even looked it up on Google Earth and there was indeed a very blue pool. However, we got there, and the place where the pool was on Google Earth had NO TRACE of there ever being a pool there(photos attached). It was nothing but dead grass, and the landscape too natural looking to have been filled in. It was like the Google Earth pool had been modeled and added in the program. I asked the front desk if there was a pool and the guy said no. So to me, that whole thing was very wrongfully deceiving. After that, the next thing we noticed was how slow the internet was. This isn't something THAT bad to be able to complain about, but we soon discovered that the internet would also go out for us several times a day, forcing us to call the support line every time. We thought it would stop eventually, but no. We have been here almost 2 weeks and the internet has gone out for us an average of 4 times a day. I have probably called literally about 30-40 times in the past 10 days we have been here, and each call takes about 20-30 minutes. Once, I was on the phone for an hour and a half, as the person didn't seem to know what she was doing(I should've hung up and called back). The problem every single time is that they have to restart access points, something like that. The people on the line don't even say or do anything about the fact that I've called so much, and I know that they know, as I tell them, and I even have my own case number, which I have obviously memorized by now. How I have the patience for this, I'm not sure. And this is obviously not a simple "turn your wifi on and off" problem, even though they tell me to try that EVERY TIME. And when our internet does work, it is extremely slow(YouTube videos on 360p take forever to buffer, and you can forget about playing them on HD). I can understand slow, but what we had to go through with the calling is insane. Even as I'm typing I'm on the phone right now (I loaded this page and tried surfing on another tab later). This is actually the 5th time I’ve called today since getting home from work 3 hours ago; today is especially bad.Those two things were enough for me to rate this place a one. But there a few more smaller things. When we got here, the utensils weren't even clean. Also, the area is VERY bad, and there isn't anything to do within walking distance(we have no car here). Also, I don't know if it's just our room, but it's impossible to get the water to a good medium temperature. If it's too cold, we turn it little by little, with no change in temperature, then once we hit a certain point in turning, it suddenly becomes way too hot, and vice versa. Also, the whole place just looks completely run down and as if it's literally falling apart. It's more like a travel inn, not a hotel. Oh and there is a laundry room, but it costs $2 to wash(detergent not included) and another $2 to dry. And they do support a fitness center, but it's not part of the complex; you have to drive to get there. Other than these things, it lives up to the price you pay. But these things I mentioned, especially the first two and especially if you rely a lot on the internet, make it a place to avoid at ALL COSTS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r172427550-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>172427550</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>Totally Not Worth Saving Money Over...</t>
+  </si>
+  <si>
+    <t>I recently booked this motel with a last minute travel package I purchased, in order to save some money. Believe me, it totally wasn't worth it. I requested a non-smoking room, which reeked of cigarette smoke and upset my allergies. I sneezed most of the time I was there. The air conditioner did not work, the room was hot, and I hardly got any sleep. One thing everyone should know before booking this motel for multiple days is that housekeeping does not service the rooms. Apparently, from what I've read on other reviews, they only clean the rooms once a week or after a guest leaves. From what I understand, if you do want your room cleaned while you're there, they charge a fee for doing so. Not to mention, housekeeping does a very poor job of cleaning the rooms anyway. The rooms are still filthy. When talking about seedy motels, this one meets up to everything that anybody would expect. When I complained about the cigarette smell, the owner actually had the nerve to insult my intelligence by lying to me, saying the smoke came from the vents in the smoking rooms upstairs. When, in fact, the rooms do NOT have vents. Then, he let me use a bottle of Febreeze to spray in the room to attempt to cover up the odor, which only made it worse, and it only lasted for a short time. After I complained...I recently booked this motel with a last minute travel package I purchased, in order to save some money. Believe me, it totally wasn't worth it. I requested a non-smoking room, which reeked of cigarette smoke and upset my allergies. I sneezed most of the time I was there. The air conditioner did not work, the room was hot, and I hardly got any sleep. One thing everyone should know before booking this motel for multiple days is that housekeeping does not service the rooms. Apparently, from what I've read on other reviews, they only clean the rooms once a week or after a guest leaves. From what I understand, if you do want your room cleaned while you're there, they charge a fee for doing so. Not to mention, housekeeping does a very poor job of cleaning the rooms anyway. The rooms are still filthy. When talking about seedy motels, this one meets up to everything that anybody would expect. When I complained about the cigarette smell, the owner actually had the nerve to insult my intelligence by lying to me, saying the smoke came from the vents in the smoking rooms upstairs. When, in fact, the rooms do NOT have vents. Then, he let me use a bottle of Febreeze to spray in the room to attempt to cover up the odor, which only made it worse, and it only lasted for a short time. After I complained about the air conditioning several times, one of the employees moved me to the room next door. AMAZING... All of a sudden, the smell of cigarette smoke disappeared. Apparently, the alleged smoke from the other rooms didn't make it through the "vents" next door. However, not to my surprise, the air conditioning in the other room didn't work either. The room was hot, and I still got very little sleep. I advise anyone trying to save money, to pay $10 or $15 more and stay somewhere else. At least maybe, you'll get a room that clean, where the air conditioner works and doesn't reek of cigarette smoke. Even better, maybe you'll even get a place that serves a free continental breakfast, which this place does not provide. Or, at the very least, by paying a little more, you can find a place where the management is honest. To sum things up, this place should not even be considered a motel. In my book, it is below a one star rating. This place should be demolished and torn down to the ground. The facility is old and far outdated. The owner does not deserve to be in business.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded August 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2013</t>
+  </si>
+  <si>
+    <t>I recently booked this motel with a last minute travel package I purchased, in order to save some money. Believe me, it totally wasn't worth it. I requested a non-smoking room, which reeked of cigarette smoke and upset my allergies. I sneezed most of the time I was there. The air conditioner did not work, the room was hot, and I hardly got any sleep. One thing everyone should know before booking this motel for multiple days is that housekeeping does not service the rooms. Apparently, from what I've read on other reviews, they only clean the rooms once a week or after a guest leaves. From what I understand, if you do want your room cleaned while you're there, they charge a fee for doing so. Not to mention, housekeeping does a very poor job of cleaning the rooms anyway. The rooms are still filthy. When talking about seedy motels, this one meets up to everything that anybody would expect. When I complained about the cigarette smell, the owner actually had the nerve to insult my intelligence by lying to me, saying the smoke came from the vents in the smoking rooms upstairs. When, in fact, the rooms do NOT have vents. Then, he let me use a bottle of Febreeze to spray in the room to attempt to cover up the odor, which only made it worse, and it only lasted for a short time. After I complained...I recently booked this motel with a last minute travel package I purchased, in order to save some money. Believe me, it totally wasn't worth it. I requested a non-smoking room, which reeked of cigarette smoke and upset my allergies. I sneezed most of the time I was there. The air conditioner did not work, the room was hot, and I hardly got any sleep. One thing everyone should know before booking this motel for multiple days is that housekeeping does not service the rooms. Apparently, from what I've read on other reviews, they only clean the rooms once a week or after a guest leaves. From what I understand, if you do want your room cleaned while you're there, they charge a fee for doing so. Not to mention, housekeeping does a very poor job of cleaning the rooms anyway. The rooms are still filthy. When talking about seedy motels, this one meets up to everything that anybody would expect. When I complained about the cigarette smell, the owner actually had the nerve to insult my intelligence by lying to me, saying the smoke came from the vents in the smoking rooms upstairs. When, in fact, the rooms do NOT have vents. Then, he let me use a bottle of Febreeze to spray in the room to attempt to cover up the odor, which only made it worse, and it only lasted for a short time. After I complained about the air conditioning several times, one of the employees moved me to the room next door. AMAZING... All of a sudden, the smell of cigarette smoke disappeared. Apparently, the alleged smoke from the other rooms didn't make it through the "vents" next door. However, not to my surprise, the air conditioning in the other room didn't work either. The room was hot, and I still got very little sleep. I advise anyone trying to save money, to pay $10 or $15 more and stay somewhere else. At least maybe, you'll get a room that clean, where the air conditioner works and doesn't reek of cigarette smoke. Even better, maybe you'll even get a place that serves a free continental breakfast, which this place does not provide. Or, at the very least, by paying a little more, you can find a place where the management is honest. To sum things up, this place should not even be considered a motel. In my book, it is below a one star rating. This place should be demolished and torn down to the ground. The facility is old and far outdated. The owner does not deserve to be in business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r171813546-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>171813546</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>Great location,  good vibe, pet-friendly.</t>
+  </si>
+  <si>
+    <t>Being next-door to Hooters adds to the attraction but the value for the buck, the view from the balcony,  the close proximity to the lightrail, and the outside access to the rooms make this extended stay hotel a rare find-- its where the Coloradan's stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Being next-door to Hooters adds to the attraction but the value for the buck, the view from the balcony,  the close proximity to the lightrail, and the outside access to the rooms make this extended stay hotel a rare find-- its where the Coloradan's stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r171236692-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>171236692</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Great Experience at the Crossland Economy Studios in Lakewood</t>
+  </si>
+  <si>
+    <t>I was having my downstairs to my condo completely renovated and had to vacate my home or a short period of time. I wanted to stay closeby to keep my eye on things and for convenience. The most economical choice was Crossland Economy Hotel  in Lakewood. I wanted to save money on my stay but  did not want to give up comfort. Immediately, I was pleansantly surprised. Not only were the rooms clean, comfortable, and appealing for the money, I actually had a good time while I was there. My neighbors were cool, and I met a number of other guests I actually became friends with. The staff was top notch....each and every one of them. The manager Fyzal was extremely nice and accommodating with every one of my requests. Emily, service agent at the front desk knew everything about the property and also made sure I had everything I need. I even became friends with the housekeeping woman assigned to my room, Teresa. She was awesome! My stay went quick, and before I knew it I was back in my condo. I easily recommend this hotel to anyone staying short or long periods of time. I had a great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I was having my downstairs to my condo completely renovated and had to vacate my home or a short period of time. I wanted to stay closeby to keep my eye on things and for convenience. The most economical choice was Crossland Economy Hotel  in Lakewood. I wanted to save money on my stay but  did not want to give up comfort. Immediately, I was pleansantly surprised. Not only were the rooms clean, comfortable, and appealing for the money, I actually had a good time while I was there. My neighbors were cool, and I met a number of other guests I actually became friends with. The staff was top notch....each and every one of them. The manager Fyzal was extremely nice and accommodating with every one of my requests. Emily, service agent at the front desk knew everything about the property and also made sure I had everything I need. I even became friends with the housekeeping woman assigned to my room, Teresa. She was awesome! My stay went quick, and before I knew it I was back in my condo. I easily recommend this hotel to anyone staying short or long periods of time. I had a great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r171064616-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>171064616</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Hotel Life Beats Living in a Rental Property</t>
+  </si>
+  <si>
+    <t>This is my 2nd round of living in an Extended Stay hotel. I wasn't ready to sign a lease for an apartment so I decided to stay at the Extended Stay in Lakewood. When a roommate situation came up, I jumped ship and moved into a house with a friend. I should of known it wouldn't work out because roommate situations that thrive or survive in harmony are rare. When things went sour, I did not hesitate to move back to one of the Extended Stay family hotels. This time I chose the Crossland in Lakewood. I see horrible ratings on this hotel, but I do not agree at all. Here are the advantages of living in a longer term hotel than an apartment. No lease...payments can be made daily, weekly, or monthly...no utility bills....housekeeping once a week...no landlord...overall flexibility. I am so much happier in the hotel. I feel I have no requirements, no commitments, and I like that. I can come and go as I please. OK, so the rooms are not like the ones in the Ritz Carlton, however they are better than their price. The hotel is cheaper than any other option, and I am very comfortable in the rooms I have stayed in. I plan to stay here until I buy real estate. I see no reason to move again, when I am perfectly happy here. It's well worth the money, it's comfortable, and it's...This is my 2nd round of living in an Extended Stay hotel. I wasn't ready to sign a lease for an apartment so I decided to stay at the Extended Stay in Lakewood. When a roommate situation came up, I jumped ship and moved into a house with a friend. I should of known it wouldn't work out because roommate situations that thrive or survive in harmony are rare. When things went sour, I did not hesitate to move back to one of the Extended Stay family hotels. This time I chose the Crossland in Lakewood. I see horrible ratings on this hotel, but I do not agree at all. Here are the advantages of living in a longer term hotel than an apartment. No lease...payments can be made daily, weekly, or monthly...no utility bills....housekeeping once a week...no landlord...overall flexibility. I am so much happier in the hotel. I feel I have no requirements, no commitments, and I like that. I can come and go as I please. OK, so the rooms are not like the ones in the Ritz Carlton, however they are better than their price. The hotel is cheaper than any other option, and I am very comfortable in the rooms I have stayed in. I plan to stay here until I buy real estate. I see no reason to move again, when I am perfectly happy here. It's well worth the money, it's comfortable, and it's freedom!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded August 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2013</t>
+  </si>
+  <si>
+    <t>This is my 2nd round of living in an Extended Stay hotel. I wasn't ready to sign a lease for an apartment so I decided to stay at the Extended Stay in Lakewood. When a roommate situation came up, I jumped ship and moved into a house with a friend. I should of known it wouldn't work out because roommate situations that thrive or survive in harmony are rare. When things went sour, I did not hesitate to move back to one of the Extended Stay family hotels. This time I chose the Crossland in Lakewood. I see horrible ratings on this hotel, but I do not agree at all. Here are the advantages of living in a longer term hotel than an apartment. No lease...payments can be made daily, weekly, or monthly...no utility bills....housekeeping once a week...no landlord...overall flexibility. I am so much happier in the hotel. I feel I have no requirements, no commitments, and I like that. I can come and go as I please. OK, so the rooms are not like the ones in the Ritz Carlton, however they are better than their price. The hotel is cheaper than any other option, and I am very comfortable in the rooms I have stayed in. I plan to stay here until I buy real estate. I see no reason to move again, when I am perfectly happy here. It's well worth the money, it's comfortable, and it's...This is my 2nd round of living in an Extended Stay hotel. I wasn't ready to sign a lease for an apartment so I decided to stay at the Extended Stay in Lakewood. When a roommate situation came up, I jumped ship and moved into a house with a friend. I should of known it wouldn't work out because roommate situations that thrive or survive in harmony are rare. When things went sour, I did not hesitate to move back to one of the Extended Stay family hotels. This time I chose the Crossland in Lakewood. I see horrible ratings on this hotel, but I do not agree at all. Here are the advantages of living in a longer term hotel than an apartment. No lease...payments can be made daily, weekly, or monthly...no utility bills....housekeeping once a week...no landlord...overall flexibility. I am so much happier in the hotel. I feel I have no requirements, no commitments, and I like that. I can come and go as I please. OK, so the rooms are not like the ones in the Ritz Carlton, however they are better than their price. The hotel is cheaper than any other option, and I am very comfortable in the rooms I have stayed in. I plan to stay here until I buy real estate. I see no reason to move again, when I am perfectly happy here. It's well worth the money, it's comfortable, and it's freedom!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r170084448-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>170084448</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Getting your money's worth and more!</t>
+  </si>
+  <si>
+    <t>I came to Lakewood, CO from California to look at the area for a possible relocation. I was told that towns west of denver were laid back and had a great mountain view. I planned to stay for 2 weeks to experience and educate myself on South West Denver as much as possible. Money is always an issue, so of course I opted for a cheaper hotel for my stay. I read some mixed reviews on the Crossland Hotel in Lakewood, but since it was much less expensive than other hotels, I felt pretty good about staying here. 
+I am really happy I chose this hotel. For being a budget hotel that caters to longer than average hotel stays, they provided and offered me everything I needed. They thought of everything. The rooms are equipped with a full kitchen, utensils, plates, and cookware. The room I stayed in, which was a regular room, was very spacious and had plenty of drawer and closet space for my belongings. In addiition, the bed was comfortable and the room and bathroom were very clean. 
+I asked the staff a lot of questions about the area and all were happy to answer and help me. I made a daily stop in the front office as hotel manager, Fyzal, front desk manager Emily, and I  had great convos about Denver. Thanks to them, I decided to relocate here in the near future.
+I will most...I came to Lakewood, CO from California to look at the area for a possible relocation. I was told that towns west of denver were laid back and had a great mountain view. I planned to stay for 2 weeks to experience and educate myself on South West Denver as much as possible. Money is always an issue, so of course I opted for a cheaper hotel for my stay. I read some mixed reviews on the Crossland Hotel in Lakewood, but since it was much less expensive than other hotels, I felt pretty good about staying here. I am really happy I chose this hotel. For being a budget hotel that caters to longer than average hotel stays, they provided and offered me everything I needed. They thought of everything. The rooms are equipped with a full kitchen, utensils, plates, and cookware. The room I stayed in, which was a regular room, was very spacious and had plenty of drawer and closet space for my belongings. In addiition, the bed was comfortable and the room and bathroom were very clean. I asked the staff a lot of questions about the area and all were happy to answer and help me. I made a daily stop in the front office as hotel manager, Fyzal, front desk manager Emily, and I  had great convos about Denver. Thanks to them, I decided to relocate here in the near future.I will most definitely be staying at this hotel again. It was way worth the money and beyond.MoreShow less</t>
+  </si>
+  <si>
+    <t>I came to Lakewood, CO from California to look at the area for a possible relocation. I was told that towns west of denver were laid back and had a great mountain view. I planned to stay for 2 weeks to experience and educate myself on South West Denver as much as possible. Money is always an issue, so of course I opted for a cheaper hotel for my stay. I read some mixed reviews on the Crossland Hotel in Lakewood, but since it was much less expensive than other hotels, I felt pretty good about staying here. 
+I am really happy I chose this hotel. For being a budget hotel that caters to longer than average hotel stays, they provided and offered me everything I needed. They thought of everything. The rooms are equipped with a full kitchen, utensils, plates, and cookware. The room I stayed in, which was a regular room, was very spacious and had plenty of drawer and closet space for my belongings. In addiition, the bed was comfortable and the room and bathroom were very clean. 
+I asked the staff a lot of questions about the area and all were happy to answer and help me. I made a daily stop in the front office as hotel manager, Fyzal, front desk manager Emily, and I  had great convos about Denver. Thanks to them, I decided to relocate here in the near future.
+I will most...I came to Lakewood, CO from California to look at the area for a possible relocation. I was told that towns west of denver were laid back and had a great mountain view. I planned to stay for 2 weeks to experience and educate myself on South West Denver as much as possible. Money is always an issue, so of course I opted for a cheaper hotel for my stay. I read some mixed reviews on the Crossland Hotel in Lakewood, but since it was much less expensive than other hotels, I felt pretty good about staying here. I am really happy I chose this hotel. For being a budget hotel that caters to longer than average hotel stays, they provided and offered me everything I needed. They thought of everything. The rooms are equipped with a full kitchen, utensils, plates, and cookware. The room I stayed in, which was a regular room, was very spacious and had plenty of drawer and closet space for my belongings. In addiition, the bed was comfortable and the room and bathroom were very clean. I asked the staff a lot of questions about the area and all were happy to answer and help me. I made a daily stop in the front office as hotel manager, Fyzal, front desk manager Emily, and I  had great convos about Denver. Thanks to them, I decided to relocate here in the near future.I will most definitely be staying at this hotel again. It was way worth the money and beyond.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r164109602-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>164109602</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay and its hotels continue to impress me and surpass my expectations!</t>
+  </si>
+  <si>
+    <t>The Crosslands Hotel in Lakewood is the third hotel I lived in for more than three consecutive months, for a total of almost 2 years. The other 2 hotels are also part of Extended Stay's family of properties. Each of the three hotels beat my expectations with price/cost and customer satisfaction, but not as much as the staff in Lakewood. They have proven they care time and time again. They are very much for providing their customers with as best  experience they can. They go the extra step and doesn't miss a beat. 
+The staff doesn't miss a beat. They will go above and beyond for everyobe. I feel like I am treated very well by each of asthe 3 hotels and their staff. However, I do have a favorite property, which is the Lakewood location at the intersection of 6th and Kipling. The mountain view is nicer and the hotel itself is big, has more options regarding rooms, prices, and locations.
+The front desk staff, which is coverd by Emily and Michele are very helpful, and you can tell they genuinely care about making your experience the best it can be. 
+The moment I moved to this hotel, I met Fyzal (Property Manager) while checking in. I could tell he was extremely personable and I've since seen he works hard to make sure guests are happy. The rooms at this location are good, especially for the money. The cool...The Crosslands Hotel in Lakewood is the third hotel I lived in for more than three consecutive months, for a total of almost 2 years. The other 2 hotels are also part of Extended Stay's family of properties. Each of the three hotels beat my expectations with price/cost and customer satisfaction, but not as much as the staff in Lakewood. They have proven they care time and time again. They are very much for providing their customers with as best  experience they can. They go the extra step and doesn't miss a beat. The staff doesn't miss a beat. They will go above and beyond for everyobe. I feel like I am treated very well by each of asthe 3 hotels and their staff. However, I do have a favorite property, which is the Lakewood location at the intersection of 6th and Kipling. The mountain view is nicer and the hotel itself is big, has more options regarding rooms, prices, and locations.The front desk staff, which is coverd by Emily and Michele are very helpful, and you can tell they genuinely care about making your experience the best it can be. The moment I moved to this hotel, I met Fyzal (Property Manager) while checking in. I could tell he was extremely personable and I've since seen he works hard to make sure guests are happy. The rooms at this location are good, especially for the money. The cool and caring staff here with the nicer mountain views and larger property, automatically push this location to the top of the list.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Crosslands Hotel in Lakewood is the third hotel I lived in for more than three consecutive months, for a total of almost 2 years. The other 2 hotels are also part of Extended Stay's family of properties. Each of the three hotels beat my expectations with price/cost and customer satisfaction, but not as much as the staff in Lakewood. They have proven they care time and time again. They are very much for providing their customers with as best  experience they can. They go the extra step and doesn't miss a beat. 
+The staff doesn't miss a beat. They will go above and beyond for everyobe. I feel like I am treated very well by each of asthe 3 hotels and their staff. However, I do have a favorite property, which is the Lakewood location at the intersection of 6th and Kipling. The mountain view is nicer and the hotel itself is big, has more options regarding rooms, prices, and locations.
+The front desk staff, which is coverd by Emily and Michele are very helpful, and you can tell they genuinely care about making your experience the best it can be. 
+The moment I moved to this hotel, I met Fyzal (Property Manager) while checking in. I could tell he was extremely personable and I've since seen he works hard to make sure guests are happy. The rooms at this location are good, especially for the money. The cool...The Crosslands Hotel in Lakewood is the third hotel I lived in for more than three consecutive months, for a total of almost 2 years. The other 2 hotels are also part of Extended Stay's family of properties. Each of the three hotels beat my expectations with price/cost and customer satisfaction, but not as much as the staff in Lakewood. They have proven they care time and time again. They are very much for providing their customers with as best  experience they can. They go the extra step and doesn't miss a beat. The staff doesn't miss a beat. They will go above and beyond for everyobe. I feel like I am treated very well by each of asthe 3 hotels and their staff. However, I do have a favorite property, which is the Lakewood location at the intersection of 6th and Kipling. The mountain view is nicer and the hotel itself is big, has more options regarding rooms, prices, and locations.The front desk staff, which is coverd by Emily and Michele are very helpful, and you can tell they genuinely care about making your experience the best it can be. The moment I moved to this hotel, I met Fyzal (Property Manager) while checking in. I could tell he was extremely personable and I've since seen he works hard to make sure guests are happy. The rooms at this location are good, especially for the money. The cool and caring staff here with the nicer mountain views and larger property, automatically push this location to the top of the list.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r162368768-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>162368768</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>On site review</t>
+  </si>
+  <si>
+    <t>Exterior buildings, parking lots and grounds need repairs asap...rust spots everywhere...lots of potholes...building walkways are filthy....rooms are ok and well maintained....friendly courteous staff and on site manager...national management team needs to view this facility asap and take corrective action..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r160625970-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>160625970</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Smelly rooms!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our room has an awful odor, no couch, no microwave... air conditioner doesn't work..(the person at the desk was nice).The pictures on line showed a much nicer room, &amp; a pool... very dated room, &amp; pool had been removed &amp; is now a pile of dirt.....will never stay with this company again... </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r154711760-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>154711760</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Second survey on my extended stay at crossland studios</t>
+  </si>
+  <si>
+    <t>This is my second survey on my stay at your hotel. My first survey was honest, but maybe a little harsh. I decided to extend my hotel two nights at the your hotel because the good out weighted the bad. Let me start off by saying your staff was very helpful and accommodating. Customer service is very important to me and your staff was exceptional. Although I still don't like the internet and cable, but my overall experience was great. I processed my thoughts and I realized my cable and internet experience wasn't really  important. Having great customer service and staff willing to accommodate you  by going above and beyond to satisfy their guest is what really matters. I would like to thank Fyzal Ishahak and Scott for making my family and myself feel like this was our home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded March 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2013</t>
+  </si>
+  <si>
+    <t>This is my second survey on my stay at your hotel. My first survey was honest, but maybe a little harsh. I decided to extend my hotel two nights at the your hotel because the good out weighted the bad. Let me start off by saying your staff was very helpful and accommodating. Customer service is very important to me and your staff was exceptional. Although I still don't like the internet and cable, but my overall experience was great. I processed my thoughts and I realized my cable and internet experience wasn't really  important. Having great customer service and staff willing to accommodate you  by going above and beyond to satisfy their guest is what really matters. I would like to thank Fyzal Ishahak and Scott for making my family and myself feel like this was our home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r153951846-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>153951846</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>Room was not ready late afternoon for check-in.  When it was ready, blood was found on the pillows, puke on the rug, didn't look any further and checked out without penalty.  Very unsafe feeling from the people staying there, though staff seemed okay. Not a good area of town.  Couldn't imagine being there overnight.  This was meant to be for an extended stay for our son during a relocation to Colorado.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded March 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2013</t>
+  </si>
+  <si>
+    <t>Room was not ready late afternoon for check-in.  When it was ready, blood was found on the pillows, puke on the rug, didn't look any further and checked out without penalty.  Very unsafe feeling from the people staying there, though staff seemed okay. Not a good area of town.  Couldn't imagine being there overnight.  This was meant to be for an extended stay for our son during a relocation to Colorado.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r153869718-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>153869718</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>We checked out less than 24 hours after checking in. Room was disgusting, cigarette holes in furniture, dusty,smelly. Not a "safe feeling" even in the room one night. We quickly moved to a differnt hotel in the morning.  i would NOT recommed this hotel. Staff at check in and check out were ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>We checked out less than 24 hours after checking in. Room was disgusting, cigarette holes in furniture, dusty,smelly. Not a "safe feeling" even in the room one night. We quickly moved to a differnt hotel in the morning.  i would NOT recommed this hotel. Staff at check in and check out were ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r151913218-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>151913218</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>the price is right</t>
+  </si>
+  <si>
+    <t>Stayed here for a family visit. I have stayed a few times before.  Carissa checked me in and was helpful and polite.  The room is basic... but for the price, it works.  The hotel as a whole could use some upgrades but I found the kitchen to be useful and convenient.  The picture you see on here is misleading but for a night or two it is alright.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded February 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for a family visit. I have stayed a few times before.  Carissa checked me in and was helpful and polite.  The room is basic... but for the price, it works.  The hotel as a whole could use some upgrades but I found the kitchen to be useful and convenient.  The picture you see on here is misleading but for a night or two it is alright.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r151309299-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>151309299</t>
+  </si>
+  <si>
+    <t>02/03/2013</t>
+  </si>
+  <si>
+    <t>All gravy baby</t>
+  </si>
+  <si>
+    <t>Jane and the rest of staff are the best, at providing the best, and easiest service in most of colorado. They Make the stay,want to make you stay forever. Great. Service, awesome staff, great place! !MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded February 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2013</t>
+  </si>
+  <si>
+    <t>Jane and the rest of staff are the best, at providing the best, and easiest service in most of colorado. They Make the stay,want to make you stay forever. Great. Service, awesome staff, great place! !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r151161498-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>151161498</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay in Denver</t>
+  </si>
+  <si>
+    <t>I have enjoyed my stay here in Denver while staying here at the crossland economy studios. Quiet, comfortable and economical. The staff has been very helpful, especially the Charissa at the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I have enjoyed my stay here in Denver while staying here at the crossland economy studios. Quiet, comfortable and economical. The staff has been very helpful, especially the Charissa at the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r146299391-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>146299391</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>Stayed twice</t>
+  </si>
+  <si>
+    <t>I was very happy with my room,  helpful people at the front desk,  convenient location, and it was extremely quiet.  My room was clean and for the price a very good two nights in Lakewood.  If people want the Hilton, then pay the price and stop complaining.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded November 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2012</t>
+  </si>
+  <si>
+    <t>I was very happy with my room,  helpful people at the front desk,  convenient location, and it was extremely quiet.  My room was clean and for the price a very good two nights in Lakewood.  If people want the Hilton, then pay the price and stop complaining.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r145340157-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>145340157</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>Hobo Hotel</t>
+  </si>
+  <si>
+    <t>Room smelled like someone had cured tobacco in there! Truly awful. The lady next door had a dog that barked a lot. I saw a good number of homeless people walking around the parking lot. They do not have parking to accommodate an oversized pickup truck. Many people complained about the truck blocking sidewalk or entrance but we were stuck because they do not have the parking for a truck this size. (Double cab with extended bed 3/4 ton)  Hooters next door was loud. Busy intersection was hard to get in and out. I would have never stayed if I would have known. The ceiling in the bathroom was rotting and falling down, floor was sticky with urine! They say pots &amp; pans but all I had was a dirty pan with a lid that 3 sizes to big for it. Frig was broken and all my snacks were frozen when we left. Yuck!MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded November 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2012</t>
+  </si>
+  <si>
+    <t>Room smelled like someone had cured tobacco in there! Truly awful. The lady next door had a dog that barked a lot. I saw a good number of homeless people walking around the parking lot. They do not have parking to accommodate an oversized pickup truck. Many people complained about the truck blocking sidewalk or entrance but we were stuck because they do not have the parking for a truck this size. (Double cab with extended bed 3/4 ton)  Hooters next door was loud. Busy intersection was hard to get in and out. I would have never stayed if I would have known. The ceiling in the bathroom was rotting and falling down, floor was sticky with urine! They say pots &amp; pans but all I had was a dirty pan with a lid that 3 sizes to big for it. Frig was broken and all my snacks were frozen when we left. Yuck!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r144639887-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>144639887</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>No Wi-Fi</t>
+  </si>
+  <si>
+    <t>Yes, I agree with others saying it's shabby. Hot water works off and on and absolutely poor wi-fi. You get a signal then it stops in less than 5 minutes. We stayed a week and needed it badly. They had us talk to tech support to no avail. The pillows were flat and only 2. Hooters is next door and is noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Fyzal I, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded November 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2012</t>
+  </si>
+  <si>
+    <t>Yes, I agree with others saying it's shabby. Hot water works off and on and absolutely poor wi-fi. You get a signal then it stops in less than 5 minutes. We stayed a week and needed it badly. They had us talk to tech support to no avail. The pillows were flat and only 2. Hooters is next door and is noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r137378267-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>137378267</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>not quite like the photos</t>
+  </si>
+  <si>
+    <t>I booked this online based on the price and photos. It was only $20 cheaper per night compared to some other area hotels, but was far below in quality. The photos make it look clean but simple, which would have been fine. However, the room looked really shabby in reality. The sofa sleeper that my child would have to sleep on, I wouldn't have wanted to touch, much less sit or sleep on. The carpet was ancient. The walls had been painted and it was supposedly a non-smoking room, but I have allergies and could tell immediately that it had been a smoking room at some point. The whole place just seemed really run down. The quality makes you question the cleanliness and worry about bedbugs, etc. Go over to the Hampton Inn if you want a proper hotel (maybe 20% more expensive, but about a hundred times nicer).I will say that the receptionist at the front desk was extremely kind and helpful when we checked in. After seeing the room, we explained that it wasn't what we were looking for, and she issued me a refund right away.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>I booked this online based on the price and photos. It was only $20 cheaper per night compared to some other area hotels, but was far below in quality. The photos make it look clean but simple, which would have been fine. However, the room looked really shabby in reality. The sofa sleeper that my child would have to sleep on, I wouldn't have wanted to touch, much less sit or sleep on. The carpet was ancient. The walls had been painted and it was supposedly a non-smoking room, but I have allergies and could tell immediately that it had been a smoking room at some point. The whole place just seemed really run down. The quality makes you question the cleanliness and worry about bedbugs, etc. Go over to the Hampton Inn if you want a proper hotel (maybe 20% more expensive, but about a hundred times nicer).I will say that the receptionist at the front desk was extremely kind and helpful when we checked in. After seeing the room, we explained that it wasn't what we were looking for, and she issued me a refund right away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r136330376-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>136330376</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Bedbugs</t>
+  </si>
+  <si>
+    <t>I had bedbugs while I was at this hotel.  They gave me another room and washed all my clothes for me, so I appreciated that, but was not happy with the fact that I had to put up with the bugs for any time.  I had welts all over my arms and some on my legs and face.  I left after one night in the second room.  I was just too freaked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded August 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2012</t>
+  </si>
+  <si>
+    <t>I had bedbugs while I was at this hotel.  They gave me another room and washed all my clothes for me, so I appreciated that, but was not happy with the fact that I had to put up with the bugs for any time.  I had welts all over my arms and some on my legs and face.  I left after one night in the second room.  I was just too freaked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r132967236-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>132967236</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>find someplace else!</t>
+  </si>
+  <si>
+    <t>this place is gross! the staff was dirty and rude, and i had to buy blankets to sleep on the bed...not in it! there were hairs and other unknown "stuff" on the sheets! it was the worst money i have ever spent to stay in a hotel that was offered up by expedia.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>this place is gross! the staff was dirty and rude, and i had to buy blankets to sleep on the bed...not in it! there were hairs and other unknown "stuff" on the sheets! it was the worst money i have ever spent to stay in a hotel that was offered up by expedia.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r126811095-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>126811095</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Turn around and run the other way!</t>
+  </si>
+  <si>
+    <t>i stayed here a week ago and it was awful in every way--the elevators and walkways were in terrible condition , room interior was filthy everywhere-bathroom walls, toilet seat, kitchen sink, refrigerator, ick, could hardly sleep. i arrived in the evening, was tired and hungry so I didn't have the energy to change hotels. do not stay here!</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r124828379-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>124828379</t>
+  </si>
+  <si>
+    <t>02/19/2012</t>
+  </si>
+  <si>
+    <t>Poorly Maintained Hotel</t>
+  </si>
+  <si>
+    <t>I had stayed here before and the hotel is now decrepit and old. Filthy stairways and filthy in general. Beds hard as a rock and lousy internet service.Everything is worse and the rates are higher now so the hotel is half empty. Avoid.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r107538436-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>107538436</t>
+  </si>
+  <si>
+    <t>05/09/2011</t>
+  </si>
+  <si>
+    <t>The exterior cleanliness was pathetic!</t>
+  </si>
+  <si>
+    <t>Fortunately we were lucky and got a newly refurbished room and slept well.  The housekeeping is horrible - esp OUTSIDE the "house"!!! Right next to Hooters, so you can kind of imagine the clientele that frequents this place.  Cigarette butts and cig smoke all over the stairwells/elevator.  Many rooms had BBQ grills sitting next to the doors - got the idea? Bags of trash (dirty diapers??) blocking the stairwells were still there the next morning.  Elevator reinspection was 2 months overdue. No alarm clock, hair dryer.  19 inch TV???  Obviously the owners don't care about the cleaniliness OR maintenance at all!  DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r81347705-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>81347705</t>
+  </si>
+  <si>
+    <t>09/28/2010</t>
+  </si>
+  <si>
+    <t>Close to Red Rocks!</t>
+  </si>
+  <si>
+    <t>The hotel was old and a bit run down, but the location was perfect! Just 15 minutes to Red Rocks...being close was our goal.  The room was clean, but the carpets did have stains and the walls had some repairs (holes). The bathroom was very clean.  We thought the bed was extremely comfortable.  The room was HUGE!  It had a living room and separate bedroom which was nice.  The remote didn't work on either TV.  We also couldn't get access to the Internet despite calls to their help line.  The pool was sparkling, but we didn't go in.  The kitchenette had a full size fridge, 2 burner stove top and microwave.  Please note: this property IS a 2 star hotel and NOT luxury accomodations so keep that in mind!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>The hotel was old and a bit run down, but the location was perfect! Just 15 minutes to Red Rocks...being close was our goal.  The room was clean, but the carpets did have stains and the walls had some repairs (holes). The bathroom was very clean.  We thought the bed was extremely comfortable.  The room was HUGE!  It had a living room and separate bedroom which was nice.  The remote didn't work on either TV.  We also couldn't get access to the Internet despite calls to their help line.  The pool was sparkling, but we didn't go in.  The kitchenette had a full size fridge, 2 burner stove top and microwave.  Please note: this property IS a 2 star hotel and NOT luxury accomodations so keep that in mind!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r77666361-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>77666361</t>
+  </si>
+  <si>
+    <t>08/31/2010</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>I advise you to look elsewhere and here's why:* There was a dead fly &amp; a pubic hair under the pillow when I checked in* To say the room stank is an understatement* The place was filthy* It appeared to be a rooming house for drunks* A cab driver pounded on the door next to mine for 2 hoursDo yourself a favor. Find a different place to stay. I wish I had.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r69323358-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>69323358</t>
+  </si>
+  <si>
+    <t>07/01/2010</t>
+  </si>
+  <si>
+    <t>Yuck!!!</t>
+  </si>
+  <si>
+    <t>As you've probably already read in most of the previous reviews. This hotel is gross. We originally made our reservations for 3 nights and within a few hours of being at the hotel were already discussing checking out early. The sofa bed was pulled out and had no linens, its was disgustingly dirty and stained. The bed in the back room had brown ---- stained all down the sides. The air conditioning didn't work very well and not nearly enough to move air to the back bedroom. During the night the air went out. Tried calling the front desk letting the phone ring and ring and no answers.  Refrigerator froze everything in it. I would never ever ever stay at an Extended Stay of America again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>As you've probably already read in most of the previous reviews. This hotel is gross. We originally made our reservations for 3 nights and within a few hours of being at the hotel were already discussing checking out early. The sofa bed was pulled out and had no linens, its was disgustingly dirty and stained. The bed in the back room had brown ---- stained all down the sides. The air conditioning didn't work very well and not nearly enough to move air to the back bedroom. During the night the air went out. Tried calling the front desk letting the phone ring and ring and no answers.  Refrigerator froze everything in it. I would never ever ever stay at an Extended Stay of America again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r12540022-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>12540022</t>
+  </si>
+  <si>
+    <t>01/11/2008</t>
+  </si>
+  <si>
+    <t>Sucked</t>
+  </si>
+  <si>
+    <t>This place is not a good place to stay at period to be polite about it. I stayed there long term. Around 5 months to be exact, I was there for business and wasnt impressed at any time to be truthfully. Its outdated (dont let the photos fool you) all around. Rooms are scetchy, Bed are HARD as you can imagine, climate control is old and if your there during the hot months the air conditioners freeze up completely and dont cool at all, and the maids clean the room 1 time per week if your there for a week or longer. The staff seems not to care if you stay there long term and wont tell you about the true room rates. Example, if your staying for months at a time they have a monthly night rate, if you stay by the week they have a weekly  night rate, and a day rate. I was there, and told them to book me for months, and they billed me for the weekly rate. In the end I ended up paying over $600 for my stay and they played stupid when I confronted them about it and corporate does absolutely nothing if you email them but send it directly back to the hotel your at.  My car was also vandalized when I was there and they claim they have great security cameras but nothing was ever done.  They have no hot...This place is not a good place to stay at period to be polite about it. I stayed there long term. Around 5 months to be exact, I was there for business and wasnt impressed at any time to be truthfully. Its outdated (dont let the photos fool you) all around. Rooms are scetchy, Bed are HARD as you can imagine, climate control is old and if your there during the hot months the air conditioners freeze up completely and dont cool at all, and the maids clean the room 1 time per week if your there for a week or longer. The staff seems not to care if you stay there long term and wont tell you about the true room rates. Example, if your staying for months at a time they have a monthly night rate, if you stay by the week they have a weekly  night rate, and a day rate. I was there, and told them to book me for months, and they billed me for the weekly rate. In the end I ended up paying over $600 for my stay and they played stupid when I confronted them about it and corporate does absolutely nothing if you email them but send it directly back to the hotel your at.  My car was also vandalized when I was there and they claim they have great security cameras but nothing was ever done.  They have no hot tub and the pool was never open when I was there and they have no REWARDS program to participate in so the effort to stay there along with rate is NOT worth it. Lastly, the police were called there on countless occasions about abuse calls so the cops were sworming the property at late hours. Not a good stay at all overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is not a good place to stay at period to be polite about it. I stayed there long term. Around 5 months to be exact, I was there for business and wasnt impressed at any time to be truthfully. Its outdated (dont let the photos fool you) all around. Rooms are scetchy, Bed are HARD as you can imagine, climate control is old and if your there during the hot months the air conditioners freeze up completely and dont cool at all, and the maids clean the room 1 time per week if your there for a week or longer. The staff seems not to care if you stay there long term and wont tell you about the true room rates. Example, if your staying for months at a time they have a monthly night rate, if you stay by the week they have a weekly  night rate, and a day rate. I was there, and told them to book me for months, and they billed me for the weekly rate. In the end I ended up paying over $600 for my stay and they played stupid when I confronted them about it and corporate does absolutely nothing if you email them but send it directly back to the hotel your at.  My car was also vandalized when I was there and they claim they have great security cameras but nothing was ever done.  They have no hot...This place is not a good place to stay at period to be polite about it. I stayed there long term. Around 5 months to be exact, I was there for business and wasnt impressed at any time to be truthfully. Its outdated (dont let the photos fool you) all around. Rooms are scetchy, Bed are HARD as you can imagine, climate control is old and if your there during the hot months the air conditioners freeze up completely and dont cool at all, and the maids clean the room 1 time per week if your there for a week or longer. The staff seems not to care if you stay there long term and wont tell you about the true room rates. Example, if your staying for months at a time they have a monthly night rate, if you stay by the week they have a weekly  night rate, and a day rate. I was there, and told them to book me for months, and they billed me for the weekly rate. In the end I ended up paying over $600 for my stay and they played stupid when I confronted them about it and corporate does absolutely nothing if you email them but send it directly back to the hotel your at.  My car was also vandalized when I was there and they claim they have great security cameras but nothing was ever done.  They have no hot tub and the pool was never open when I was there and they have no REWARDS program to participate in so the effort to stay there along with rate is NOT worth it. Lastly, the police were called there on countless occasions about abuse calls so the cops were sworming the property at late hours. Not a good stay at all overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r8373467-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>8373467</t>
+  </si>
+  <si>
+    <t>08/07/2007</t>
+  </si>
+  <si>
+    <t>Though it was posted as a non-smoking room, it smelled horrible and had obviously been a smoking room earlier that week. I also found trash on the nightstand from previous guests and pubic hair in the tub- ewgh! I'm not sure if the room was even cleaned before I got there. It wasn't even locked when I first went in. The door had just been left open. By far, the worst hotel I have been to in a long, long time. Even cheaper hotels clean their rooms properly! I will NEVER stay at an Extended Stay America hotel again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r7741000-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>7741000</t>
+  </si>
+  <si>
+    <t>06/01/2007</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here...Aweful Rooms....Dirty!!!!!</t>
+  </si>
+  <si>
+    <t>I would NOT recommend this place to anyone. The rooms were dirty..The sofa was dirty dirty dirty.  The TV did NOT WORK....the tub did not drain properly.  The pans used for cooking....were cheap and everthing stuck to the pan.  We complained and they offered to upgrade to a suite, but was not any better.  No discount was offered for the inconvience. I will never stay there again.  I strongly suggest for anyone to stay elsewhere for a better experience. We did not have a good on are vacation.  Luckly we stayed only two nights and off to the rest of our vacation. M'air &amp; MichelleAmarillo, Texas</t>
+  </si>
+  <si>
+    <t>May 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1839,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1871,3975 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>114</v>
+      </c>
+      <c r="X13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>174</v>
+      </c>
+      <c r="X20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>190</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>214</v>
+      </c>
+      <c r="X25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>229</v>
+      </c>
+      <c r="X27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>229</v>
+      </c>
+      <c r="X28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s">
+        <v>242</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>251</v>
+      </c>
+      <c r="X30" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" t="s">
+        <v>256</v>
+      </c>
+      <c r="K31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>259</v>
+      </c>
+      <c r="O31" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>260</v>
+      </c>
+      <c r="X31" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s">
+        <v>267</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>250</v>
+      </c>
+      <c r="O32" t="s">
+        <v>137</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s">
+        <v>272</v>
+      </c>
+      <c r="L33" t="s">
+        <v>273</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>243</v>
+      </c>
+      <c r="O33" t="s">
+        <v>137</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>274</v>
+      </c>
+      <c r="X33" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>274</v>
+      </c>
+      <c r="X34" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>295</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>296</v>
+      </c>
+      <c r="X36" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>300</v>
+      </c>
+      <c r="J37" t="s">
+        <v>301</v>
+      </c>
+      <c r="K37" t="s">
+        <v>302</v>
+      </c>
+      <c r="L37" t="s">
+        <v>303</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>295</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>296</v>
+      </c>
+      <c r="X37" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>306</v>
+      </c>
+      <c r="J38" t="s">
+        <v>307</v>
+      </c>
+      <c r="K38" t="s">
+        <v>308</v>
+      </c>
+      <c r="L38" t="s">
+        <v>309</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>312</v>
+      </c>
+      <c r="J39" t="s">
+        <v>313</v>
+      </c>
+      <c r="K39" t="s">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>316</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>317</v>
+      </c>
+      <c r="J40" t="s">
+        <v>318</v>
+      </c>
+      <c r="K40" t="s">
+        <v>319</v>
+      </c>
+      <c r="L40" t="s">
+        <v>320</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" t="s">
+        <v>323</v>
+      </c>
+      <c r="K41" t="s">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>326</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>327</v>
+      </c>
+      <c r="X41" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>330</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>331</v>
+      </c>
+      <c r="J42" t="s">
+        <v>332</v>
+      </c>
+      <c r="K42" t="s">
+        <v>333</v>
+      </c>
+      <c r="L42" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>326</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>335</v>
+      </c>
+      <c r="X42" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>338</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>339</v>
+      </c>
+      <c r="J43" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" t="s">
+        <v>341</v>
+      </c>
+      <c r="L43" t="s">
+        <v>342</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>335</v>
+      </c>
+      <c r="X43" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>346</v>
+      </c>
+      <c r="J44" t="s">
+        <v>347</v>
+      </c>
+      <c r="K44" t="s">
+        <v>348</v>
+      </c>
+      <c r="L44" t="s">
+        <v>349</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>343</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>350</v>
+      </c>
+      <c r="X44" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>353</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>354</v>
+      </c>
+      <c r="J45" t="s">
+        <v>355</v>
+      </c>
+      <c r="K45" t="s">
+        <v>356</v>
+      </c>
+      <c r="L45" t="s">
+        <v>357</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>358</v>
+      </c>
+      <c r="X45" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>361</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>362</v>
+      </c>
+      <c r="J46" t="s">
+        <v>363</v>
+      </c>
+      <c r="K46" t="s">
+        <v>364</v>
+      </c>
+      <c r="L46" t="s">
+        <v>365</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>366</v>
+      </c>
+      <c r="O46" t="s">
+        <v>137</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>350</v>
+      </c>
+      <c r="X46" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>369</v>
+      </c>
+      <c r="J47" t="s">
+        <v>370</v>
+      </c>
+      <c r="K47" t="s">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s">
+        <v>372</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>373</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>374</v>
+      </c>
+      <c r="X47" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>378</v>
+      </c>
+      <c r="J48" t="s">
+        <v>379</v>
+      </c>
+      <c r="K48" t="s">
+        <v>380</v>
+      </c>
+      <c r="L48" t="s">
+        <v>381</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>373</v>
+      </c>
+      <c r="O48" t="s">
+        <v>137</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>382</v>
+      </c>
+      <c r="X48" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>385</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>386</v>
+      </c>
+      <c r="J49" t="s">
+        <v>387</v>
+      </c>
+      <c r="K49" t="s">
+        <v>388</v>
+      </c>
+      <c r="L49" t="s">
+        <v>389</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>373</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>390</v>
+      </c>
+      <c r="X49" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>398</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>399</v>
+      </c>
+      <c r="X50" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s">
+        <v>406</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>407</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>408</v>
+      </c>
+      <c r="X51" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>411</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>412</v>
+      </c>
+      <c r="J52" t="s">
+        <v>413</v>
+      </c>
+      <c r="K52" t="s">
+        <v>414</v>
+      </c>
+      <c r="L52" t="s">
+        <v>415</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>407</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>416</v>
+      </c>
+      <c r="X52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>420</v>
+      </c>
+      <c r="J53" t="s">
+        <v>421</v>
+      </c>
+      <c r="K53" t="s">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s">
+        <v>423</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>425</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>426</v>
+      </c>
+      <c r="J54" t="s">
+        <v>427</v>
+      </c>
+      <c r="K54" t="s">
+        <v>428</v>
+      </c>
+      <c r="L54" t="s">
+        <v>429</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>424</v>
+      </c>
+      <c r="O54" t="s">
+        <v>137</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>430</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>431</v>
+      </c>
+      <c r="J55" t="s">
+        <v>432</v>
+      </c>
+      <c r="K55" t="s">
+        <v>433</v>
+      </c>
+      <c r="L55" t="s">
+        <v>434</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>435</v>
+      </c>
+      <c r="O55" t="s">
+        <v>92</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>436</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>437</v>
+      </c>
+      <c r="J56" t="s">
+        <v>438</v>
+      </c>
+      <c r="K56" t="s">
+        <v>439</v>
+      </c>
+      <c r="L56" t="s">
+        <v>440</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>441</v>
+      </c>
+      <c r="O56" t="s">
+        <v>92</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>444</v>
+      </c>
+      <c r="J57" t="s">
+        <v>445</v>
+      </c>
+      <c r="K57" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s">
+        <v>447</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>448</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>450</v>
+      </c>
+      <c r="J58" t="s">
+        <v>451</v>
+      </c>
+      <c r="K58" t="s">
+        <v>452</v>
+      </c>
+      <c r="L58" t="s">
+        <v>453</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>454</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>456</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>457</v>
+      </c>
+      <c r="J59" t="s">
+        <v>458</v>
+      </c>
+      <c r="K59" t="s">
+        <v>459</v>
+      </c>
+      <c r="L59" t="s">
+        <v>460</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>462</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>463</v>
+      </c>
+      <c r="J60" t="s">
+        <v>464</v>
+      </c>
+      <c r="K60" t="s">
+        <v>341</v>
+      </c>
+      <c r="L60" t="s">
+        <v>465</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>466</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>467</v>
+      </c>
+      <c r="J61" t="s">
+        <v>468</v>
+      </c>
+      <c r="K61" t="s">
+        <v>469</v>
+      </c>
+      <c r="L61" t="s">
+        <v>470</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>471</v>
+      </c>
+      <c r="O61" t="s">
+        <v>74</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_47.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_47.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="754">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,89 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r604719794-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>225455</t>
+  </si>
+  <si>
+    <t>604719794</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>The Hill's have Eyes!!</t>
+  </si>
+  <si>
+    <t>Absolutely the scariest most disgusting place I've ever seen! Didn't even stay 30 minutes and in that time the front desk clerk tried to steal my husband's ID and the room next door had some strange man that every time I would walk through the bedroom it was like he was scaling the wall with me!!! Pretty sure that if we would have stayed my husband would have disappeared and I would have become dinner. They were like caged animals starring at my every move just waiting to pounce! Stay in the woods before you stay here!!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r598652780-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>598652780</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Safer and cleaner staying in your car!!!</t>
+  </si>
+  <si>
+    <t>Crossland Economy Studios - Denver - Lakewood.      Upon seeing the guy stumbling around the parking lot with a Corona in his hand, wearing falling down swimming trunks, I should’ve called it good, and just left. But noooo, after spending the day at Elitch’s (another terrible mistake) my kids and I just wanted to shower and sleep.
+On the way to our room, we were greeted by the couple, who were very clearly under the influence of some drug(s), hanging multiple pairs of ripped up jeans outside their room while twitching uncontrollably and emptying a suitcase of all its items right there on the sidewalk; a couple of women in revealing outfits making the rounds outside; and men sitting in the doorway of their rooms with multiple cases of beer smoking God knows what.
+Inside our “King Suite” we were welcomed by a very dull lamp light in the room containing the sofa bed, perhaps to minimize the appearance of the numerous bugs scurrying around. 
+In the next room was the bed with more bugs and bedding, complete with multiple yellow stains and holes from cigarette burns. (Thought it was a “non-smoking” room? Don’t even want to know what the stains are from!) Someone had apparently written on the mirror with red marker, that was only half scrubbed off. 
+But my absolute favorite parts were the toilet left with nice POOP skid marks and the people next door very loudly having...Crossland Economy Studios - Denver - Lakewood.      Upon seeing the guy stumbling around the parking lot with a Corona in his hand, wearing falling down swimming trunks, I should’ve called it good, and just left. But noooo, after spending the day at Elitch’s (another terrible mistake) my kids and I just wanted to shower and sleep.On the way to our room, we were greeted by the couple, who were very clearly under the influence of some drug(s), hanging multiple pairs of ripped up jeans outside their room while twitching uncontrollably and emptying a suitcase of all its items right there on the sidewalk; a couple of women in revealing outfits making the rounds outside; and men sitting in the doorway of their rooms with multiple cases of beer smoking God knows what.Inside our “King Suite” we were welcomed by a very dull lamp light in the room containing the sofa bed, perhaps to minimize the appearance of the numerous bugs scurrying around. In the next room was the bed with more bugs and bedding, complete with multiple yellow stains and holes from cigarette burns. (Thought it was a “non-smoking” room? Don’t even want to know what the stains are from!) Someone had apparently written on the mirror with red marker, that was only half scrubbed off. But my absolute favorite parts were the toilet left with nice POOP skid marks and the people next door very loudly having profanity laced “relations.”Sadly, my kids and I felt it safer to just drive 4 hours home through the night and forgo our plans to the Butterfly Pavilion than to take our chances on contracting a disease from the bedding or toilet, being dinner for bugs, or potentially being accosted by another “guest.”This is the skid row of motels, a place where dreams come to die, and you get to bear witness to the utter degradation of humanity.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Crossland Economy Studios - Denver - Lakewood.      Upon seeing the guy stumbling around the parking lot with a Corona in his hand, wearing falling down swimming trunks, I should’ve called it good, and just left. But noooo, after spending the day at Elitch’s (another terrible mistake) my kids and I just wanted to shower and sleep.
+On the way to our room, we were greeted by the couple, who were very clearly under the influence of some drug(s), hanging multiple pairs of ripped up jeans outside their room while twitching uncontrollably and emptying a suitcase of all its items right there on the sidewalk; a couple of women in revealing outfits making the rounds outside; and men sitting in the doorway of their rooms with multiple cases of beer smoking God knows what.
+Inside our “King Suite” we were welcomed by a very dull lamp light in the room containing the sofa bed, perhaps to minimize the appearance of the numerous bugs scurrying around. 
+In the next room was the bed with more bugs and bedding, complete with multiple yellow stains and holes from cigarette burns. (Thought it was a “non-smoking” room? Don’t even want to know what the stains are from!) Someone had apparently written on the mirror with red marker, that was only half scrubbed off. 
+But my absolute favorite parts were the toilet left with nice POOP skid marks and the people next door very loudly having...Crossland Economy Studios - Denver - Lakewood.      Upon seeing the guy stumbling around the parking lot with a Corona in his hand, wearing falling down swimming trunks, I should’ve called it good, and just left. But noooo, after spending the day at Elitch’s (another terrible mistake) my kids and I just wanted to shower and sleep.On the way to our room, we were greeted by the couple, who were very clearly under the influence of some drug(s), hanging multiple pairs of ripped up jeans outside their room while twitching uncontrollably and emptying a suitcase of all its items right there on the sidewalk; a couple of women in revealing outfits making the rounds outside; and men sitting in the doorway of their rooms with multiple cases of beer smoking God knows what.Inside our “King Suite” we were welcomed by a very dull lamp light in the room containing the sofa bed, perhaps to minimize the appearance of the numerous bugs scurrying around. In the next room was the bed with more bugs and bedding, complete with multiple yellow stains and holes from cigarette burns. (Thought it was a “non-smoking” room? Don’t even want to know what the stains are from!) Someone had apparently written on the mirror with red marker, that was only half scrubbed off. But my absolute favorite parts were the toilet left with nice POOP skid marks and the people next door very loudly having profanity laced “relations.”Sadly, my kids and I felt it safer to just drive 4 hours home through the night and forgo our plans to the Butterfly Pavilion than to take our chances on contracting a disease from the bedding or toilet, being dinner for bugs, or potentially being accosted by another “guest.”This is the skid row of motels, a place where dreams come to die, and you get to bear witness to the utter degradation of humanity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r588736658-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>588736658</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Worst place ever, customer service sucked!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room I was checked into had full yrash bags in it. Beds weren't made. When I went to front desk to complain I could tell they didn't have another room for me. Kim, one of the desk clerks told me they didn't have time to check behind room cleaning staff, when I complained more I was told to leave the property. Avoid this place at all cost. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r570292090-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
-    <t>33514</t>
-  </si>
-  <si>
-    <t>225455</t>
-  </si>
-  <si>
     <t>570292090</t>
   </si>
   <si>
@@ -195,9 +266,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r555899847-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -222,6 +290,45 @@
     <t>Spacious though spartan economy 'suites' offer cheap (see Experian) stay in otherwise expensive Denver.  Many long-term renters seem friendly. Only ONE ELEVATOR for massive three-story seemingly never-ending array of buildings and long walks with your luggage from elevator to many rooms. Ads boast wifi in every room, but it is NOT HIGH SPEED WIFI and page loading is so slow you often just give up.  Wide-screen modern TV sets only get analog signals and there is no tv channel guide - nice lady desk clerk says 'just click through the channels' and see which networks or on which channel numbers - well, at least you get free Shotime.  Out of date look to buildings - this place takes some getting use to but Esperian had rates in the high $30's per night.  WalMart, Dollar Tree, McDonalds, supermarkets are all a reasonably short drive (or long walk).More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r523467563-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>523467563</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>One of the worst places</t>
+  </si>
+  <si>
+    <t>In the parking lot and walkways are all filthy and there was a syringe and in the parking lot a condom in the parking lot the walkways look like they haven't been cleaned in months,  The worst one of all staff  stalled personal items from my room and management refuse to do anything about it and they told me to call the police so I give you the worst rating ever there's not even any rating for stealing stealing is stealing</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r496493569-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>496493569</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>The Bates Motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is THE sketchiest, scariest place I've EVER been!  It was a desperate need for a few hours to rest near Denver because of a late arrival. Arrived at 3:00 am and people were outside just hanging around in the parking lot. There were NO pillow cases on the pillows and they provided 3 HAND towels instead of bath towels. The room still cost me $100 and in hindsight, I should have just slept for a few hours in the parking lot of the police station. I would have felt safer!!!  </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r489672681-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -276,6 +383,45 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r467019219-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>467019219</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>This was the WORST hotel I have EVER stayed in.</t>
+  </si>
+  <si>
+    <t>We had to sign a waiver that we would not bring prostitutes or controlled substances to the hotel. We were greeted with a partially smoked cigarette on our door handle and the door would not close completely. The whole room was very filthy. My husband's feet were black on the bottom from the tile floors after being there one hour. The bed was so hard we had to sleep on the couch. I felt dirtier after using the nasty shower with very little water pressure. Horrible location with people hanging around the parking lot trying to sell you things, screaming kids, and large dogs roaming. I paid for two nights but only stayed one since I felt so unsafe and dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had to sign a waiver that we would not bring prostitutes or controlled substances to the hotel. We were greeted with a partially smoked cigarette on our door handle and the door would not close completely. The whole room was very filthy. My husband's feet were black on the bottom from the tile floors after being there one hour. The bed was so hard we had to sleep on the couch. I felt dirtier after using the nasty shower with very little water pressure. Horrible location with people hanging around the parking lot trying to sell you things, screaming kids, and large dogs roaming. I paid for two nights but only stayed one since I felt so unsafe and dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r429856627-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>429856627</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>pass on this place</t>
+  </si>
+  <si>
+    <t>so i travel a lot for work and the reservation was made for me here. as soon as we pulled up i knew this wasn't going to be a good place. check in person was okay. walked in the room and was very disappointed. there were no utensils to use in the kitchen, the carpet was dirty, it seems the smoke alarm was pulled out, and the bed was literally as hard as a rock no joke. we even had someone try to get in the room while we were in it, not sure if they just had the wrong room or what but it was creepy. we stayed one night and had to check out to go somewhere else, there was no way we were going to stay there for a week. thank god we didn't have to pay for it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>so i travel a lot for work and the reservation was made for me here. as soon as we pulled up i knew this wasn't going to be a good place. check in person was okay. walked in the room and was very disappointed. there were no utensils to use in the kitchen, the carpet was dirty, it seems the smoke alarm was pulled out, and the bed was literally as hard as a rock no joke. we even had someone try to get in the room while we were in it, not sure if they just had the wrong room or what but it was creepy. we stayed one night and had to check out to go somewhere else, there was no way we were going to stay there for a week. thank god we didn't have to pay for it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r416966764-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -294,9 +440,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>When my husband and I pulled up and parked at this Hotel I was like, "Is this a Joke"? The outside of the building is old, rusted, dirty and needs lots of work. The inside was big like a apartment and it was clean but very outdated and stunk like old cigarette smoke. I also had a paranormal incident happen in the bedroom. I was taking a nap and had my contact case sitting next to me in the middle of the table, while sleeping I heard something fall and my contact case had been knocked off the table and on to the floor. It was creepy I felt like we were not wanted in that dark old gloomy room. I will never stay here again and the price was too high for this ghetto place. There also were what looked to be blood stains on the shower curtain and we had to buy our own towels and toilet paper because they were not given to us on a daily basis. Stay here if you want a creepy dumpy experience otherwise save your money people.More</t>
   </si>
   <si>
@@ -340,6 +483,42 @@
   </si>
   <si>
     <t>Bathroom sink totally plugged up and never fixed after repeated requests over 4 days. A/C barely worked during heat wave and it popped and crackled all night--thought it might start a fire. Old tube-set TV with 20x more snow than picture--it was basically just a radio. No hangers. For some reason the mattress was superb, but probably just in my room. Shingles sliding off pitched roof. Rusty handrails everywhere. No elevator to my 3rd floor room. Afraid to use Wi-Fi, since this is a crime area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r377196353-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>377196353</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Cheap for the area, but not worth it.</t>
+  </si>
+  <si>
+    <t>My fiancé and I stayed at the Denver Lakewood west location from May 19th to the 21st, checking out on the 22nd. The hotel was a little rougher than I had expected even having stayed in extended stay locations before. The bathroom door was completely missing, along with the security latch on the back of the door. The bed was clean and seemed good, and the fridge was new and worked well. The carpets were filthy, and dirtied socks when walking around without shoes, and the room smelled badly of cigarettes. When we checked out Sunday morning we made it down the street to the gas station and realized we had forgotten a pillow of ours in the room. I was told by the front desk girl she had just stripped the room and not seen it. I explained I had searched the car and it wasnt there it must be upstairs. After checking the room, I returned to the desk and said it wasnt there maybe they had moved it. To which I got snied remarks that noone had been in the room besides her after we left. I tild them to keep the pillow, they must need it worse than we do which finally got the grins from their faces. I have stayed in some pretty bad places before with my time in the military, but this was definitely one of the worst. Didnt feel safe, even with...My fiancé and I stayed at the Denver Lakewood west location from May 19th to the 21st, checking out on the 22nd. The hotel was a little rougher than I had expected even having stayed in extended stay locations before. The bathroom door was completely missing, along with the security latch on the back of the door. The bed was clean and seemed good, and the fridge was new and worked well. The carpets were filthy, and dirtied socks when walking around without shoes, and the room smelled badly of cigarettes. When we checked out Sunday morning we made it down the street to the gas station and realized we had forgotten a pillow of ours in the room. I was told by the front desk girl she had just stripped the room and not seen it. I explained I had searched the car and it wasnt there it must be upstairs. After checking the room, I returned to the desk and said it wasnt there maybe they had moved it. To which I got snied remarks that noone had been in the room besides her after we left. I tild them to keep the pillow, they must need it worse than we do which finally got the grins from their faces. I have stayed in some pretty bad places before with my time in the military, but this was definitely one of the worst. Didnt feel safe, even with the two undercover police officers pretending to sweep the parking lot while looking for someone. Also the kitchen had nothing in it to use but the microwave, frdge, and two burner cooktop. No pots, pans, utensils,  etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>My fiancé and I stayed at the Denver Lakewood west location from May 19th to the 21st, checking out on the 22nd. The hotel was a little rougher than I had expected even having stayed in extended stay locations before. The bathroom door was completely missing, along with the security latch on the back of the door. The bed was clean and seemed good, and the fridge was new and worked well. The carpets were filthy, and dirtied socks when walking around without shoes, and the room smelled badly of cigarettes. When we checked out Sunday morning we made it down the street to the gas station and realized we had forgotten a pillow of ours in the room. I was told by the front desk girl she had just stripped the room and not seen it. I explained I had searched the car and it wasnt there it must be upstairs. After checking the room, I returned to the desk and said it wasnt there maybe they had moved it. To which I got snied remarks that noone had been in the room besides her after we left. I tild them to keep the pillow, they must need it worse than we do which finally got the grins from their faces. I have stayed in some pretty bad places before with my time in the military, but this was definitely one of the worst. Didnt feel safe, even with...My fiancé and I stayed at the Denver Lakewood west location from May 19th to the 21st, checking out on the 22nd. The hotel was a little rougher than I had expected even having stayed in extended stay locations before. The bathroom door was completely missing, along with the security latch on the back of the door. The bed was clean and seemed good, and the fridge was new and worked well. The carpets were filthy, and dirtied socks when walking around without shoes, and the room smelled badly of cigarettes. When we checked out Sunday morning we made it down the street to the gas station and realized we had forgotten a pillow of ours in the room. I was told by the front desk girl she had just stripped the room and not seen it. I explained I had searched the car and it wasnt there it must be upstairs. After checking the room, I returned to the desk and said it wasnt there maybe they had moved it. To which I got snied remarks that noone had been in the room besides her after we left. I tild them to keep the pillow, they must need it worse than we do which finally got the grins from their faces. I have stayed in some pretty bad places before with my time in the military, but this was definitely one of the worst. Didnt feel safe, even with the two undercover police officers pretending to sweep the parking lot while looking for someone. Also the kitchen had nothing in it to use but the microwave, frdge, and two burner cooktop. No pots, pans, utensils,  etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r373535036-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>373535036</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Do not stay here!</t>
+  </si>
+  <si>
+    <t>This place was scary, gross and smelled terrible. There was some weird substance running down the side of the fridge that looked like blood, no screens on the windows, no pillows, dirty towels, very dirty carpet, people hanging around outside, etc.  The heater was falling off the wall.  There was a mattress hanging from a tree and the garbage was flowing over outside.  We bought some cleaning wipes and Lysol and cleaned the place just so we could stand to stay one night.  We had reservations for two nights but left a day early because we could not stand another.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r369891783-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
@@ -413,6 +592,45 @@
     <t>Our 1st room had no LR furniture whatsoever. When i complained to the front desk i was told they no longer had couches or recliners. I waited till the next shift and complained and got a new room with...OMG... A couch. The new room was missing the shower curtain, the towels, the comforters and had very dirty carpet. I swore i saw a bug the first night, and guess what we have BED BUGS!! THE LR tv did not work neither did front door lock and electrical outlets. OUR ROOM HEATER DID NOT WORK OH AND BY THE WAY ITS FREAKING WINTER AND SNOWING... IN DENVER ITS COLD!! OMG HAD TO GO BUY TWO HEATERS!! . We complained more than once but in three weeks NOT A SOUL came to fix OUR HEATER!!! But check this out maintenance sent someone to spray for the infestation of bed bugs so that means the management TOTALLY KNEW the room WAS INFESTED WITH BED BUGS at the time we were moved into it. There were DRUG syringes under the couch and the bed, housekeeping never surfaced but one time in three weeks, the toilet got clogged and we had to go buy our own plunger because they had no maintenance available. Drug Traffic All Night Long!! Loud screaming neighbors on both sides! Spotty Internet service. Dingy Furniture and carpet, was told no dishes or kitchen ware were available as promised but found about...Our 1st room had no LR furniture whatsoever. When i complained to the front desk i was told they no longer had couches or recliners. I waited till the next shift and complained and got a new room with...OMG... A couch. The new room was missing the shower curtain, the towels, the comforters and had very dirty carpet. I swore i saw a bug the first night, and guess what we have BED BUGS!! THE LR tv did not work neither did front door lock and electrical outlets. OUR ROOM HEATER DID NOT WORK OH AND BY THE WAY ITS FREAKING WINTER AND SNOWING... IN DENVER ITS COLD!! OMG HAD TO GO BUY TWO HEATERS!! . We complained more than once but in three weeks NOT A SOUL came to fix OUR HEATER!!! But check this out maintenance sent someone to spray for the infestation of bed bugs so that means the management TOTALLY KNEW the room WAS INFESTED WITH BED BUGS at the time we were moved into it. There were DRUG syringes under the couch and the bed, housekeeping never surfaced but one time in three weeks, the toilet got clogged and we had to go buy our own plunger because they had no maintenance available. Drug Traffic All Night Long!! Loud screaming neighbors on both sides! Spotty Internet service. Dingy Furniture and carpet, was told no dishes or kitchen ware were available as promised but found about the day before checkout that was a lie as well!! Our belonging are infested with BED BUGS!!  We had to go and buy so much stuff for the room we spent almost 400$!! And then find out they had the items in the storage room by the office...if you ask... Hmm that's funny because It seems that i did ask and was told otherwise! There was no hot water and the bedroom door wad missing!! We gave up on asking the transvestite behind counter for help or even giving complaints due to his poor work ethic, deplorable customer service, blatant lies and outright disrespect. We were absolutely appalled when he took the lords name in vain, stated that he was not a Christian and then spoke disrespectfully about a previous guest whom was a preacher which is so unprofessional and even cursed numerous times in front of guests, some with small children. Don't EVEN THINK OF STAYING HERE run away as fast as you can, there is better quality for less right down the road. DONT BRING YOUR FAMILY HERE PLEASE!! IF YOU ARE A PROSTITUTE, A DRUG DEALER OR JUNKIE THIS IS THE PLACE FOR YOU!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r347736668-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>347736668</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>what a  nasty dirty  hole</t>
+  </si>
+  <si>
+    <t>this place sux.crap servie ,toilet cloged ,,,no help i had to go buy the stuff to fix it,,when i asked to be repaid the 30$ i had to spend ,,the reply the front desk gave me ,,not there problem,,,ill b removeing what i fixed when i leave,,then they over charged my card 150$,,,cops are here every night,,its a bad place im staying cuz i paid  a month,,dumb idea,ive had no room servis ,,having to wash my sheets my tows they provided me after i raised hell to get them  n,i have to sleep with my gun next to me its that bad,,i cant beleve that corprate office is allowing this place to be like thisMoreShow less</t>
+  </si>
+  <si>
+    <t>this place sux.crap servie ,toilet cloged ,,,no help i had to go buy the stuff to fix it,,when i asked to be repaid the 30$ i had to spend ,,the reply the front desk gave me ,,not there problem,,,ill b removeing what i fixed when i leave,,then they over charged my card 150$,,,cops are here every night,,its a bad place im staying cuz i paid  a month,,dumb idea,ive had no room servis ,,having to wash my sheets my tows they provided me after i raised hell to get them  n,i have to sleep with my gun next to me its that bad,,i cant beleve that corprate office is allowing this place to be like thisMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r318814988-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>318814988</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN</t>
+  </si>
+  <si>
+    <t>WOW, Where to start. The place was just plain nasty, from the parking lot to the room. Appeared to be a big transient hang out. Was delivering a NEW sm box truck and was VERY nervous about parking it there. Lots of stuff (Mattress', TV's Trash...ect) piled up by the dumpster and at least twice I watched different residents come out of their rooms and rummage through it. Room was dirty. Smelled AWFUL carpet needed replaced, BADLY needed paint. Just......NASTY. The worst thing was that we just didn't feel safe here. I contribute to this site a LOT. We are not prudes or stuffy. Our favorite chain is Red Roof. This place was awful. PASS ON IT.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>WOW, Where to start. The place was just plain nasty, from the parking lot to the room. Appeared to be a big transient hang out. Was delivering a NEW sm box truck and was VERY nervous about parking it there. Lots of stuff (Mattress', TV's Trash...ect) piled up by the dumpster and at least twice I watched different residents come out of their rooms and rummage through it. Room was dirty. Smelled AWFUL carpet needed replaced, BADLY needed paint. Just......NASTY. The worst thing was that we just didn't feel safe here. I contribute to this site a LOT. We are not prudes or stuffy. Our favorite chain is Red Roof. This place was awful. PASS ON IT.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r316398785-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -428,12 +646,6 @@
     <t>double billed, clerks in office complete idiots, even manager. no coffe maker, tv is old box style, remote doesnt work. bathroom dirty. very run down  shady place! having to go to corporate to get refund on double billing. treated horribly</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r315144807-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -467,6 +679,42 @@
     <t>From the TV remote control to the light switch on the wall, everything had a greasy and filthy feel to it. The kitchenette had no utensils and the hotel had no ice unless you wanted to make it in your room. No cups in the bathroom. Some of the other hotel guests appeared to be running businesses out of their rooms.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r309214816-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>309214816</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Not safe, horrified at the middle of the night</t>
+  </si>
+  <si>
+    <t>I booked this hotel for 1 night stopover as we were leaving for keystone next day. It was a cheap deal and I had minimal expectations for the room as we needed it only for a nights sleep. Check in was easy and room was clean. But in the middle of the night someone tried to enter our room! She had the key and if we had not put secondary lock then she would have come right in while we were sleeping. We were terrified!! She started asking if we had an ID to prove that we rented this room and pretended to ask someone that why this room is still showing available!! We mentioned the incident to check out desk in the morning and she acted surprised. This was by far worst and horrific hotel stays we ever had. Do NOT stay if you care for your safety.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel for 1 night stopover as we were leaving for keystone next day. It was a cheap deal and I had minimal expectations for the room as we needed it only for a nights sleep. Check in was easy and room was clean. But in the middle of the night someone tried to enter our room! She had the key and if we had not put secondary lock then she would have come right in while we were sleeping. We were terrified!! She started asking if we had an ID to prove that we rented this room and pretended to ask someone that why this room is still showing available!! We mentioned the incident to check out desk in the morning and she acted surprised. This was by far worst and horrific hotel stays we ever had. Do NOT stay if you care for your safety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r296297806-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>296297806</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Great and enjoyable</t>
+  </si>
+  <si>
+    <t>I enjoy staying at this place it is like being in an apartment. The people are Awesome as well. The grounds are kept up as well it always looks nice. I also like that we can have our dogs too that helps cause i never want to get rid of dogs.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r292049186-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -524,6 +772,54 @@
     <t>I'm a young traveler (23 years old) so I'm used to be on a budget and stayed at many hostel and really cheap hotels in a lot of different countries. However, this place is by far the worst nightmare I've ever seen. I booked it through Expedia with my boyfriend, but we decided to not sleep there even if it was not refundable. We prefered to find another hotel in the middle of the night rather than to stay at this filthy place. - Sheets were dirty (crap from other people was still IN the bed);- Dirty stains everywhere in the room (bathroom, sink, floor, walls, roof, mattress);- Broken furniture (heater);- UNSAFE FEELING everywhere (in the parking lot and in the room) - there were people and families sleeping in their cars in the parking lot.The only positive point about this place is that the internet was working so we could book somewhere else and run as fast as we could.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r230170423-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>230170423</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>We booked the Crossland through Expedia for one night and guaranteed payment because we were arriving after midnight.  The clerk said that Expedia automatically cancels guaranteed reservations after 8:30 pm. That was made no sense; payment was guaranteed.  He refused to help in any way, and when I asked where the restroom was at 2 am, he said there was none and suggested that I knock on guest room doors and ask to use theirs.  Another two travelers were waiting in the lobby because the their room had been barricaded by an intruder and the clerk had called the police.  At 3 pm all the lights in the building went out and that's when we decided to leave.  A terrible experience in the middle of the night. Travelers beware. Fortunately, Expedia found us another room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>We booked the Crossland through Expedia for one night and guaranteed payment because we were arriving after midnight.  The clerk said that Expedia automatically cancels guaranteed reservations after 8:30 pm. That was made no sense; payment was guaranteed.  He refused to help in any way, and when I asked where the restroom was at 2 am, he said there was none and suggested that I knock on guest room doors and ask to use theirs.  Another two travelers were waiting in the lobby because the their room had been barricaded by an intruder and the clerk had called the police.  At 3 pm all the lights in the building went out and that's when we decided to leave.  A terrible experience in the middle of the night. Travelers beware. Fortunately, Expedia found us another room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r229640379-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>229640379</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>If you want budget it's acceptable</t>
+  </si>
+  <si>
+    <t>While it really needs to be remodeled, I felt safe and the shower and bed were clean. Also, I didn't spend any time here except to sleep. Best part is close proximity to highway 6 (a tenth of a mile) so you can get out of boring Lakewood and drive to downtown Denver!  To eat nearby, go west on Hwy 6 one exit. Union St has nice hotels and a few decent places to eat. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>While it really needs to be remodeled, I felt safe and the shower and bed were clean. Also, I didn't spend any time here except to sleep. Best part is close proximity to highway 6 (a tenth of a mile) so you can get out of boring Lakewood and drive to downtown Denver!  To eat nearby, go west on Hwy 6 one exit. Union St has nice hotels and a few decent places to eat. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r229125731-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -539,9 +835,6 @@
     <t>We rented this room on Hotwire. The front desk liaison was helpful, knowledgeable and courteous. Unfortunately, she sent us to one dirty room after another.The rooms lacked basic service; dirty floors, dirty beds, bathrooms in each attempt to offer us a clean and ready room.Internet spotty and no bathroom door on "renovated" last resort. MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded September 17, 2014</t>
   </si>
   <si>
@@ -599,6 +892,60 @@
     <t>I stayed at the Crossland from June, 2013 until May 2014 and am well acquainted with extended stay hotel life. I give the Crossland a three star rating for it's great location and value for price attributes. Yes it's a 3-star hotel, not four or five, but if you want that rating, go stay at the Hilton (Homestead Suites) or the Westin. Just be prepared to spend major bank!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r214118697-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>214118697</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Get away!</t>
+  </si>
+  <si>
+    <t>I'm not sure where to start. The entire property was very run down. Brick walls were falling apart. The garbage dumpsters were overflowing, there was discarded furniture piled around the dumpsters. Trash all over the place. Various stains on the walls of the building. The metal stairways were rusting out, there was rebar poking through the concrete sidewalks.People were smoking and grilling food outside of their rooms.The room was *mostly* clean except for the bath tub. Room reeked of cigarette smoke that mostly went away after venting the place. Was a nice large suite, living room, kitchenette, bedroom. The AC unit was undersized, and wasn't working properly. Really need two AC's to cool a place of that size.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2014</t>
+  </si>
+  <si>
+    <t>I'm not sure where to start. The entire property was very run down. Brick walls were falling apart. The garbage dumpsters were overflowing, there was discarded furniture piled around the dumpsters. Trash all over the place. Various stains on the walls of the building. The metal stairways were rusting out, there was rebar poking through the concrete sidewalks.People were smoking and grilling food outside of their rooms.The room was *mostly* clean except for the bath tub. Room reeked of cigarette smoke that mostly went away after venting the place. Was a nice large suite, living room, kitchenette, bedroom. The AC unit was undersized, and wasn't working properly. Really need two AC's to cool a place of that size.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r212958556-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>212958556</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t>I can forgive a lot in a budget motel, but not a "nonsmoking room" that reeks of cigarettes. I must have used half a can of Glade to combat the odor. With that in mind, I was unable to get beyond all the other deficiencies: stained bedspread, damp floor, long hair in bathtub, rusted metal fixtures on the exterior, broken fixtures in bathroom. I'll never patronize this brand again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2014</t>
+  </si>
+  <si>
+    <t>I can forgive a lot in a budget motel, but not a "nonsmoking room" that reeks of cigarettes. I must have used half a can of Glade to combat the odor. With that in mind, I was unable to get beyond all the other deficiencies: stained bedspread, damp floor, long hair in bathtub, rusted metal fixtures on the exterior, broken fixtures in bathroom. I'll never patronize this brand again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r209332570-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -614,9 +961,6 @@
     <t>For what I needed, Crossland was a great fit. Clean, comfortable, reasonably priced, and within walking distance of the workshop I ws attending. It is an older hotel, but do not confuse age for uncleanliness. If you are looking for a bunch of bells and whistles, stay some where else. If you are looking for a good price and a good place to stay with the necessities of life, this is the place. The staff was also very helpful and the Internet was the fastest that I have ever had in a hotel.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded June 13, 2014</t>
   </si>
   <si>
@@ -671,6 +1015,36 @@
     <t>Never would stay again. Even if it was free!!! Had to re-wash my clean clothes when I left. Bed was a noisy rock, that sounded like bubble wrap popping while sitting or laying. Multiple trash items and cigarette buds under bed and night stand. Bed, covers, walls, and carpets were stained, melted, burned and dirty.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r196884949-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>196884949</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Best atmosphere&amp; price for your home away from home</t>
+  </si>
+  <si>
+    <t>I loved everything about this hotel. It was well located and well priced. I enjoyed the staff but especially Wendy, she's terrific!!! She was very helpful and confident in her property and I liked that! I will stay with Crosslands every chance I get. Thanks for the awesome experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r195674493-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>195674493</t>
+  </si>
+  <si>
+    <t>02/28/2014</t>
+  </si>
+  <si>
+    <t>Would recommend to everyone</t>
+  </si>
+  <si>
+    <t>The staff are awsome especially David, Wendy, and Jane. they all take pride in thier jobs and it shows...the property is nice and rooms are always maintained. I am here with my baby and i feel completely safe all the time. I would tell any of my friends to stay here if theyre inakewood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r189733464-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -734,6 +1108,57 @@
     <t>I've been here since June and I've seen stead  improvements being made by the management. The staff and the maids as well as the maintainance person, Shona, are on top of any problems I've encountered. And the value for price compared to the rest of the extended stay hotels in Denver is right on! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r183833169-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>183833169</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>I don't even know where to start...</t>
+  </si>
+  <si>
+    <t>This has to be the absolute worst property I have ever stayed at.  I was never taken care of in a manner that was professional or polite.  Reviewing my folio, I have determined they over charged me by $890.00.  I thought that was happening but the front desk assured me I as misunderstanding it when I asked during my stay.  Housekeeping was a joke!  When they came the state of mess they left can be clearly seen in the photos I've attached to this review.  I say "when" because my room was consistently missed for it's weekly cleaning - by the end of my stay, more weeks went without housekeeping than with.  Maintenance... well you should forget about it now.  I moved in during the winter and the heat worked for one day.  I asked repeatedly for them to turn the heat back on but never got any resolution.  It was well below zero outside and well below freezing inside.  Absolutely miserable.  The heat finally returned to the suite on the same day it hit 80 degrees outside.  There are also a significant number of permanent residents at this property - many with children.  Expect screaming and the sound of running children at all hours.  I hated this stay and feel like I was cheated at ever turn possible.  I would not recommend this disgusting hotel to anyone - even an enemy.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2013</t>
+  </si>
+  <si>
+    <t>This has to be the absolute worst property I have ever stayed at.  I was never taken care of in a manner that was professional or polite.  Reviewing my folio, I have determined they over charged me by $890.00.  I thought that was happening but the front desk assured me I as misunderstanding it when I asked during my stay.  Housekeeping was a joke!  When they came the state of mess they left can be clearly seen in the photos I've attached to this review.  I say "when" because my room was consistently missed for it's weekly cleaning - by the end of my stay, more weeks went without housekeeping than with.  Maintenance... well you should forget about it now.  I moved in during the winter and the heat worked for one day.  I asked repeatedly for them to turn the heat back on but never got any resolution.  It was well below zero outside and well below freezing inside.  Absolutely miserable.  The heat finally returned to the suite on the same day it hit 80 degrees outside.  There are also a significant number of permanent residents at this property - many with children.  Expect screaming and the sound of running children at all hours.  I hated this stay and feel like I was cheated at ever turn possible.  I would not recommend this disgusting hotel to anyone - even an enemy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r182807107-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>182807107</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Most satisfactory.</t>
+  </si>
+  <si>
+    <t>Most pleased. Great location, nextdoor tothe infamous Hooters,this moderately priced motel is a great value. Having stayed at a great number of hotels I can honestly say that this is one of the very best!   priced extended hotel is a great bargain!   MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Most pleased. Great location, nextdoor tothe infamous Hooters,this moderately priced motel is a great value. Having stayed at a great number of hotels I can honestly say that this is one of the very best!   priced extended hotel is a great bargain!   More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r178362067-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -809,6 +1234,48 @@
     <t>Thank heavens for the terrific lady who cleans my room weekly. Her name is Theresa, who I have given the nickname "The Queen of Squeaky Clean". This the only thing that is constant on this property ... but coming back to a clean room is very comforting. As for the internet here, unless you are in the Laundry Room [where one always gets a signal strength of 5 bars] do not expect much - the signal in my room fails at least 5 times per session. I have reported this to Corporate since June 4, 2013 and STILL nothing has been done to correct this situation, not only for me but for many others on this property.  For a selection date, it did not allow November, 2008, but that does not surprise me.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r173859784-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>173859784</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>Don't expect much</t>
+  </si>
+  <si>
+    <t>Title of the review says it all.  I had the displeasure of staying here for work my employer made the reservation.  Pretty sensitive to cigarette smoke so need a non smoking room all of the rooms should not qualify as non smoking possibly second hand smoke rooms would be a better term.  A/C went out frequently often at night the thermostat in the room was above 85 degrees!!!  Room was not very clean when I got there but the staff did attempt to clean at the end of the week.  Notice I said attempt.  At one point I kicked a shoe under the bed by accident, should have left it there rather than see the assorted refuse left there by previous patrons cigarette butts in a non smoking room never!!! Femainine hygiene product wrappers and other debris.  Mold in the shower/tub.  Over all the room was pretty disgusting.  During my stay law enforcement was there on a weekly if not daily basis.  Not a hotel I would recommend for a family or a vacation.  I do not know who I felt worse for myself or the people who were staying there because the had no other options.  On the lighter side most of the staff were friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Title of the review says it all.  I had the displeasure of staying here for work my employer made the reservation.  Pretty sensitive to cigarette smoke so need a non smoking room all of the rooms should not qualify as non smoking possibly second hand smoke rooms would be a better term.  A/C went out frequently often at night the thermostat in the room was above 85 degrees!!!  Room was not very clean when I got there but the staff did attempt to clean at the end of the week.  Notice I said attempt.  At one point I kicked a shoe under the bed by accident, should have left it there rather than see the assorted refuse left there by previous patrons cigarette butts in a non smoking room never!!! Femainine hygiene product wrappers and other debris.  Mold in the shower/tub.  Over all the room was pretty disgusting.  During my stay law enforcement was there on a weekly if not daily basis.  Not a hotel I would recommend for a family or a vacation.  I do not know who I felt worse for myself or the people who were staying there because the had no other options.  On the lighter side most of the staff were friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r173826691-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>173826691</t>
+  </si>
+  <si>
+    <t>First Time / Great Stay at Crossland Studios Lakewood, Colorado</t>
+  </si>
+  <si>
+    <t>I heard some good things about The Crossland Studios in Lakewood from other friends that came to town and stayed there. Things like its inexpensive, good for the money, easy to feel comfortable, and good location. I gave it a shot a few weeks ago. I stayed there for a total of 10 days. Although I was hoping for flat screen TVs and it would be a phenomenal deal if they had updated TVs, I fully enjoyed my stay. I guess they just upgraded their linens, and the kitchen equipped with essentials (and a full refrigerator!), I did not feel I was in a hotel, but moreso an apartment. Housekeeping once a week was a great addition to their services, and the staff was really friendly. Emily behind the desk especially stands out as a must be great asset to the Extended Stay family of hotels. I was comfortable there and did not feel anything suffered due to the discount pricing. I would definitely stay here again and actually look forward to it. Neighbors were cool too.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded August 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2013</t>
+  </si>
+  <si>
+    <t>I heard some good things about The Crossland Studios in Lakewood from other friends that came to town and stayed there. Things like its inexpensive, good for the money, easy to feel comfortable, and good location. I gave it a shot a few weeks ago. I stayed there for a total of 10 days. Although I was hoping for flat screen TVs and it would be a phenomenal deal if they had updated TVs, I fully enjoyed my stay. I guess they just upgraded their linens, and the kitchen equipped with essentials (and a full refrigerator!), I did not feel I was in a hotel, but moreso an apartment. Housekeeping once a week was a great addition to their services, and the staff was really friendly. Emily behind the desk especially stands out as a must be great asset to the Extended Stay family of hotels. I was comfortable there and did not feel anything suffered due to the discount pricing. I would definitely stay here again and actually look forward to it. Neighbors were cool too.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r173424707-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -842,12 +1309,6 @@
     <t>I recently booked this motel with a last minute travel package I purchased, in order to save some money. Believe me, it totally wasn't worth it. I requested a non-smoking room, which reeked of cigarette smoke and upset my allergies. I sneezed most of the time I was there. The air conditioner did not work, the room was hot, and I hardly got any sleep. One thing everyone should know before booking this motel for multiple days is that housekeeping does not service the rooms. Apparently, from what I've read on other reviews, they only clean the rooms once a week or after a guest leaves. From what I understand, if you do want your room cleaned while you're there, they charge a fee for doing so. Not to mention, housekeeping does a very poor job of cleaning the rooms anyway. The rooms are still filthy. When talking about seedy motels, this one meets up to everything that anybody would expect. When I complained about the cigarette smell, the owner actually had the nerve to insult my intelligence by lying to me, saying the smoke came from the vents in the smoking rooms upstairs. When, in fact, the rooms do NOT have vents. Then, he let me use a bottle of Febreeze to spray in the room to attempt to cover up the odor, which only made it worse, and it only lasted for a short time. After I complained...I recently booked this motel with a last minute travel package I purchased, in order to save some money. Believe me, it totally wasn't worth it. I requested a non-smoking room, which reeked of cigarette smoke and upset my allergies. I sneezed most of the time I was there. The air conditioner did not work, the room was hot, and I hardly got any sleep. One thing everyone should know before booking this motel for multiple days is that housekeeping does not service the rooms. Apparently, from what I've read on other reviews, they only clean the rooms once a week or after a guest leaves. From what I understand, if you do want your room cleaned while you're there, they charge a fee for doing so. Not to mention, housekeeping does a very poor job of cleaning the rooms anyway. The rooms are still filthy. When talking about seedy motels, this one meets up to everything that anybody would expect. When I complained about the cigarette smell, the owner actually had the nerve to insult my intelligence by lying to me, saying the smoke came from the vents in the smoking rooms upstairs. When, in fact, the rooms do NOT have vents. Then, he let me use a bottle of Febreeze to spray in the room to attempt to cover up the odor, which only made it worse, and it only lasted for a short time. After I complained about the air conditioning several times, one of the employees moved me to the room next door. AMAZING... All of a sudden, the smell of cigarette smoke disappeared. Apparently, the alleged smoke from the other rooms didn't make it through the "vents" next door. However, not to my surprise, the air conditioning in the other room didn't work either. The room was hot, and I still got very little sleep. I advise anyone trying to save money, to pay $10 or $15 more and stay somewhere else. At least maybe, you'll get a room that clean, where the air conditioner works and doesn't reek of cigarette smoke. Even better, maybe you'll even get a place that serves a free continental breakfast, which this place does not provide. Or, at the very least, by paying a little more, you can find a place where the management is honest. To sum things up, this place should not even be considered a motel. In my book, it is below a one star rating. This place should be demolished and torn down to the ground. The facility is old and far outdated. The owner does not deserve to be in business.MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded August 29, 2013</t>
-  </si>
-  <si>
-    <t>Responded August 29, 2013</t>
-  </si>
-  <si>
     <t>I recently booked this motel with a last minute travel package I purchased, in order to save some money. Believe me, it totally wasn't worth it. I requested a non-smoking room, which reeked of cigarette smoke and upset my allergies. I sneezed most of the time I was there. The air conditioner did not work, the room was hot, and I hardly got any sleep. One thing everyone should know before booking this motel for multiple days is that housekeeping does not service the rooms. Apparently, from what I've read on other reviews, they only clean the rooms once a week or after a guest leaves. From what I understand, if you do want your room cleaned while you're there, they charge a fee for doing so. Not to mention, housekeeping does a very poor job of cleaning the rooms anyway. The rooms are still filthy. When talking about seedy motels, this one meets up to everything that anybody would expect. When I complained about the cigarette smell, the owner actually had the nerve to insult my intelligence by lying to me, saying the smoke came from the vents in the smoking rooms upstairs. When, in fact, the rooms do NOT have vents. Then, he let me use a bottle of Febreeze to spray in the room to attempt to cover up the odor, which only made it worse, and it only lasted for a short time. After I complained...I recently booked this motel with a last minute travel package I purchased, in order to save some money. Believe me, it totally wasn't worth it. I requested a non-smoking room, which reeked of cigarette smoke and upset my allergies. I sneezed most of the time I was there. The air conditioner did not work, the room was hot, and I hardly got any sleep. One thing everyone should know before booking this motel for multiple days is that housekeeping does not service the rooms. Apparently, from what I've read on other reviews, they only clean the rooms once a week or after a guest leaves. From what I understand, if you do want your room cleaned while you're there, they charge a fee for doing so. Not to mention, housekeeping does a very poor job of cleaning the rooms anyway. The rooms are still filthy. When talking about seedy motels, this one meets up to everything that anybody would expect. When I complained about the cigarette smell, the owner actually had the nerve to insult my intelligence by lying to me, saying the smoke came from the vents in the smoking rooms upstairs. When, in fact, the rooms do NOT have vents. Then, he let me use a bottle of Febreeze to spray in the room to attempt to cover up the odor, which only made it worse, and it only lasted for a short time. After I complained about the air conditioning several times, one of the employees moved me to the room next door. AMAZING... All of a sudden, the smell of cigarette smoke disappeared. Apparently, the alleged smoke from the other rooms didn't make it through the "vents" next door. However, not to my surprise, the air conditioning in the other room didn't work either. The room was hot, and I still got very little sleep. I advise anyone trying to save money, to pay $10 or $15 more and stay somewhere else. At least maybe, you'll get a room that clean, where the air conditioner works and doesn't reek of cigarette smoke. Even better, maybe you'll even get a place that serves a free continental breakfast, which this place does not provide. Or, at the very least, by paying a little more, you can find a place where the management is honest. To sum things up, this place should not even be considered a motel. In my book, it is below a one star rating. This place should be demolished and torn down to the ground. The facility is old and far outdated. The owner does not deserve to be in business.More</t>
   </si>
   <si>
@@ -869,24 +1330,57 @@
     <t>Being next-door to Hooters adds to the attraction but the value for the buck, the view from the balcony,  the close proximity to the lightrail, and the outside access to the rooms make this extended stay hotel a rare find-- its where the Coloradan's stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r171273622-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>171273622</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Getting What You Pay For and Then Some- Good Deal</t>
+  </si>
+  <si>
+    <t>This is my second time staying at an Extended Stay of Americas hotel (first time was an Extended Stay, second was the Crossland. I guess i have spent a lot of time in longer term hotel because I also stayed at the Intown Suites beforehand Therefore, I have enough experience to compare both hotel companies and properties and have figured out out which is better and the smarter choice. My most recent stay at Crossland Suites in Lakewood was my best stay of all. You get a room for a lower price but wind up getting more than you expect or pay for.  Simply stated, the rooms at this hotel are cleaner, bigger, accommodating, and comfortable. If you are staying West of Denver, you can't beat the location. The staff is incredible. From housekeeping to the front desk personnel to the hotel manager Fyzal (I actually became prettty friendly with him) - each member of the staff worked hard for me as a guest and was extremely friendly. All of these things I just mentioned made my budget hotel stay better than what I could of asked for. I definitely recommend. The value and experience is at the Crossland. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded August 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2013</t>
+  </si>
+  <si>
+    <t>This is my second time staying at an Extended Stay of Americas hotel (first time was an Extended Stay, second was the Crossland. I guess i have spent a lot of time in longer term hotel because I also stayed at the Intown Suites beforehand Therefore, I have enough experience to compare both hotel companies and properties and have figured out out which is better and the smarter choice. My most recent stay at Crossland Suites in Lakewood was my best stay of all. You get a room for a lower price but wind up getting more than you expect or pay for.  Simply stated, the rooms at this hotel are cleaner, bigger, accommodating, and comfortable. If you are staying West of Denver, you can't beat the location. The staff is incredible. From housekeeping to the front desk personnel to the hotel manager Fyzal (I actually became prettty friendly with him) - each member of the staff worked hard for me as a guest and was extremely friendly. All of these things I just mentioned made my budget hotel stay better than what I could of asked for. I definitely recommend. The value and experience is at the Crossland. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r171246981-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>171246981</t>
+  </si>
+  <si>
+    <t>Came home smelling like smoke</t>
+  </si>
+  <si>
+    <t>We requested a non smoking room. When we got to the room it reeked of smoke and the corner near our door smelled like pee. When we asked the front desk worker, they said the smell was just coming from a near by room. My mother developed a cough because of how bad the air was and by the time we got home every thing we had with us reeked of smoke and had to be washed multiple times. We will never be returning to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We requested a non smoking room. When we got to the room it reeked of smoke and the corner near our door smelled like pee. When we asked the front desk worker, they said the smell was just coming from a near by room. My mother developed a cough because of how bad the air was and by the time we got home every thing we had with us reeked of smoke and had to be washed multiple times. We will never be returning to this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r171236692-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
     <t>171236692</t>
   </si>
   <si>
-    <t>08/07/2013</t>
-  </si>
-  <si>
     <t>Great Experience at the Crossland Economy Studios in Lakewood</t>
   </si>
   <si>
     <t>I was having my downstairs to my condo completely renovated and had to vacate my home or a short period of time. I wanted to stay closeby to keep my eye on things and for convenience. The most economical choice was Crossland Economy Hotel  in Lakewood. I wanted to save money on my stay but  did not want to give up comfort. Immediately, I was pleansantly surprised. Not only were the rooms clean, comfortable, and appealing for the money, I actually had a good time while I was there. My neighbors were cool, and I met a number of other guests I actually became friends with. The staff was top notch....each and every one of them. The manager Fyzal was extremely nice and accommodating with every one of my requests. Emily, service agent at the front desk knew everything about the property and also made sure I had everything I need. I even became friends with the housekeeping woman assigned to my room, Teresa. She was awesome! My stay went quick, and before I knew it I was back in my condo. I easily recommend this hotel to anyone staying short or long periods of time. I had a great experience!MoreShow less</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
     <t>I was having my downstairs to my condo completely renovated and had to vacate my home or a short period of time. I wanted to stay closeby to keep my eye on things and for convenience. The most economical choice was Crossland Economy Hotel  in Lakewood. I wanted to save money on my stay but  did not want to give up comfort. Immediately, I was pleansantly surprised. Not only were the rooms clean, comfortable, and appealing for the money, I actually had a good time while I was there. My neighbors were cool, and I met a number of other guests I actually became friends with. The staff was top notch....each and every one of them. The manager Fyzal was extremely nice and accommodating with every one of my requests. Emily, service agent at the front desk knew everything about the property and also made sure I had everything I need. I even became friends with the housekeeping woman assigned to my room, Teresa. She was awesome! My stay went quick, and before I knew it I was back in my condo. I easily recommend this hotel to anyone staying short or long periods of time. I had a great experience!More</t>
   </si>
   <si>
@@ -906,12 +1400,6 @@
   </si>
   <si>
     <t>May 2013</t>
-  </si>
-  <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded August 30, 2013</t>
-  </si>
-  <si>
-    <t>Responded August 30, 2013</t>
   </si>
   <si>
     <t>This is my 2nd round of living in an Extended Stay hotel. I wasn't ready to sign a lease for an apartment so I decided to stay at the Extended Stay in Lakewood. When a roommate situation came up, I jumped ship and moved into a house with a friend. I should of known it wouldn't work out because roommate situations that thrive or survive in harmony are rare. When things went sour, I did not hesitate to move back to one of the Extended Stay family hotels. This time I chose the Crossland in Lakewood. I see horrible ratings on this hotel, but I do not agree at all. Here are the advantages of living in a longer term hotel than an apartment. No lease...payments can be made daily, weekly, or monthly...no utility bills....housekeeping once a week...no landlord...overall flexibility. I am so much happier in the hotel. I feel I have no requirements, no commitments, and I like that. I can come and go as I please. OK, so the rooms are not like the ones in the Ritz Carlton, however they are better than their price. The hotel is cheaper than any other option, and I am very comfortable in the rooms I have stayed in. I plan to stay here until I buy real estate. I see no reason to move again, when I am perfectly happy here. It's well worth the money, it's comfortable, and it's...This is my 2nd round of living in an Extended Stay hotel. I wasn't ready to sign a lease for an apartment so I decided to stay at the Extended Stay in Lakewood. When a roommate situation came up, I jumped ship and moved into a house with a friend. I should of known it wouldn't work out because roommate situations that thrive or survive in harmony are rare. When things went sour, I did not hesitate to move back to one of the Extended Stay family hotels. This time I chose the Crossland in Lakewood. I see horrible ratings on this hotel, but I do not agree at all. Here are the advantages of living in a longer term hotel than an apartment. No lease...payments can be made daily, weekly, or monthly...no utility bills....housekeeping once a week...no landlord...overall flexibility. I am so much happier in the hotel. I feel I have no requirements, no commitments, and I like that. I can come and go as I please. OK, so the rooms are not like the ones in the Ritz Carlton, however they are better than their price. The hotel is cheaper than any other option, and I am very comfortable in the rooms I have stayed in. I plan to stay here until I buy real estate. I see no reason to move again, when I am perfectly happy here. It's well worth the money, it's comfortable, and it's freedom!More</t>
@@ -941,6 +1429,42 @@
 I will most...I came to Lakewood, CO from California to look at the area for a possible relocation. I was told that towns west of denver were laid back and had a great mountain view. I planned to stay for 2 weeks to experience and educate myself on South West Denver as much as possible. Money is always an issue, so of course I opted for a cheaper hotel for my stay. I read some mixed reviews on the Crossland Hotel in Lakewood, but since it was much less expensive than other hotels, I felt pretty good about staying here. I am really happy I chose this hotel. For being a budget hotel that caters to longer than average hotel stays, they provided and offered me everything I needed. They thought of everything. The rooms are equipped with a full kitchen, utensils, plates, and cookware. The room I stayed in, which was a regular room, was very spacious and had plenty of drawer and closet space for my belongings. In addiition, the bed was comfortable and the room and bathroom were very clean. I asked the staff a lot of questions about the area and all were happy to answer and help me. I made a daily stop in the front office as hotel manager, Fyzal, front desk manager Emily, and I  had great convos about Denver. Thanks to them, I decided to relocate here in the near future.I will most definitely be staying at this hotel again. It was way worth the money and beyond.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r167158067-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>167158067</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>Misrepresented. Dont stay here even for free.</t>
+  </si>
+  <si>
+    <t>This property does not know what a clean room is. Smoke smell eminates everywhere. The rooms we're lacking functioning light fixtures. There is no pool, breakfast or any semblance of service. If it we're possible to give negative stars, I would. Health department should shut this place down.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property does not know what a clean room is. Smoke smell eminates everywhere. The rooms we're lacking functioning light fixtures. There is no pool, breakfast or any semblance of service. If it we're possible to give negative stars, I would. Health department should shut this place down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r165494067-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>165494067</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Unacceptable</t>
+  </si>
+  <si>
+    <t>We booked this suite on Kipling Street in advance.  After a 10 hr drive we arrived to find a filthy, unacceptable room. When asked for bedding for the sofa bed, we were told they had no more pillowcases. The walkways outside the rooms were very smelly and dirty. The furniture in the room had numerous large stains. There was a stain on the wall that looked like a smear of a bodily fluid. If you are trying to bolster your immune system this is the place for you! I think some people actually live at this location as you cannot help but see in first floor rooms and they are stacked with home items and food products. I am honestly surprised this is a part of the extended stay properties. On the positive side, the desk clerk was very nice and did her best to make things right. We decided we couldn't bear to stay even one night and she was very understanding.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this suite on Kipling Street in advance.  After a 10 hr drive we arrived to find a filthy, unacceptable room. When asked for bedding for the sofa bed, we were told they had no more pillowcases. The walkways outside the rooms were very smelly and dirty. The furniture in the room had numerous large stains. There was a stain on the wall that looked like a smear of a bodily fluid. If you are trying to bolster your immune system this is the place for you! I think some people actually live at this location as you cannot help but see in first floor rooms and they are stacked with home items and food products. I am honestly surprised this is a part of the extended stay properties. On the positive side, the desk clerk was very nice and did her best to make things right. We decided we couldn't bear to stay even one night and she was very understanding.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r164109602-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -995,6 +1519,51 @@
     <t xml:space="preserve">Our room has an awful odor, no couch, no microwave... air conditioner doesn't work..(the person at the desk was nice).The pictures on line showed a much nicer room, &amp; a pool... very dated room, &amp; pool had been removed &amp; is now a pile of dirt.....will never stay with this company again... </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r157382208-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>157382208</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>The manager Fyzal is friendly professional excellent manager. Sarina Hluzek rm (145)</t>
+  </si>
+  <si>
+    <t>I did have a small problem, and the manager Fyzal fixed it in a very timely manner,was completely eager to help and solve my problem very fast. So I thank you for all your help.The front office staff is very friendly and eager to help and if they could not fix it they did make it right, and I do appreciate what they have done to make our stay easier and more comfortable. The front office staff was more like a small family than co workers. Once again thank you all so much. I will be recommend this hotel to family and friends and giving it a great review on YELP. Thanks. Sarina Hluzek (145)MoreShow less</t>
+  </si>
+  <si>
+    <t>I did have a small problem, and the manager Fyzal fixed it in a very timely manner,was completely eager to help and solve my problem very fast. So I thank you for all your help.The front office staff is very friendly and eager to help and if they could not fix it they did make it right, and I do appreciate what they have done to make our stay easier and more comfortable. The front office staff was more like a small family than co workers. Once again thank you all so much. I will be recommend this hotel to family and friends and giving it a great review on YELP. Thanks. Sarina Hluzek (145)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r156645843-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>156645843</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>Very Pleased!</t>
+  </si>
+  <si>
+    <t>This is my first time staying at the Crossland Studios and was very happy. When I checked in the lady at the desk did not know what she was doing and made me wait for 10 minutes before even looking up at me I did not catch her name because she was not wearing a uniform. But then another lady from the back came named Emily and helped me right away and got me checked in very fast and was professional and apoligized for the wait I had. When I got to the room you could tell everything was very old but it was clean so I didnt mind. I will definately come back to stay again because of how clean my room was.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded April 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2013</t>
+  </si>
+  <si>
+    <t>This is my first time staying at the Crossland Studios and was very happy. When I checked in the lady at the desk did not know what she was doing and made me wait for 10 minutes before even looking up at me I did not catch her name because she was not wearing a uniform. But then another lady from the back came named Emily and helped me right away and got me checked in very fast and was professional and apoligized for the wait I had. When I got to the room you could tell everything was very old but it was clean so I didnt mind. I will definately come back to stay again because of how clean my room was.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r154711760-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1010,9 +1579,6 @@
     <t>This is my second survey on my stay at your hotel. My first survey was honest, but maybe a little harsh. I decided to extend my hotel two nights at the your hotel because the good out weighted the bad. Let me start off by saying your staff was very helpful and accommodating. Customer service is very important to me and your staff was exceptional. Although I still don't like the internet and cable, but my overall experience was great. I processed my thoughts and I realized my cable and internet experience wasn't really  important. Having great customer service and staff willing to accommodate you  by going above and beyond to satisfy their guest is what really matters. I would like to thank Fyzal Ishahak and Scott for making my family and myself feel like this was our home away from home.MoreShow less</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded March 18, 2013</t>
   </si>
   <si>
@@ -1067,6 +1633,57 @@
     <t>We checked out less than 24 hours after checking in. Room was disgusting, cigarette holes in furniture, dusty,smelly. Not a "safe feeling" even in the room one night. We quickly moved to a differnt hotel in the morning.  i would NOT recommed this hotel. Staff at check in and check out were ok.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r152124581-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>152124581</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>Absolutely Disgusting</t>
+  </si>
+  <si>
+    <t>THankfully I had my own bedding. Nice employees but otherwise awful. Third floor and luggage dollies were all broken and even if I had one there are three steps down to my room either way. Yellow spots on bedding that smelled. Mold on ceiling. Trash not emptied.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded February 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2013</t>
+  </si>
+  <si>
+    <t>THankfully I had my own bedding. Nice employees but otherwise awful. Third floor and luggage dollies were all broken and even if I had one there are three steps down to my room either way. Yellow spots on bedding that smelled. Mold on ceiling. Trash not emptied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r152072676-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>152072676</t>
+  </si>
+  <si>
+    <t>02/13/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay</t>
+  </si>
+  <si>
+    <t>I checked into this Crossland for a long term stay of more than a month. This was my second experience with Extended Stay suite of hotels (following a satisfying experience at Homestead Studio Suites in Denver). It's real value for money and I found the facility fairly economical as compared to leasing an apartment especially if you are a single person staying in Denver for long term project work.The location is pretty special, away from the city buzz, yet conveniently distant, and right by the freeway that brings you closer to the Rocky Mountains which is the utmost attraction of Colorado.The staff is very friendly and co-operative (esply. Charissa, Emily &amp; Jane) and are willing to tend to any &amp; every issue, and resolve them in the most professional manner.There is ample parking space and a complimentary swimming pool. The house-keeping services are remarkable and there is a regular cleaning that the room undergoes every week, keeps your room neat &amp; tidy, makes your stay fresh &amp; healthy.The rooms are adequately furnished with Cable-TV &amp; Broadband internet to fulfill daily entertainment &amp; recreational needs. What more does a single person need to make his daily routine comfy?MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded February 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2013</t>
+  </si>
+  <si>
+    <t>I checked into this Crossland for a long term stay of more than a month. This was my second experience with Extended Stay suite of hotels (following a satisfying experience at Homestead Studio Suites in Denver). It's real value for money and I found the facility fairly economical as compared to leasing an apartment especially if you are a single person staying in Denver for long term project work.The location is pretty special, away from the city buzz, yet conveniently distant, and right by the freeway that brings you closer to the Rocky Mountains which is the utmost attraction of Colorado.The staff is very friendly and co-operative (esply. Charissa, Emily &amp; Jane) and are willing to tend to any &amp; every issue, and resolve them in the most professional manner.There is ample parking space and a complimentary swimming pool. The house-keeping services are remarkable and there is a regular cleaning that the room undergoes every week, keeps your room neat &amp; tidy, makes your stay fresh &amp; healthy.The rooms are adequately furnished with Cable-TV &amp; Broadband internet to fulfill daily entertainment &amp; recreational needs. What more does a single person need to make his daily routine comfy?More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r151913218-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1106,12 +1723,6 @@
     <t>Jane and the rest of staff are the best, at providing the best, and easiest service in most of colorado. They Make the stay,want to make you stay forever. Great. Service, awesome staff, great place! !MoreShow less</t>
   </si>
   <si>
-    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded February 16, 2013</t>
-  </si>
-  <si>
-    <t>Responded February 16, 2013</t>
-  </si>
-  <si>
     <t>Jane and the rest of staff are the best, at providing the best, and easiest service in most of colorado. They Make the stay,want to make you stay forever. Great. Service, awesome staff, great place! !More</t>
   </si>
   <si>
@@ -1136,6 +1747,48 @@
     <t>I have enjoyed my stay here in Denver while staying here at the crossland economy studios. Quiet, comfortable and economical. The staff has been very helpful, especially the Charissa at the front desk.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r150973397-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>150973397</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>awesome service</t>
+  </si>
+  <si>
+    <t>locked my keys in vehicle, no problem. Staff was extremely professional( Charissa). Friendly atmosphere. Very clean. I would certainly stay again! Many places are twice the price. No need. Very secure and " homelike setting". Thanks to all the staff for making me feel welcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>locked my keys in vehicle, no problem. Staff was extremely professional( Charissa). Friendly atmosphere. Very clean. I would certainly stay again! Many places are twice the price. No need. Very secure and " homelike setting". Thanks to all the staff for making me feel welcome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r150026201-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>150026201</t>
+  </si>
+  <si>
+    <t>01/19/2013</t>
+  </si>
+  <si>
+    <t>stay in denver</t>
+  </si>
+  <si>
+    <t>I was very happy with my room. The staff at this hotel was very helpful and nice. Charissa, andrea and jane made my stay very comfortable. yes the building is older, but i would rather have a building that was built well so i dont hear people above me. The location is perfect for anything you want to do in Denver, close to highways to get you anywhere, and better yet close to the mountains. The price is right for a week stay, saved me from eating out all the time and that saved a lot. I would stay here again if back in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded January 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2013</t>
+  </si>
+  <si>
+    <t>I was very happy with my room. The staff at this hotel was very helpful and nice. Charissa, andrea and jane made my stay very comfortable. yes the building is older, but i would rather have a building that was built well so i dont hear people above me. The location is perfect for anything you want to do in Denver, close to highways to get you anywhere, and better yet close to the mountains. The price is right for a week stay, saved me from eating out all the time and that saved a lot. I would stay here again if back in Denver.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r146299391-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1151,9 +1804,6 @@
     <t>I was very happy with my room,  helpful people at the front desk,  convenient location, and it was extremely quiet.  My room was clean and for the price a very good two nights in Lakewood.  If people want the Hilton, then pay the price and stop complaining.MoreShow less</t>
   </si>
   <si>
-    <t>November 2012</t>
-  </si>
-  <si>
     <t>Adrian S, Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded November 28, 2012</t>
   </si>
   <si>
@@ -1211,6 +1861,60 @@
     <t>Yes, I agree with others saying it's shabby. Hot water works off and on and absolutely poor wi-fi. You get a signal then it stops in less than 5 minutes. We stayed a week and needed it badly. They had us talk to tech support to no avail. The pillows were flat and only 2. Hooters is next door and is noisy.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r140810753-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>140810753</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>great :)</t>
+  </si>
+  <si>
+    <t>everything was great, but they didn't have any extra pillows. the area was centraly located near alot of restuarants and shopping malls, and a grocery store . the interstate was a few miles away but that really wasn't a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded September 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2012</t>
+  </si>
+  <si>
+    <t>everything was great, but they didn't have any extra pillows. the area was centraly located near alot of restuarants and shopping malls, and a grocery store . the interstate was a few miles away but that really wasn't a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r137766617-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>137766617</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Best to find another place</t>
+  </si>
+  <si>
+    <t>Staff was helpful and friendly.  Room clean but shabby.  property needs a MAJOR facelift.  This is Lakewood, I would expect better.  The city should expect better.  Stayed for the kitchen mainly in a suite where there was no bedroom door.  Should have an air conditioner in both rooms.  Things were missing, but we did get those items.  Lighting TERRIBLE in the room.  Stairwells completely dark at night.  Most guests friendly, but to the staff's credit, they did kick an unruly family out.  Plenty of hot water, bath plumbing in good condition.  Being there would make me afraid to go there again for fear of what other guests leave behind!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded August 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2012</t>
+  </si>
+  <si>
+    <t>Staff was helpful and friendly.  Room clean but shabby.  property needs a MAJOR facelift.  This is Lakewood, I would expect better.  The city should expect better.  Stayed for the kitchen mainly in a suite where there was no bedroom door.  Should have an air conditioner in both rooms.  Things were missing, but we did get those items.  Lighting TERRIBLE in the room.  Stairwells completely dark at night.  Most guests friendly, but to the staff's credit, they did kick an unruly family out.  Plenty of hot water, bath plumbing in good condition.  Being there would make me afraid to go there again for fear of what other guests leave behind!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r137378267-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1226,9 +1930,6 @@
     <t>I booked this online based on the price and photos. It was only $20 cheaper per night compared to some other area hotels, but was far below in quality. The photos make it look clean but simple, which would have been fine. However, the room looked really shabby in reality. The sofa sleeper that my child would have to sleep on, I wouldn't have wanted to touch, much less sit or sleep on. The carpet was ancient. The walls had been painted and it was supposedly a non-smoking room, but I have allergies and could tell immediately that it had been a smoking room at some point. The whole place just seemed really run down. The quality makes you question the cleanliness and worry about bedbugs, etc. Go over to the Hampton Inn if you want a proper hotel (maybe 20% more expensive, but about a hundred times nicer).I will say that the receptionist at the front desk was extremely kind and helpful when we checked in. After seeing the room, we explained that it wasn't what we were looking for, and she issued me a refund right away.MoreShow less</t>
   </si>
   <si>
-    <t>August 2012</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Lakewood West, responded to this reviewResponded August 22, 2012</t>
   </si>
   <si>
@@ -1289,6 +1990,45 @@
     <t>this place is gross! the staff was dirty and rude, and i had to buy blankets to sleep on the bed...not in it! there were hairs and other unknown "stuff" on the sheets! it was the worst money i have ever spent to stay in a hotel that was offered up by expedia.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r132820181-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>132820181</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>For the price, it's not bad.  Some things could sure be better.  There were only two rather flat pillows in our room so I went to the desk to get more.  I was told they were completely out of pillows...really?  They were waiting for some to arrive at some unknown point in the future.  When we turned on the TV, several of the channels emitted a high pitched squeal during all programming.  The A/C was old and didn't do a very good job at keeping the room cool (it was over 100 degrees during our stay).  They acknowledged the old A/C in a handout in the welcome packet, but I think this is something that should be mentioned ahead of time during summer.  I did look over the bathroom very carefully and it looked clean at least to the eye.  The space to work was adequate and we really just used the fridge (which was clean) to keep drinks cool.  We've stayed at their Lakewood South location several times before and it's in better working condition than this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>For the price, it's not bad.  Some things could sure be better.  There were only two rather flat pillows in our room so I went to the desk to get more.  I was told they were completely out of pillows...really?  They were waiting for some to arrive at some unknown point in the future.  When we turned on the TV, several of the channels emitted a high pitched squeal during all programming.  The A/C was old and didn't do a very good job at keeping the room cool (it was over 100 degrees during our stay).  They acknowledged the old A/C in a handout in the welcome packet, but I think this is something that should be mentioned ahead of time during summer.  I did look over the bathroom very carefully and it looked clean at least to the eye.  The space to work was adequate and we really just used the fridge (which was clean) to keep drinks cool.  We've stayed at their Lakewood South location several times before and it's in better working condition than this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r127214815-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>127214815</t>
+  </si>
+  <si>
+    <t>04/03/2012</t>
+  </si>
+  <si>
+    <t>This hotel is great for the price!</t>
+  </si>
+  <si>
+    <t>Not in the greatest condition, but this hotel has everything I need for a quick stay. Seems fit for someone staying a while too. The kitchen comes stocked with everything I need to make a meal including a fridge, and stovetop! Internet is not great, but it's free. Hotel could definitely use a remodel but the staff seems comfortable. They take pride in their jobs.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Not in the greatest condition, but this hotel has everything I need for a quick stay. Seems fit for someone staying a while too. The kitchen comes stocked with everything I need to make a meal including a fridge, and stovetop! Internet is not great, but it's free. Hotel could definitely use a remodel but the staff seems comfortable. They take pride in their jobs.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r126811095-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1340,6 +2080,49 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r107417133-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>107417133</t>
+  </si>
+  <si>
+    <t>05/08/2011</t>
+  </si>
+  <si>
+    <t>Good long term stay hotel if you don't ever use the INTERNET</t>
+  </si>
+  <si>
+    <t>The room was reasonably clean when I got in, but not perfect. I have rarely been in one that was. Management is helpful, and staff tries to be, but there is only so much they can do with a property that desperately needs an upgrade to keep it from falling out of the acceptable category. The laundry is small for the size of the property and there's only two things of worth withing walking distance... a gas station and Hooters. It is close to the interstate (not really an interstate, but it might as well be). There occasionally are some characters that stay there, but management has a "don't stay" list that they check to make sure they don't come back. Dogs are welcome, but I rarely have heard one. Rooms have good insulation which may be why THIS HOTEL HAS THE WORST INTERNET CONNECTIVITY OF ANY I HAVE EVER STAYED AT. It constantly fails, but the worst is the extremely low signal. You can get a better signal from the houses in the back of the hotel. Support is through a private firm and they are no help whatsoever as they can't do anything about it. I have stayed here in multiple rooms over the last 5 months and it is ALWAYS the same. Either the routers "have fallen down and need to be reset" or the signal is so low that you can't do anything anyway. This is...The room was reasonably clean when I got in, but not perfect. I have rarely been in one that was. Management is helpful, and staff tries to be, but there is only so much they can do with a property that desperately needs an upgrade to keep it from falling out of the acceptable category. The laundry is small for the size of the property and there's only two things of worth withing walking distance... a gas station and Hooters. It is close to the interstate (not really an interstate, but it might as well be). There occasionally are some characters that stay there, but management has a "don't stay" list that they check to make sure they don't come back. Dogs are welcome, but I rarely have heard one. Rooms have good insulation which may be why THIS HOTEL HAS THE WORST INTERNET CONNECTIVITY OF ANY I HAVE EVER STAYED AT. It constantly fails, but the worst is the extremely low signal. You can get a better signal from the houses in the back of the hotel. Support is through a private firm and they are no help whatsoever as they can't do anything about it. I have stayed here in multiple rooms over the last 5 months and it is ALWAYS the same. Either the routers "have fallen down and need to be reset" or the signal is so low that you can't do anything anyway. This is the first place I have stayed that I actually wish I still had a dialup account. Yeah.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was reasonably clean when I got in, but not perfect. I have rarely been in one that was. Management is helpful, and staff tries to be, but there is only so much they can do with a property that desperately needs an upgrade to keep it from falling out of the acceptable category. The laundry is small for the size of the property and there's only two things of worth withing walking distance... a gas station and Hooters. It is close to the interstate (not really an interstate, but it might as well be). There occasionally are some characters that stay there, but management has a "don't stay" list that they check to make sure they don't come back. Dogs are welcome, but I rarely have heard one. Rooms have good insulation which may be why THIS HOTEL HAS THE WORST INTERNET CONNECTIVITY OF ANY I HAVE EVER STAYED AT. It constantly fails, but the worst is the extremely low signal. You can get a better signal from the houses in the back of the hotel. Support is through a private firm and they are no help whatsoever as they can't do anything about it. I have stayed here in multiple rooms over the last 5 months and it is ALWAYS the same. Either the routers "have fallen down and need to be reset" or the signal is so low that you can't do anything anyway. This is...The room was reasonably clean when I got in, but not perfect. I have rarely been in one that was. Management is helpful, and staff tries to be, but there is only so much they can do with a property that desperately needs an upgrade to keep it from falling out of the acceptable category. The laundry is small for the size of the property and there's only two things of worth withing walking distance... a gas station and Hooters. It is close to the interstate (not really an interstate, but it might as well be). There occasionally are some characters that stay there, but management has a "don't stay" list that they check to make sure they don't come back. Dogs are welcome, but I rarely have heard one. Rooms have good insulation which may be why THIS HOTEL HAS THE WORST INTERNET CONNECTIVITY OF ANY I HAVE EVER STAYED AT. It constantly fails, but the worst is the extremely low signal. You can get a better signal from the houses in the back of the hotel. Support is through a private firm and they are no help whatsoever as they can't do anything about it. I have stayed here in multiple rooms over the last 5 months and it is ALWAYS the same. Either the routers "have fallen down and need to be reset" or the signal is so low that you can't do anything anyway. This is the first place I have stayed that I actually wish I still had a dialup account. Yeah.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r88704485-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>88704485</t>
+  </si>
+  <si>
+    <t>11/30/2010</t>
+  </si>
+  <si>
+    <t>Worked for me.</t>
+  </si>
+  <si>
+    <t>I was hesitant to stay here because of the negative reviews, but it was the best location for my trip and in the price range I wanted to pay. It's a two-star hotel at best, and that's mainly because of the age of the property. It looks like upkeep was put hold at some point in the past, and it really could use a a major renovation. There's one small, slow elevator, so your best bet is to use the stairs. They could use more parking. But since I wasn't expecting the Hilton, I don't have any serious complaints.
+My room was clean and everything was in working order. Maybe older and a bit worn, but I didn't see any obvious stains or damage. The dishes and silverware were very basic, but clean. The enormous room took days to heat up with the baseboard heating system, though -- I don't know when anyone last stayed in that room, but the thermostat was turned all the way down. That's my one major complaint. Yes, the beds are hard, but that didn't bother me much.
+I had no problems with the internet (when you first use it, it says something about a fee, but hotel staff told me that you're not actually charged). Also, staff were very friendly and helpful, even when I lost my key. I didn't encounter any noise problems during my stay, but it was during the middle of...I was hesitant to stay here because of the negative reviews, but it was the best location for my trip and in the price range I wanted to pay. It's a two-star hotel at best, and that's mainly because of the age of the property. It looks like upkeep was put hold at some point in the past, and it really could use a a major renovation. There's one small, slow elevator, so your best bet is to use the stairs. They could use more parking. But since I wasn't expecting the Hilton, I don't have any serious complaints.My room was clean and everything was in working order. Maybe older and a bit worn, but I didn't see any obvious stains or damage. The dishes and silverware were very basic, but clean. The enormous room took days to heat up with the baseboard heating system, though -- I don't know when anyone last stayed in that room, but the thermostat was turned all the way down. That's my one major complaint. Yes, the beds are hard, but that didn't bother me much.I had no problems with the internet (when you first use it, it says something about a fee, but hotel staff told me that you're not actually charged). Also, staff were very friendly and helpful, even when I lost my key. I didn't encounter any noise problems during my stay, but it was during the middle of the week, not the weekend, if that makes a difference.I would recommend this hotel, but not to everyone. I think it's best if you're really trying to save some money on shorter, non-vacation stays. If you're on vacation, you'd likely be more comfortable at another place.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>I was hesitant to stay here because of the negative reviews, but it was the best location for my trip and in the price range I wanted to pay. It's a two-star hotel at best, and that's mainly because of the age of the property. It looks like upkeep was put hold at some point in the past, and it really could use a a major renovation. There's one small, slow elevator, so your best bet is to use the stairs. They could use more parking. But since I wasn't expecting the Hilton, I don't have any serious complaints.
+My room was clean and everything was in working order. Maybe older and a bit worn, but I didn't see any obvious stains or damage. The dishes and silverware were very basic, but clean. The enormous room took days to heat up with the baseboard heating system, though -- I don't know when anyone last stayed in that room, but the thermostat was turned all the way down. That's my one major complaint. Yes, the beds are hard, but that didn't bother me much.
+I had no problems with the internet (when you first use it, it says something about a fee, but hotel staff told me that you're not actually charged). Also, staff were very friendly and helpful, even when I lost my key. I didn't encounter any noise problems during my stay, but it was during the middle of...I was hesitant to stay here because of the negative reviews, but it was the best location for my trip and in the price range I wanted to pay. It's a two-star hotel at best, and that's mainly because of the age of the property. It looks like upkeep was put hold at some point in the past, and it really could use a a major renovation. There's one small, slow elevator, so your best bet is to use the stairs. They could use more parking. But since I wasn't expecting the Hilton, I don't have any serious complaints.My room was clean and everything was in working order. Maybe older and a bit worn, but I didn't see any obvious stains or damage. The dishes and silverware were very basic, but clean. The enormous room took days to heat up with the baseboard heating system, though -- I don't know when anyone last stayed in that room, but the thermostat was turned all the way down. That's my one major complaint. Yes, the beds are hard, but that didn't bother me much.I had no problems with the internet (when you first use it, it says something about a fee, but hotel staff told me that you're not actually charged). Also, staff were very friendly and helpful, even when I lost my key. I didn't encounter any noise problems during my stay, but it was during the middle of the week, not the weekend, if that makes a difference.I would recommend this hotel, but not to everyone. I think it's best if you're really trying to save some money on shorter, non-vacation stays. If you're on vacation, you'd likely be more comfortable at another place.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r81347705-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1400,6 +2183,47 @@
     <t>As you've probably already read in most of the previous reviews. This hotel is gross. We originally made our reservations for 3 nights and within a few hours of being at the hotel were already discussing checking out early. The sofa bed was pulled out and had no linens, its was disgustingly dirty and stained. The bed in the back room had brown ---- stained all down the sides. The air conditioning didn't work very well and not nearly enough to move air to the back bedroom. During the night the air went out. Tried calling the front desk letting the phone ring and ring and no answers.  Refrigerator froze everything in it. I would never ever ever stay at an Extended Stay of America again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r65666084-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>65666084</t>
+  </si>
+  <si>
+    <t>05/28/2010</t>
+  </si>
+  <si>
+    <t>A Real Dump</t>
+  </si>
+  <si>
+    <t>The place is a dump. Beat up outside and the rooms are not much better. Hard beds. 20 yr old basic black 20" TV's without full cable. I tried to watch a movie on USA and the reception kept going in and out, mostly out. I checked out a few other rooms before selecting one and they all smelled really bad even though non smoking.  Plus they do keep the rates a mystery.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r17010742-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>17010742</t>
+  </si>
+  <si>
+    <t>06/17/2008</t>
+  </si>
+  <si>
+    <t>Even a tent would be better than this!</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I have ever been to in my life.  We had been driving all day and were searching for a room for the night.  This was the filthiest, cheapest, most disgusting run-down dump I have ever been to in my life.  When we first got there, for some reason the guy at the desk said he couldn't check us in until 10:30 pm.  
+When we came back, we got a room on the bottom floor right next to the office, which smelled like smoke.  The walls are so thin, I heard everything that went on outside, and saw all the car headlights that went through the parking lot.  Not to mention, there were three of us and our room only had two single beds.  The beds squeaked every single time you moved, and the room looked like it hadn't been cleaned in months.  There was a red M&amp;M candy on the floor by our bed. There was some kind of stain on the sheets, and I woke up with hair in my mouth from whoever slept in that bed previously.  It was SO disgusting.  There was hair EVERYWHERE, especially in the bathtub, sink, towels, and in the bed sheets.  The ceiling above us had grease stains, and the TV was tiny.  Not to mention, it had NO REMOTE, and the volume didn't work.  The lamps were dim and full of grease stains.  They provided a coffee...This was the worst hotel I have ever been to in my life.  We had been driving all day and were searching for a room for the night.  This was the filthiest, cheapest, most disgusting run-down dump I have ever been to in my life.  When we first got there, for some reason the guy at the desk said he couldn't check us in until 10:30 pm.  When we came back, we got a room on the bottom floor right next to the office, which smelled like smoke.  The walls are so thin, I heard everything that went on outside, and saw all the car headlights that went through the parking lot.  Not to mention, there were three of us and our room only had two single beds.  The beds squeaked every single time you moved, and the room looked like it hadn't been cleaned in months.  There was a red M&amp;M candy on the floor by our bed. There was some kind of stain on the sheets, and I woke up with hair in my mouth from whoever slept in that bed previously.  It was SO disgusting.  There was hair EVERYWHERE, especially in the bathtub, sink, towels, and in the bed sheets.  The ceiling above us had grease stains, and the TV was tiny.  Not to mention, it had NO REMOTE, and the volume didn't work.  The lamps were dim and full of grease stains.  They provided a coffee maker, but no coffee.  The stove didn't turn on, and the pots provided were sticky.  The heater was loud and smelled like wet dog.The guy at the desk lied and said the internet service was free, but turns out there was a $5 fee to use it.  They only provided one bar of soap, and luckily we brought our own because the soap they provided smelled like a rotten bowl of oatmeal.  It even had oatmeal chunks in it.  The bathroom was so unsanitary that I gagged while I was brushing my teeth.  The toilets were loud and constantly clogged.  I was scared to sleep in that bed that night because it was so dirty, and I didn't dare take a shower in that filthy bathtub.  We kept our water bottles in the fridge but they didn't seem to get any colder overnight.  There were bugs everywhere, and I woke up with a black spider on the ceiling above my bed.  Had I known the room would have been this way, I would have brought a tent and slept in the Rocky Mountains instead.  It would have been FAR cleaner.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I have ever been to in my life.  We had been driving all day and were searching for a room for the night.  This was the filthiest, cheapest, most disgusting run-down dump I have ever been to in my life.  When we first got there, for some reason the guy at the desk said he couldn't check us in until 10:30 pm.  
+When we came back, we got a room on the bottom floor right next to the office, which smelled like smoke.  The walls are so thin, I heard everything that went on outside, and saw all the car headlights that went through the parking lot.  Not to mention, there were three of us and our room only had two single beds.  The beds squeaked every single time you moved, and the room looked like it hadn't been cleaned in months.  There was a red M&amp;M candy on the floor by our bed. There was some kind of stain on the sheets, and I woke up with hair in my mouth from whoever slept in that bed previously.  It was SO disgusting.  There was hair EVERYWHERE, especially in the bathtub, sink, towels, and in the bed sheets.  The ceiling above us had grease stains, and the TV was tiny.  Not to mention, it had NO REMOTE, and the volume didn't work.  The lamps were dim and full of grease stains.  They provided a coffee...This was the worst hotel I have ever been to in my life.  We had been driving all day and were searching for a room for the night.  This was the filthiest, cheapest, most disgusting run-down dump I have ever been to in my life.  When we first got there, for some reason the guy at the desk said he couldn't check us in until 10:30 pm.  When we came back, we got a room on the bottom floor right next to the office, which smelled like smoke.  The walls are so thin, I heard everything that went on outside, and saw all the car headlights that went through the parking lot.  Not to mention, there were three of us and our room only had two single beds.  The beds squeaked every single time you moved, and the room looked like it hadn't been cleaned in months.  There was a red M&amp;M candy on the floor by our bed. There was some kind of stain on the sheets, and I woke up with hair in my mouth from whoever slept in that bed previously.  It was SO disgusting.  There was hair EVERYWHERE, especially in the bathtub, sink, towels, and in the bed sheets.  The ceiling above us had grease stains, and the TV was tiny.  Not to mention, it had NO REMOTE, and the volume didn't work.  The lamps were dim and full of grease stains.  They provided a coffee maker, but no coffee.  The stove didn't turn on, and the pots provided were sticky.  The heater was loud and smelled like wet dog.The guy at the desk lied and said the internet service was free, but turns out there was a $5 fee to use it.  They only provided one bar of soap, and luckily we brought our own because the soap they provided smelled like a rotten bowl of oatmeal.  It even had oatmeal chunks in it.  The bathroom was so unsanitary that I gagged while I was brushing my teeth.  The toilets were loud and constantly clogged.  I was scared to sleep in that bed that night because it was so dirty, and I didn't dare take a shower in that filthy bathtub.  We kept our water bottles in the fridge but they didn't seem to get any colder overnight.  There were bugs everywhere, and I woke up with a black spider on the ceiling above my bed.  Had I known the room would have been this way, I would have brought a tent and slept in the Rocky Mountains instead.  It would have been FAR cleaner.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r12540022-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1446,6 +2270,42 @@
   </si>
   <si>
     <t>May 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r4586834-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>4586834</t>
+  </si>
+  <si>
+    <t>03/05/2006</t>
+  </si>
+  <si>
+    <t>Needs improvement</t>
+  </si>
+  <si>
+    <t>Won this hotel on a $25 Priceline bid.  You get what you pay for.The room was advertised as a 2 star hotel.  Unfortunately, it does not deserve this high of a rating.  The bed was hard, the pillows were flat and small.  The room is small and the bathroom is tiny.All rooms exit towards the parking lot.  The hotel is adjacent to a Hooters, but is conveniently located near Highway 6 and Highway 40.We used this as a place to spend the night before traveling to ski in Summit County.  It served it's purpose for location.  However, the room came up short on the quality of the room and stay.Furthermore, I had a friend mail some lift tickets to me at the motel's address.  The motel mysteriously claimed they never received the package.  I have a bad feeling an employee may have opened the package and kept the goods for themselves.  I have no way of proving this, of course.In retrospect, I would never stay here again... even for $25.MoreShow less</t>
+  </si>
+  <si>
+    <t>Won this hotel on a $25 Priceline bid.  You get what you pay for.The room was advertised as a 2 star hotel.  Unfortunately, it does not deserve this high of a rating.  The bed was hard, the pillows were flat and small.  The room is small and the bathroom is tiny.All rooms exit towards the parking lot.  The hotel is adjacent to a Hooters, but is conveniently located near Highway 6 and Highway 40.We used this as a place to spend the night before traveling to ski in Summit County.  It served it's purpose for location.  However, the room came up short on the quality of the room and stay.Furthermore, I had a friend mail some lift tickets to me at the motel's address.  The motel mysteriously claimed they never received the package.  I have a bad feeling an employee may have opened the package and kept the goods for themselves.  I have no way of proving this, of course.In retrospect, I would never stay here again... even for $25.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d225455-r3284584-Crossland_Economy_Studios_Denver_Lakewood_West-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>3284584</t>
+  </si>
+  <si>
+    <t>03/17/2005</t>
+  </si>
+  <si>
+    <t>Value Only :-(</t>
+  </si>
+  <si>
+    <t>We stayed here in late June 2004 because we thought we were getting a good rate for a suite. Our room was large, with a small kitchen with breakfast table, a fairly good size living room, tiny bathroom, and two bedrooms with two closets for about $65/night. But...this place is in dire need of a renovation. I thought the ceiling was going to fall in on us. A huge crack loomed above in the stucco-like ceiling across the length of the living area. The bathroom - the only area to shave or put make up on was the width of the sink. If anything fell off the sink top, it'd fall into the toilet. We had to call the maintenance man to repair the toilet; the tank kept leaking. We did go into a one-bedroom king room that a friend was in, and it was in much better condition, although not "fresh." The rooms just felt stagnant. Large laundry facility on site. Hooters restaurant directly next door. Restaurant/Bar directly next to the Hooters almost on the corner. Lots of construction workers stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here in late June 2004 because we thought we were getting a good rate for a suite. Our room was large, with a small kitchen with breakfast table, a fairly good size living room, tiny bathroom, and two bedrooms with two closets for about $65/night. But...this place is in dire need of a renovation. I thought the ceiling was going to fall in on us. A huge crack loomed above in the stucco-like ceiling across the length of the living area. The bathroom - the only area to shave or put make up on was the width of the sink. If anything fell off the sink top, it'd fall into the toilet. We had to call the maintenance man to repair the toilet; the tank kept leaking. We did go into a one-bedroom king room that a friend was in, and it was in much better condition, although not "fresh." The rooms just felt stagnant. Large laundry facility on site. Hooters restaurant directly next door. Restaurant/Bar directly next to the Hooters almost on the corner. Lots of construction workers stay here.More</t>
   </si>
 </sst>
 </file>
@@ -1982,8 +2842,12 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1996,7 +2860,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2012,7 +2876,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2021,45 +2885,39 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2075,52 +2933,48 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -2159,12 +3013,8 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
-      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -2177,7 +3027,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -2193,48 +3043,54 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2271,27 +3127,31 @@
         <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
         <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -2307,7 +3167,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2316,27 +3176,29 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="n">
         <v>1</v>
@@ -2352,7 +3214,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -2368,7 +3230,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2377,25 +3239,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2406,14 +3268,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>100</v>
-      </c>
-      <c r="X9" t="s">
-        <v>101</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2429,52 +3287,48 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
         <v>103</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>105</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>106</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>107</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>91</v>
-      </c>
-      <c r="O10" t="s">
-        <v>66</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -2514,34 +3368,24 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>114</v>
-      </c>
-      <c r="X11" t="s">
-        <v>115</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -2557,34 +3401,34 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
         <v>117</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>118</v>
       </c>
-      <c r="J12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>122</v>
-      </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2595,14 +3439,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>114</v>
-      </c>
-      <c r="X12" t="s">
-        <v>115</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -2618,7 +3458,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2627,43 +3467,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>114</v>
-      </c>
-      <c r="X13" t="s">
-        <v>115</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -2679,7 +3519,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2688,37 +3528,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2726,7 +3566,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -2742,7 +3582,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2751,30 +3591,30 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
@@ -2787,7 +3627,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -2803,31 +3643,35 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>144</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2837,10 +3681,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>145</v>
+      </c>
+      <c r="X16" t="s">
+        <v>146</v>
+      </c>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -2856,44 +3704,44 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>149</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>150</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>151</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>152</v>
       </c>
-      <c r="L17" t="s">
-        <v>153</v>
-      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2901,7 +3749,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -2917,43 +3765,41 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
         <v>156</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>157</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>158</v>
       </c>
-      <c r="K18" t="s">
-        <v>159</v>
-      </c>
-      <c r="L18" t="s">
-        <v>160</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>161</v>
-      </c>
       <c r="O18" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>1</v>
@@ -2964,7 +3810,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
@@ -2980,48 +3826,54 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
         <v>162</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>163</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>164</v>
       </c>
-      <c r="K19" t="s">
-        <v>165</v>
-      </c>
-      <c r="L19" t="s">
-        <v>166</v>
-      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
@@ -3037,52 +3889,58 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
         <v>168</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>169</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>170</v>
       </c>
-      <c r="K20" t="s">
-        <v>171</v>
-      </c>
-      <c r="L20" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>173</v>
-      </c>
       <c r="O20" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="X20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
@@ -3098,58 +3956,52 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
         <v>177</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>178</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>179</v>
       </c>
-      <c r="K21" t="s">
+      <c r="O21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>171</v>
+      </c>
+      <c r="X21" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y21" t="s">
         <v>180</v>
-      </c>
-      <c r="L21" t="s">
-        <v>181</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
-      <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>182</v>
-      </c>
-      <c r="X21" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="22">
@@ -3165,58 +4017,52 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
         <v>185</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>186</v>
       </c>
-      <c r="J22" t="s">
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>171</v>
+      </c>
+      <c r="X22" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y22" t="s">
         <v>187</v>
-      </c>
-      <c r="K22" t="s">
-        <v>188</v>
-      </c>
-      <c r="L22" t="s">
-        <v>189</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
-      <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s">
-        <v>190</v>
-      </c>
-      <c r="X22" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="23">
@@ -3232,7 +4078,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3241,53 +4087,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="X23" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
@@ -3303,7 +4145,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3312,41 +4154,35 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3354,7 +4190,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -3370,7 +4206,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3379,49 +4215,45 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
         <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>214</v>
-      </c>
-      <c r="X25" t="s">
-        <v>215</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
@@ -3437,7 +4269,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3446,41 +4278,35 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
         <v>3</v>
       </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3488,7 +4314,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -3504,7 +4330,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3513,53 +4339,35 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>222</v>
-      </c>
-      <c r="O27" t="s">
-        <v>137</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>229</v>
-      </c>
-      <c r="X27" t="s">
-        <v>230</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
@@ -3575,7 +4383,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3584,25 +4392,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3613,14 +4421,10 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>229</v>
-      </c>
-      <c r="X28" t="s">
-        <v>230</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29">
@@ -3636,7 +4440,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3645,41 +4449,35 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="J29" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="O29" t="s">
-        <v>137</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3687,7 +4485,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
@@ -3703,7 +4501,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3712,53 +4510,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>251</v>
-      </c>
-      <c r="X30" t="s">
-        <v>252</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
@@ -3774,7 +4562,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3783,53 +4571,45 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>260</v>
-      </c>
-      <c r="X31" t="s">
-        <v>261</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
@@ -3845,7 +4625,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3854,49 +4634,39 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="O32" t="s">
-        <v>137</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33">
@@ -3912,7 +4682,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3921,35 +4691,31 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="K33" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="O33" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
       </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
         <v>1</v>
       </c>
@@ -3960,14 +4726,10 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>274</v>
-      </c>
-      <c r="X33" t="s">
-        <v>275</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -3983,7 +4745,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3992,49 +4754,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="Y34" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
@@ -4050,7 +4806,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4059,49 +4815,43 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>269</v>
+      </c>
+      <c r="X35" t="s">
+        <v>270</v>
+      </c>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
@@ -4117,7 +4867,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4126,53 +4876,49 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>295</v>
-      </c>
-      <c r="O36" t="s">
-        <v>66</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="X36" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="Y36" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
@@ -4188,7 +4934,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4197,26 +4943,22 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>295</v>
-      </c>
-      <c r="O37" t="s">
-        <v>66</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
       <c r="P37" t="n">
         <v>5</v>
       </c>
@@ -4227,7 +4969,7 @@
         <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -4237,13 +4979,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="X37" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="Y37" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38">
@@ -4259,7 +5001,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4268,45 +5010,53 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="J38" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="K38" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>293</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>294</v>
+      </c>
+      <c r="X38" t="s">
+        <v>295</v>
+      </c>
       <c r="Y38" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39">
@@ -4322,7 +5072,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4331,49 +5081,53 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="J39" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>303</v>
+      </c>
+      <c r="X39" t="s">
+        <v>304</v>
+      </c>
       <c r="Y39" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40">
@@ -4389,7 +5143,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4398,45 +5152,53 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J40" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="K40" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>302</v>
+      </c>
+      <c r="O40" t="s">
+        <v>94</v>
+      </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>311</v>
+      </c>
+      <c r="X40" t="s">
+        <v>312</v>
+      </c>
       <c r="Y40" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41">
@@ -4452,7 +5214,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4461,53 +5223,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J41" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>327</v>
-      </c>
-      <c r="X41" t="s">
-        <v>328</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42">
@@ -4523,7 +5281,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4532,49 +5290,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J42" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
         <v>326</v>
       </c>
-      <c r="O42" t="s">
-        <v>66</v>
-      </c>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="s">
-        <v>335</v>
-      </c>
       <c r="X42" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Y42" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43">
@@ -4590,7 +5348,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4599,43 +5357,45 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="J43" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="K43" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="L43" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="s">
-        <v>343</v>
-      </c>
-      <c r="O43" t="s">
-        <v>59</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>335</v>
-      </c>
-      <c r="X43" t="s">
-        <v>336</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
@@ -4651,7 +5411,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4660,53 +5420,45 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="J44" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="K44" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="L44" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="s">
-        <v>343</v>
-      </c>
-      <c r="O44" t="s">
-        <v>59</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
         <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>350</v>
-      </c>
-      <c r="X44" t="s">
-        <v>351</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45">
@@ -4722,7 +5474,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4731,33 +5483,37 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="J45" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="K45" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>344</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
@@ -4766,14 +5522,10 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>358</v>
-      </c>
-      <c r="X45" t="s">
-        <v>359</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46">
@@ -4789,7 +5541,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4798,34 +5550,34 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="J46" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="K46" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="L46" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="O46" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -4838,13 +5590,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X46" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y46" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47">
@@ -4860,7 +5612,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4869,53 +5621,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="J47" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K47" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="L47" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="O47" t="s">
-        <v>66</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>4</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="X47" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="Y47" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48">
@@ -4931,7 +5673,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4940,25 +5682,25 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="J48" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="K48" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="L48" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="O48" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -4967,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -4980,13 +5722,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="X48" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="Y48" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49">
@@ -5002,7 +5744,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5011,53 +5753,49 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="J49" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="K49" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="L49" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
-      </c>
-      <c r="N49" t="s">
-        <v>373</v>
-      </c>
-      <c r="O49" t="s">
-        <v>59</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
       <c r="P49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="X49" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50">
@@ -5073,7 +5811,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5082,51 +5820,49 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
       <c r="S50" t="n">
         <v>2</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>399</v>
-      </c>
-      <c r="X50" t="s">
-        <v>400</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51">
@@ -5142,7 +5878,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5151,53 +5887,53 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="J51" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="K51" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="X51" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="Y51" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52">
@@ -5213,7 +5949,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5222,53 +5958,53 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="J52" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="K52" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="X52" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="Y52" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53">
@@ -5284,7 +6020,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5293,41 +6029,41 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="J53" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="O53" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5335,7 +6071,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
@@ -5351,7 +6087,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5360,49 +6096,53 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="J54" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="K54" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="O54" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>413</v>
+      </c>
+      <c r="X54" t="s">
+        <v>414</v>
+      </c>
       <c r="Y54" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
@@ -5418,7 +6158,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5427,39 +6167,41 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J55" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="K55" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="L55" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="O55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
         <v>2</v>
       </c>
-      <c r="Q55" t="s"/>
       <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
         <v>2</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5467,7 +6209,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56">
@@ -5483,7 +6225,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5492,37 +6234,37 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="J56" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="K56" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="L56" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="O56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
@@ -5531,10 +6273,14 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>413</v>
+      </c>
+      <c r="X56" t="s">
+        <v>414</v>
+      </c>
       <c r="Y56" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57">
@@ -5550,7 +6296,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5559,49 +6305,49 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="J57" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="K57" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="L57" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="s">
-        <v>448</v>
-      </c>
-      <c r="O57" t="s">
-        <v>66</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>413</v>
+      </c>
+      <c r="X57" t="s">
+        <v>414</v>
+      </c>
       <c r="Y57" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58">
@@ -5617,7 +6363,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5626,49 +6372,49 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="J58" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="K58" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="L58" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="s">
-        <v>454</v>
-      </c>
-      <c r="O58" t="s">
-        <v>59</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>439</v>
+      </c>
+      <c r="X58" t="s">
+        <v>440</v>
+      </c>
       <c r="Y58" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59">
@@ -5684,7 +6430,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5693,35 +6439,49 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="J59" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="K59" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N59" t="s"/>
       <c r="O59" t="s"/>
-      <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
-      <c r="S59" t="s"/>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>439</v>
+      </c>
+      <c r="X59" t="s">
+        <v>440</v>
+      </c>
       <c r="Y59" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60">
@@ -5737,7 +6497,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5746,35 +6506,49 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="J60" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="K60" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
-      <c r="P60" t="s"/>
-      <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
-      <c r="S60" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>412</v>
+      </c>
+      <c r="O60" t="s">
+        <v>86</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
       <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61">
@@ -5790,7 +6564,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5799,47 +6573,2926 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="J61" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="K61" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="L61" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="O61" t="s">
-        <v>74</v>
-      </c>
-      <c r="P61" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>439</v>
+      </c>
+      <c r="X61" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>459</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>460</v>
+      </c>
+      <c r="J62" t="s">
+        <v>461</v>
+      </c>
+      <c r="K62" t="s">
+        <v>462</v>
+      </c>
+      <c r="L62" t="s">
+        <v>463</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>457</v>
+      </c>
+      <c r="O62" t="s">
+        <v>86</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>439</v>
+      </c>
+      <c r="X62" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>465</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>466</v>
+      </c>
+      <c r="J63" t="s">
+        <v>467</v>
+      </c>
+      <c r="K63" t="s">
+        <v>468</v>
+      </c>
+      <c r="L63" t="s">
+        <v>469</v>
+      </c>
+      <c r="M63" t="n">
         <v>2</v>
       </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s">
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>439</v>
+      </c>
+      <c r="X63" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y63" t="s">
         <v>470</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>471</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>472</v>
+      </c>
+      <c r="J64" t="s">
+        <v>473</v>
+      </c>
+      <c r="K64" t="s">
+        <v>474</v>
+      </c>
+      <c r="L64" t="s">
+        <v>475</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>382</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>477</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>478</v>
+      </c>
+      <c r="J65" t="s">
+        <v>479</v>
+      </c>
+      <c r="K65" t="s">
+        <v>480</v>
+      </c>
+      <c r="L65" t="s">
+        <v>481</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>483</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>484</v>
+      </c>
+      <c r="J66" t="s">
+        <v>485</v>
+      </c>
+      <c r="K66" t="s">
+        <v>486</v>
+      </c>
+      <c r="L66" t="s">
+        <v>487</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>457</v>
+      </c>
+      <c r="O66" t="s">
+        <v>86</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>488</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>489</v>
+      </c>
+      <c r="J67" t="s">
+        <v>490</v>
+      </c>
+      <c r="K67" t="s">
+        <v>491</v>
+      </c>
+      <c r="L67" t="s">
+        <v>492</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>493</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>494</v>
+      </c>
+      <c r="J68" t="s">
+        <v>495</v>
+      </c>
+      <c r="K68" t="s">
+        <v>496</v>
+      </c>
+      <c r="L68" t="s">
+        <v>497</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>499</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>500</v>
+      </c>
+      <c r="J69" t="s">
+        <v>501</v>
+      </c>
+      <c r="K69" t="s">
+        <v>502</v>
+      </c>
+      <c r="L69" t="s">
+        <v>503</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>504</v>
+      </c>
+      <c r="O69" t="s">
+        <v>86</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>505</v>
+      </c>
+      <c r="X69" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>508</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>509</v>
+      </c>
+      <c r="J70" t="s">
+        <v>510</v>
+      </c>
+      <c r="K70" t="s">
+        <v>511</v>
+      </c>
+      <c r="L70" t="s">
+        <v>512</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>504</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>513</v>
+      </c>
+      <c r="X70" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>516</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>517</v>
+      </c>
+      <c r="J71" t="s">
+        <v>518</v>
+      </c>
+      <c r="K71" t="s">
+        <v>519</v>
+      </c>
+      <c r="L71" t="s">
+        <v>520</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>504</v>
+      </c>
+      <c r="O71" t="s">
+        <v>86</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>521</v>
+      </c>
+      <c r="X71" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>524</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>525</v>
+      </c>
+      <c r="J72" t="s">
+        <v>526</v>
+      </c>
+      <c r="K72" t="s">
+        <v>527</v>
+      </c>
+      <c r="L72" t="s">
+        <v>528</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>529</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>521</v>
+      </c>
+      <c r="X72" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>531</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>532</v>
+      </c>
+      <c r="J73" t="s">
+        <v>533</v>
+      </c>
+      <c r="K73" t="s">
+        <v>534</v>
+      </c>
+      <c r="L73" t="s">
+        <v>535</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>536</v>
+      </c>
+      <c r="X73" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>539</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>540</v>
+      </c>
+      <c r="J74" t="s">
+        <v>541</v>
+      </c>
+      <c r="K74" t="s">
+        <v>542</v>
+      </c>
+      <c r="L74" t="s">
+        <v>543</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>544</v>
+      </c>
+      <c r="O74" t="s">
+        <v>86</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>545</v>
+      </c>
+      <c r="X74" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>548</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>549</v>
+      </c>
+      <c r="J75" t="s">
+        <v>550</v>
+      </c>
+      <c r="K75" t="s">
+        <v>551</v>
+      </c>
+      <c r="L75" t="s">
+        <v>552</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>529</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>553</v>
+      </c>
+      <c r="X75" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>556</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>557</v>
+      </c>
+      <c r="J76" t="s">
+        <v>558</v>
+      </c>
+      <c r="K76" t="s">
+        <v>559</v>
+      </c>
+      <c r="L76" t="s">
+        <v>560</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>536</v>
+      </c>
+      <c r="X76" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>562</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>563</v>
+      </c>
+      <c r="J77" t="s">
+        <v>564</v>
+      </c>
+      <c r="K77" t="s">
+        <v>565</v>
+      </c>
+      <c r="L77" t="s">
+        <v>566</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>567</v>
+      </c>
+      <c r="O77" t="s">
+        <v>94</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>553</v>
+      </c>
+      <c r="X77" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>569</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>570</v>
+      </c>
+      <c r="J78" t="s">
+        <v>571</v>
+      </c>
+      <c r="K78" t="s">
+        <v>572</v>
+      </c>
+      <c r="L78" t="s">
+        <v>573</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>398</v>
+      </c>
+      <c r="O78" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>553</v>
+      </c>
+      <c r="X78" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>575</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>576</v>
+      </c>
+      <c r="J79" t="s">
+        <v>577</v>
+      </c>
+      <c r="K79" t="s">
+        <v>578</v>
+      </c>
+      <c r="L79" t="s">
+        <v>579</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>567</v>
+      </c>
+      <c r="O79" t="s">
+        <v>86</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>580</v>
+      </c>
+      <c r="X79" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>583</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>584</v>
+      </c>
+      <c r="J80" t="s">
+        <v>585</v>
+      </c>
+      <c r="K80" t="s">
+        <v>586</v>
+      </c>
+      <c r="L80" t="s">
+        <v>587</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>544</v>
+      </c>
+      <c r="O80" t="s">
+        <v>86</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>588</v>
+      </c>
+      <c r="X80" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>591</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>592</v>
+      </c>
+      <c r="J81" t="s">
+        <v>593</v>
+      </c>
+      <c r="K81" t="s">
+        <v>594</v>
+      </c>
+      <c r="L81" t="s">
+        <v>595</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>544</v>
+      </c>
+      <c r="O81" t="s">
+        <v>94</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>596</v>
+      </c>
+      <c r="X81" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>599</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>600</v>
+      </c>
+      <c r="J82" t="s">
+        <v>601</v>
+      </c>
+      <c r="K82" t="s">
+        <v>602</v>
+      </c>
+      <c r="L82" t="s">
+        <v>603</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>544</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>604</v>
+      </c>
+      <c r="X82" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>607</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>608</v>
+      </c>
+      <c r="J83" t="s">
+        <v>609</v>
+      </c>
+      <c r="K83" t="s">
+        <v>610</v>
+      </c>
+      <c r="L83" t="s">
+        <v>611</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>612</v>
+      </c>
+      <c r="O83" t="s">
+        <v>86</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>613</v>
+      </c>
+      <c r="X83" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>616</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>617</v>
+      </c>
+      <c r="J84" t="s">
+        <v>618</v>
+      </c>
+      <c r="K84" t="s">
+        <v>619</v>
+      </c>
+      <c r="L84" t="s">
+        <v>620</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>621</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>622</v>
+      </c>
+      <c r="X84" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>625</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>626</v>
+      </c>
+      <c r="J85" t="s">
+        <v>627</v>
+      </c>
+      <c r="K85" t="s">
+        <v>628</v>
+      </c>
+      <c r="L85" t="s">
+        <v>629</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>621</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>630</v>
+      </c>
+      <c r="X85" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>633</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>634</v>
+      </c>
+      <c r="J86" t="s">
+        <v>635</v>
+      </c>
+      <c r="K86" t="s">
+        <v>636</v>
+      </c>
+      <c r="L86" t="s">
+        <v>637</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>638</v>
+      </c>
+      <c r="O86" t="s">
+        <v>86</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>639</v>
+      </c>
+      <c r="X86" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>642</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>643</v>
+      </c>
+      <c r="J87" t="s">
+        <v>644</v>
+      </c>
+      <c r="K87" t="s">
+        <v>645</v>
+      </c>
+      <c r="L87" t="s">
+        <v>646</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>638</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>647</v>
+      </c>
+      <c r="X87" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>650</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>651</v>
+      </c>
+      <c r="J88" t="s">
+        <v>652</v>
+      </c>
+      <c r="K88" t="s">
+        <v>653</v>
+      </c>
+      <c r="L88" t="s">
+        <v>654</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>638</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>647</v>
+      </c>
+      <c r="X88" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>656</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>657</v>
+      </c>
+      <c r="J89" t="s">
+        <v>658</v>
+      </c>
+      <c r="K89" t="s">
+        <v>659</v>
+      </c>
+      <c r="L89" t="s">
+        <v>660</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>661</v>
+      </c>
+      <c r="O89" t="s">
+        <v>107</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>639</v>
+      </c>
+      <c r="X89" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>663</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>664</v>
+      </c>
+      <c r="J90" t="s">
+        <v>665</v>
+      </c>
+      <c r="K90" t="s">
+        <v>666</v>
+      </c>
+      <c r="L90" t="s">
+        <v>667</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>668</v>
+      </c>
+      <c r="O90" t="s">
+        <v>86</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>669</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>670</v>
+      </c>
+      <c r="J91" t="s">
+        <v>671</v>
+      </c>
+      <c r="K91" t="s">
+        <v>672</v>
+      </c>
+      <c r="L91" t="s">
+        <v>673</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>668</v>
+      </c>
+      <c r="O91" t="s">
+        <v>94</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>674</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>675</v>
+      </c>
+      <c r="J92" t="s">
+        <v>676</v>
+      </c>
+      <c r="K92" t="s">
+        <v>677</v>
+      </c>
+      <c r="L92" t="s">
+        <v>678</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>679</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>680</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>681</v>
+      </c>
+      <c r="J93" t="s">
+        <v>682</v>
+      </c>
+      <c r="K93" t="s">
+        <v>683</v>
+      </c>
+      <c r="L93" t="s">
+        <v>684</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>679</v>
+      </c>
+      <c r="O93" t="s">
+        <v>94</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>686</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>687</v>
+      </c>
+      <c r="J94" t="s">
+        <v>688</v>
+      </c>
+      <c r="K94" t="s">
+        <v>689</v>
+      </c>
+      <c r="L94" t="s">
+        <v>690</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>691</v>
+      </c>
+      <c r="O94" t="s">
+        <v>94</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>693</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>694</v>
+      </c>
+      <c r="J95" t="s">
+        <v>695</v>
+      </c>
+      <c r="K95" t="s">
+        <v>696</v>
+      </c>
+      <c r="L95" t="s">
+        <v>697</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>698</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>700</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>701</v>
+      </c>
+      <c r="J96" t="s">
+        <v>702</v>
+      </c>
+      <c r="K96" t="s">
+        <v>703</v>
+      </c>
+      <c r="L96" t="s">
+        <v>704</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>705</v>
+      </c>
+      <c r="O96" t="s">
+        <v>86</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>706</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>707</v>
+      </c>
+      <c r="J97" t="s">
+        <v>708</v>
+      </c>
+      <c r="K97" t="s">
+        <v>709</v>
+      </c>
+      <c r="L97" t="s">
+        <v>710</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>711</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>713</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>714</v>
+      </c>
+      <c r="J98" t="s">
+        <v>715</v>
+      </c>
+      <c r="K98" t="s">
+        <v>716</v>
+      </c>
+      <c r="L98" t="s">
+        <v>717</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>718</v>
+      </c>
+      <c r="O98" t="s">
+        <v>86</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>719</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>720</v>
+      </c>
+      <c r="J99" t="s">
+        <v>721</v>
+      </c>
+      <c r="K99" t="s">
+        <v>722</v>
+      </c>
+      <c r="L99" t="s">
+        <v>723</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>724</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>726</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>727</v>
+      </c>
+      <c r="J100" t="s">
+        <v>728</v>
+      </c>
+      <c r="K100" t="s">
+        <v>729</v>
+      </c>
+      <c r="L100" t="s">
+        <v>730</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>732</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>733</v>
+      </c>
+      <c r="J101" t="s">
+        <v>734</v>
+      </c>
+      <c r="K101" t="s">
+        <v>527</v>
+      </c>
+      <c r="L101" t="s">
+        <v>735</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>736</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>737</v>
+      </c>
+      <c r="J102" t="s">
+        <v>738</v>
+      </c>
+      <c r="K102" t="s">
+        <v>739</v>
+      </c>
+      <c r="L102" t="s">
+        <v>740</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>741</v>
+      </c>
+      <c r="O102" t="s">
+        <v>107</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>742</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>743</v>
+      </c>
+      <c r="J103" t="s">
+        <v>744</v>
+      </c>
+      <c r="K103" t="s">
+        <v>745</v>
+      </c>
+      <c r="L103" t="s">
+        <v>746</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>23916</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>748</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>749</v>
+      </c>
+      <c r="J104" t="s">
+        <v>750</v>
+      </c>
+      <c r="K104" t="s">
+        <v>751</v>
+      </c>
+      <c r="L104" t="s">
+        <v>752</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
